--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">A1ToA4_mandatorychecks!$A$1:$N$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bizrule!$A$1:$Q$80</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1228">
   <si>
     <t>y</t>
   </si>
@@ -4363,6 +4363,9 @@
   </si>
   <si>
     <t>TC80_B25_offLabel_197_bizrul_NA251true_err</t>
+  </si>
+  <si>
+    <t>XPATH</t>
   </si>
 </sst>
 </file>
@@ -4512,7 +4515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4692,9 +4695,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4763,7 +4763,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4807,7 +4807,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4851,7 +4851,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4895,7 +4895,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5179,7 +5179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5190,9 +5190,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1"/>
@@ -5206,7 +5206,7 @@
     <col min="7" max="7" width="17.33203125" style="59" customWidth="1"/>
     <col min="8" max="8" width="9.109375" style="59" collapsed="1"/>
     <col min="9" max="9" width="17.5546875" style="59" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8" style="69" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8" style="68" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="39.5546875" style="64" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="42.88671875" style="65" customWidth="1" collapsed="1"/>
@@ -5247,8 +5247,8 @@
       <c r="I1" s="50" t="s">
         <v>1020</v>
       </c>
-      <c r="J1" s="67" t="s">
-        <v>29</v>
+      <c r="J1" s="50" t="s">
+        <v>1227</v>
       </c>
       <c r="K1" s="50" t="s">
         <v>30</v>
@@ -5300,20 +5300,19 @@
       <c r="I2" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="55" t="str">
-        <f>CONCATENATE(B2,"_",C2,"_",D2,"_",E2,"_",F2,"_",G2,"_",H2)</f>
-        <v>TC1_A312_LastName_39_mand_validtext_P</v>
+      <c r="K2" s="55" t="s">
+        <v>1148</v>
       </c>
       <c r="L2" s="55" t="s">
         <v>1148</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>979</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="74" t="s">
         <v>947</v>
       </c>
       <c r="O2" s="61" t="s">
@@ -5327,9 +5326,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A3" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="54"/>
       <c r="B3" s="54" t="s">
         <v>1060</v>
       </c>
@@ -5354,7 +5351,7 @@
       <c r="I3" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="67" t="s">
         <v>47</v>
       </c>
       <c r="K3" s="55" t="str">
@@ -5364,10 +5361,10 @@
       <c r="L3" s="55" t="s">
         <v>1149</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="74" t="s">
         <v>980</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="74" t="s">
         <v>948</v>
       </c>
       <c r="O3" s="61" t="s">
@@ -5381,9 +5378,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A4" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="54"/>
       <c r="B4" s="54" t="s">
         <v>1061</v>
       </c>
@@ -5408,7 +5403,7 @@
       <c r="I4" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="67" t="s">
         <v>50</v>
       </c>
       <c r="K4" s="55" t="str">
@@ -5418,10 +5413,10 @@
       <c r="L4" s="55" t="s">
         <v>1150</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="74" t="s">
         <v>981</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>949</v>
       </c>
       <c r="O4" s="61" t="s">
@@ -5435,9 +5430,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A5" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A5" s="54"/>
       <c r="B5" s="54" t="s">
         <v>1062</v>
       </c>
@@ -5462,7 +5455,7 @@
       <c r="I5" s="54" t="s">
         <v>350</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="67" t="s">
         <v>48</v>
       </c>
       <c r="K5" s="55" t="str">
@@ -5472,10 +5465,10 @@
       <c r="L5" s="55" t="s">
         <v>1151</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="N5" s="75"/>
+      <c r="N5" s="74"/>
       <c r="O5" s="61" t="s">
         <v>359</v>
       </c>
@@ -5487,9 +5480,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A6" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A6" s="54"/>
       <c r="B6" s="54" t="s">
         <v>1063</v>
       </c>
@@ -5514,7 +5505,7 @@
       <c r="I6" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="67" t="s">
         <v>319</v>
       </c>
       <c r="K6" s="55" t="str">
@@ -5524,10 +5515,10 @@
       <c r="L6" s="55" t="s">
         <v>1152</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="N6" s="75"/>
+      <c r="N6" s="74"/>
       <c r="O6" s="61" t="s">
         <v>359</v>
       </c>
@@ -5539,9 +5530,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A7" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A7" s="54"/>
       <c r="B7" s="54" t="s">
         <v>1064</v>
       </c>
@@ -5566,7 +5555,7 @@
       <c r="I7" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="67" t="s">
         <v>326</v>
       </c>
       <c r="K7" s="55" t="str">
@@ -5576,8 +5565,8 @@
       <c r="L7" s="55" t="s">
         <v>1153</v>
       </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
       <c r="O7" s="61" t="s">
         <v>355</v>
       </c>
@@ -5589,9 +5578,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A8" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A8" s="54"/>
       <c r="B8" s="54" t="s">
         <v>1065</v>
       </c>
@@ -5616,7 +5603,7 @@
       <c r="I8" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="67" t="s">
         <v>321</v>
       </c>
       <c r="K8" s="55" t="str">
@@ -5626,10 +5613,10 @@
       <c r="L8" s="55" t="s">
         <v>1154</v>
       </c>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="74" t="s">
         <v>981</v>
       </c>
-      <c r="N8" s="75" t="s">
+      <c r="N8" s="74" t="s">
         <v>949</v>
       </c>
       <c r="O8" s="61" t="s">
@@ -5643,9 +5630,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A9" s="54"/>
       <c r="B9" s="54" t="s">
         <v>1066</v>
       </c>
@@ -5670,7 +5655,7 @@
       <c r="I9" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="67" t="s">
         <v>322</v>
       </c>
       <c r="K9" s="55" t="str">
@@ -5680,10 +5665,10 @@
       <c r="L9" s="55" t="s">
         <v>1155</v>
       </c>
-      <c r="M9" s="75" t="s">
+      <c r="M9" s="74" t="s">
         <v>982</v>
       </c>
-      <c r="N9" s="75" t="s">
+      <c r="N9" s="74" t="s">
         <v>950</v>
       </c>
       <c r="O9" s="61" t="s">
@@ -5697,9 +5682,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A10" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A10" s="54"/>
       <c r="B10" s="54" t="s">
         <v>1067</v>
       </c>
@@ -5724,7 +5707,7 @@
       <c r="I10" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="67" t="s">
         <v>323</v>
       </c>
       <c r="K10" s="55" t="str">
@@ -5734,10 +5717,10 @@
       <c r="L10" s="55" t="s">
         <v>1156</v>
       </c>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="74" t="s">
         <v>983</v>
       </c>
-      <c r="N10" s="75" t="s">
+      <c r="N10" s="74" t="s">
         <v>951</v>
       </c>
       <c r="O10" s="61" t="s">
@@ -5751,9 +5734,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A11" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A11" s="54"/>
       <c r="B11" s="54" t="s">
         <v>1068</v>
       </c>
@@ -5778,7 +5759,7 @@
       <c r="I11" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="67" t="s">
         <v>324</v>
       </c>
       <c r="K11" s="55" t="str">
@@ -5788,10 +5769,10 @@
       <c r="L11" s="55" t="s">
         <v>1157</v>
       </c>
-      <c r="M11" s="75" t="s">
+      <c r="M11" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="N11" s="75" t="s">
+      <c r="N11" s="74" t="s">
         <v>325</v>
       </c>
       <c r="O11" s="61" t="s">
@@ -5805,9 +5786,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A12" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A12" s="54"/>
       <c r="B12" s="54" t="s">
         <v>1069</v>
       </c>
@@ -5832,7 +5811,7 @@
       <c r="I12" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="67" t="s">
         <v>338</v>
       </c>
       <c r="K12" s="55" t="str">
@@ -5842,8 +5821,8 @@
       <c r="L12" s="55" t="s">
         <v>1158</v>
       </c>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
       <c r="O12" s="61" t="s">
         <v>359</v>
       </c>
@@ -5855,9 +5834,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A13" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A13" s="54"/>
       <c r="B13" s="54" t="s">
         <v>1070</v>
       </c>
@@ -5882,7 +5859,7 @@
       <c r="I13" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="67" t="s">
         <v>634</v>
       </c>
       <c r="K13" s="55" t="str">
@@ -5892,10 +5869,10 @@
       <c r="L13" s="55" t="s">
         <v>1159</v>
       </c>
-      <c r="M13" s="75" t="s">
+      <c r="M13" s="74" t="s">
         <v>780</v>
       </c>
-      <c r="N13" s="75"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="62" t="s">
         <v>780</v>
       </c>
@@ -5905,9 +5882,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A14" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A14" s="54"/>
       <c r="B14" s="54" t="s">
         <v>1071</v>
       </c>
@@ -5932,7 +5907,7 @@
       <c r="I14" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="67" t="s">
         <v>635</v>
       </c>
       <c r="K14" s="55" t="str">
@@ -5942,8 +5917,8 @@
       <c r="L14" s="55" t="s">
         <v>1160</v>
       </c>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
       <c r="O14" s="56" t="s">
         <v>890</v>
       </c>
@@ -5953,9 +5928,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A15" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A15" s="54"/>
       <c r="B15" s="54" t="s">
         <v>1072</v>
       </c>
@@ -5980,7 +5953,7 @@
       <c r="I15" s="54" t="s">
         <v>775</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="67" t="s">
         <v>777</v>
       </c>
       <c r="K15" s="55" t="str">
@@ -5990,8 +5963,8 @@
       <c r="L15" s="55" t="s">
         <v>1161</v>
       </c>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
       <c r="O15" s="56" t="s">
         <v>802</v>
       </c>
@@ -6001,9 +5974,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A16" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A16" s="54"/>
       <c r="B16" s="54" t="s">
         <v>1073</v>
       </c>
@@ -6028,7 +5999,7 @@
       <c r="I16" s="54" t="s">
         <v>776</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="67" t="s">
         <v>778</v>
       </c>
       <c r="K16" s="55" t="str">
@@ -6038,8 +6009,8 @@
       <c r="L16" s="55" t="s">
         <v>1162</v>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
       <c r="O16" s="56" t="s">
         <v>802</v>
       </c>
@@ -6049,9 +6020,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A17" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A17" s="54"/>
       <c r="B17" s="54" t="s">
         <v>1074</v>
       </c>
@@ -6076,7 +6045,7 @@
       <c r="I17" s="54" t="s">
         <v>629</v>
       </c>
-      <c r="J17" s="68" t="str">
+      <c r="J17" s="67" t="str">
         <f t="shared" ref="J17" si="1">CONCATENATE("{""xpath"":[{ ""field"":""/MCCI_IN200100UV01/PORR_IN049006UV/controlActProcess/subject/investigationEvent/component/adverseEventAssessment/subject1/primaryRole/player2/code/@code"",""value"":""",I17,"""}]}")</f>
         <v>{"xpath":[{ "field":"/MCCI_IN200100UV01/PORR_IN049006UV/controlActProcess/subject/investigationEvent/component/adverseEventAssessment/subject1/primaryRole/player2/code/@code","value":"ZEB"}]}</v>
       </c>
@@ -6087,10 +6056,10 @@
       <c r="L17" s="55" t="s">
         <v>1163</v>
       </c>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="74" t="s">
         <v>984</v>
       </c>
-      <c r="N17" s="75" t="s">
+      <c r="N17" s="74" t="s">
         <v>952</v>
       </c>
       <c r="O17" s="56" t="s">
@@ -6104,9 +6073,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A18" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A18" s="54"/>
       <c r="B18" s="54" t="s">
         <v>1075</v>
       </c>
@@ -6131,7 +6098,7 @@
       <c r="I18" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="68" t="str">
+      <c r="J18" s="67" t="str">
         <f>CONCATENATE("{""xpath"":[{ ""field"":""/MCCI_IN200100UV01/PORR_IN049006UV/controlActProcess/subject/investigationEvent/component/adverseEventAssessment/subject1/primaryRole/player2/code/@code"",""value"":""",I18,"""}]}")</f>
         <v>{"xpath":[{ "field":"/MCCI_IN200100UV01/PORR_IN049006UV/controlActProcess/subject/investigationEvent/component/adverseEventAssessment/subject1/primaryRole/player2/code/@code","value":"invalid"}]}</v>
       </c>
@@ -6142,10 +6109,10 @@
       <c r="L18" s="55" t="s">
         <v>1164</v>
       </c>
-      <c r="M18" s="75" t="s">
+      <c r="M18" s="74" t="s">
         <v>773</v>
       </c>
-      <c r="N18" s="75" t="s">
+      <c r="N18" s="74" t="s">
         <v>365</v>
       </c>
       <c r="O18" s="56" t="s">
@@ -6159,9 +6126,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A19" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A19" s="54"/>
       <c r="B19" s="54" t="s">
         <v>1076</v>
       </c>
@@ -6186,7 +6151,7 @@
       <c r="I19" s="54" t="s">
         <v>788</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="J19" s="67" t="s">
         <v>784</v>
       </c>
       <c r="K19" s="55" t="str">
@@ -6196,10 +6161,10 @@
       <c r="L19" s="55" t="s">
         <v>1165</v>
       </c>
-      <c r="M19" s="75" t="s">
+      <c r="M19" s="74" t="s">
         <v>985</v>
       </c>
-      <c r="N19" s="75" t="s">
+      <c r="N19" s="74" t="s">
         <v>953</v>
       </c>
       <c r="O19" s="56" t="s">
@@ -6213,9 +6178,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A20" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A20" s="54"/>
       <c r="B20" s="54" t="s">
         <v>1077</v>
       </c>
@@ -6240,7 +6203,7 @@
       <c r="I20" s="54" t="s">
         <v>789</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="67" t="s">
         <v>785</v>
       </c>
       <c r="K20" s="55" t="str">
@@ -6250,10 +6213,10 @@
       <c r="L20" s="55" t="s">
         <v>1166</v>
       </c>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="74" t="s">
         <v>986</v>
       </c>
-      <c r="N20" s="75" t="s">
+      <c r="N20" s="74" t="s">
         <v>954</v>
       </c>
       <c r="O20" s="56" t="s">
@@ -6267,9 +6230,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A21" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A21" s="54"/>
       <c r="B21" s="54" t="s">
         <v>1078</v>
       </c>
@@ -6294,7 +6255,7 @@
       <c r="I21" s="54" t="s">
         <v>790</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="67" t="s">
         <v>786</v>
       </c>
       <c r="K21" s="55" t="str">
@@ -6304,10 +6265,10 @@
       <c r="L21" s="55" t="s">
         <v>1167</v>
       </c>
-      <c r="M21" s="75" t="s">
+      <c r="M21" s="74" t="s">
         <v>987</v>
       </c>
-      <c r="N21" s="75" t="s">
+      <c r="N21" s="74" t="s">
         <v>955</v>
       </c>
       <c r="O21" s="56" t="s">
@@ -6321,9 +6282,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A22" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A22" s="54"/>
       <c r="B22" s="54" t="s">
         <v>1079</v>
       </c>
@@ -6348,7 +6307,7 @@
       <c r="I22" s="54" t="s">
         <v>791</v>
       </c>
-      <c r="J22" s="68" t="s">
+      <c r="J22" s="67" t="s">
         <v>787</v>
       </c>
       <c r="K22" s="55" t="str">
@@ -6358,10 +6317,10 @@
       <c r="L22" s="55" t="s">
         <v>1168</v>
       </c>
-      <c r="M22" s="75" t="s">
+      <c r="M22" s="74" t="s">
         <v>800</v>
       </c>
-      <c r="N22" s="75" t="s">
+      <c r="N22" s="74" t="s">
         <v>806</v>
       </c>
       <c r="O22" s="56" t="s">
@@ -6375,9 +6334,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A23" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A23" s="54"/>
       <c r="B23" s="54" t="s">
         <v>1080</v>
       </c>
@@ -6402,7 +6359,7 @@
       <c r="I23" s="54" t="s">
         <v>792</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="67" t="s">
         <v>793</v>
       </c>
       <c r="K23" s="55" t="str">
@@ -6412,10 +6369,10 @@
       <c r="L23" s="55" t="s">
         <v>1169</v>
       </c>
-      <c r="M23" s="75" t="s">
+      <c r="M23" s="74" t="s">
         <v>800</v>
       </c>
-      <c r="N23" s="75" t="s">
+      <c r="N23" s="74" t="s">
         <v>806</v>
       </c>
       <c r="O23" s="56" t="s">
@@ -6429,9 +6386,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A24" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A24" s="54"/>
       <c r="B24" s="54" t="s">
         <v>1081</v>
       </c>
@@ -6456,7 +6411,7 @@
       <c r="I24" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="J24" s="68" t="s">
+      <c r="J24" s="67" t="s">
         <v>795</v>
       </c>
       <c r="K24" s="55" t="str">
@@ -6466,13 +6421,13 @@
       <c r="L24" s="55" t="s">
         <v>1170</v>
       </c>
-      <c r="M24" s="75" t="s">
+      <c r="M24" s="74" t="s">
         <v>1013</v>
       </c>
-      <c r="N24" s="75" t="s">
+      <c r="N24" s="74" t="s">
         <v>1013</v>
       </c>
-      <c r="O24" s="76" t="s">
+      <c r="O24" s="75" t="s">
         <v>1013</v>
       </c>
       <c r="P24" s="62" t="s">
@@ -6483,9 +6438,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A25" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A25" s="54"/>
       <c r="B25" s="54" t="s">
         <v>1082</v>
       </c>
@@ -6510,7 +6463,7 @@
       <c r="I25" s="54" t="s">
         <v>794</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="67" t="s">
         <v>783</v>
       </c>
       <c r="K25" s="55" t="str">
@@ -6520,13 +6473,13 @@
       <c r="L25" s="55" t="s">
         <v>1171</v>
       </c>
-      <c r="M25" s="75" t="s">
+      <c r="M25" s="74" t="s">
         <v>1013</v>
       </c>
-      <c r="N25" s="75" t="s">
+      <c r="N25" s="74" t="s">
         <v>1013</v>
       </c>
-      <c r="O25" s="76" t="s">
+      <c r="O25" s="75" t="s">
         <v>1013</v>
       </c>
       <c r="P25" s="62" t="s">
@@ -6537,9 +6490,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A26" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A26" s="54"/>
       <c r="B26" s="54" t="s">
         <v>1083</v>
       </c>
@@ -6564,7 +6515,7 @@
       <c r="I26" s="54" t="s">
         <v>810</v>
       </c>
-      <c r="J26" s="68" t="s">
+      <c r="J26" s="67" t="s">
         <v>808</v>
       </c>
       <c r="K26" s="55" t="str">
@@ -6574,10 +6525,10 @@
       <c r="L26" s="55" t="s">
         <v>1172</v>
       </c>
-      <c r="M26" s="75" t="s">
+      <c r="M26" s="74" t="s">
         <v>988</v>
       </c>
-      <c r="N26" s="75" t="s">
+      <c r="N26" s="74" t="s">
         <v>956</v>
       </c>
       <c r="O26" s="56" t="s">
@@ -6591,9 +6542,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A27" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A27" s="54"/>
       <c r="B27" s="54" t="s">
         <v>1084</v>
       </c>
@@ -6618,7 +6567,7 @@
       <c r="I27" s="54" t="s">
         <v>811</v>
       </c>
-      <c r="J27" s="68" t="s">
+      <c r="J27" s="67" t="s">
         <v>812</v>
       </c>
       <c r="K27" s="55" t="str">
@@ -6645,9 +6594,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A28" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A28" s="54"/>
       <c r="B28" s="54" t="s">
         <v>1085</v>
       </c>
@@ -6672,7 +6619,7 @@
       <c r="I28" s="54" t="s">
         <v>813</v>
       </c>
-      <c r="J28" s="68" t="s">
+      <c r="J28" s="67" t="s">
         <v>814</v>
       </c>
       <c r="K28" s="55" t="str">
@@ -6682,10 +6629,10 @@
       <c r="L28" s="55" t="s">
         <v>1174</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="74" t="s">
         <v>984</v>
       </c>
-      <c r="N28" s="75" t="s">
+      <c r="N28" s="74" t="s">
         <v>952</v>
       </c>
       <c r="O28" s="56" t="s">
@@ -6699,9 +6646,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A29" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A29" s="54"/>
       <c r="B29" s="54" t="s">
         <v>1086</v>
       </c>
@@ -6726,7 +6671,7 @@
       <c r="I29" s="54" t="s">
         <v>815</v>
       </c>
-      <c r="J29" s="68" t="s">
+      <c r="J29" s="67" t="s">
         <v>816</v>
       </c>
       <c r="K29" s="55" t="str">
@@ -6736,10 +6681,10 @@
       <c r="L29" s="55" t="s">
         <v>1175</v>
       </c>
-      <c r="M29" s="75" t="s">
+      <c r="M29" s="74" t="s">
         <v>990</v>
       </c>
-      <c r="N29" s="75" t="s">
+      <c r="N29" s="74" t="s">
         <v>958</v>
       </c>
       <c r="O29" s="56" t="s">
@@ -6753,9 +6698,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A30" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A30" s="54"/>
       <c r="B30" s="54" t="s">
         <v>1087</v>
       </c>
@@ -6780,7 +6723,7 @@
       <c r="I30" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="J30" s="68" t="s">
+      <c r="J30" s="67" t="s">
         <v>817</v>
       </c>
       <c r="K30" s="55" t="str">
@@ -6790,10 +6733,10 @@
       <c r="L30" s="55" t="s">
         <v>1176</v>
       </c>
-      <c r="M30" s="75" t="s">
+      <c r="M30" s="74" t="s">
         <v>989</v>
       </c>
-      <c r="N30" s="75" t="s">
+      <c r="N30" s="74" t="s">
         <v>957</v>
       </c>
       <c r="O30" s="56" t="s">
@@ -6807,9 +6750,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A31" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A31" s="54"/>
       <c r="B31" s="54" t="s">
         <v>1088</v>
       </c>
@@ -6834,7 +6775,7 @@
       <c r="I31" s="54" t="s">
         <v>819</v>
       </c>
-      <c r="J31" s="68" t="s">
+      <c r="J31" s="67" t="s">
         <v>820</v>
       </c>
       <c r="K31" s="55" t="str">
@@ -6844,10 +6785,10 @@
       <c r="L31" s="55" t="s">
         <v>1177</v>
       </c>
-      <c r="M31" s="75" t="s">
+      <c r="M31" s="74" t="s">
         <v>991</v>
       </c>
-      <c r="N31" s="75" t="s">
+      <c r="N31" s="74" t="s">
         <v>959</v>
       </c>
       <c r="O31" s="56" t="s">
@@ -6861,9 +6802,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A32" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A32" s="54"/>
       <c r="B32" s="54" t="s">
         <v>1089</v>
       </c>
@@ -6888,7 +6827,7 @@
       <c r="I32" s="54" t="s">
         <v>821</v>
       </c>
-      <c r="J32" s="68" t="s">
+      <c r="J32" s="67" t="s">
         <v>822</v>
       </c>
       <c r="K32" s="55" t="str">
@@ -6898,10 +6837,10 @@
       <c r="L32" s="55" t="s">
         <v>1178</v>
       </c>
-      <c r="M32" s="75" t="s">
+      <c r="M32" s="74" t="s">
         <v>992</v>
       </c>
-      <c r="N32" s="75" t="s">
+      <c r="N32" s="74" t="s">
         <v>960</v>
       </c>
       <c r="O32" s="56" t="s">
@@ -6915,9 +6854,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A33" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A33" s="54"/>
       <c r="B33" s="54" t="s">
         <v>1090</v>
       </c>
@@ -6942,7 +6879,7 @@
       <c r="I33" s="54" t="s">
         <v>826</v>
       </c>
-      <c r="J33" s="68" t="s">
+      <c r="J33" s="67" t="s">
         <v>824</v>
       </c>
       <c r="K33" s="55" t="str">
@@ -6952,10 +6889,10 @@
       <c r="L33" s="55" t="s">
         <v>1179</v>
       </c>
-      <c r="M33" s="75" t="s">
+      <c r="M33" s="74" t="s">
         <v>989</v>
       </c>
-      <c r="N33" s="75" t="s">
+      <c r="N33" s="74" t="s">
         <v>957</v>
       </c>
       <c r="O33" s="56" t="s">
@@ -6969,9 +6906,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A34" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A34" s="54"/>
       <c r="B34" s="54" t="s">
         <v>1091</v>
       </c>
@@ -6996,7 +6931,7 @@
       <c r="I34" s="54" t="s">
         <v>825</v>
       </c>
-      <c r="J34" s="68" t="s">
+      <c r="J34" s="67" t="s">
         <v>809</v>
       </c>
       <c r="K34" s="55" t="str">
@@ -7006,8 +6941,8 @@
       <c r="L34" s="55" t="s">
         <v>1180</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
       <c r="O34" s="56" t="s">
         <v>883</v>
       </c>
@@ -7017,9 +6952,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A35" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A35" s="54"/>
       <c r="B35" s="54" t="s">
         <v>1092</v>
       </c>
@@ -7044,7 +6977,7 @@
       <c r="I35" s="54" t="s">
         <v>827</v>
       </c>
-      <c r="J35" s="68" t="s">
+      <c r="J35" s="67" t="s">
         <v>828</v>
       </c>
       <c r="K35" s="55" t="str">
@@ -7054,8 +6987,8 @@
       <c r="L35" s="55" t="s">
         <v>1181</v>
       </c>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
       <c r="O35" s="56" t="s">
         <v>883</v>
       </c>
@@ -7065,9 +6998,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A36" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A36" s="54"/>
       <c r="B36" s="54" t="s">
         <v>1093</v>
       </c>
@@ -7092,7 +7023,7 @@
       <c r="I36" s="54" t="s">
         <v>842</v>
       </c>
-      <c r="J36" s="68" t="s">
+      <c r="J36" s="67" t="s">
         <v>843</v>
       </c>
       <c r="K36" s="55" t="str">
@@ -7102,8 +7033,8 @@
       <c r="L36" s="55" t="s">
         <v>1182</v>
       </c>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
       <c r="O36" s="56" t="s">
         <v>883</v>
       </c>
@@ -7113,9 +7044,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A37" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A37" s="54"/>
       <c r="B37" s="54" t="s">
         <v>1094</v>
       </c>
@@ -7140,7 +7069,7 @@
       <c r="I37" s="54" t="s">
         <v>879</v>
       </c>
-      <c r="J37" s="68" t="s">
+      <c r="J37" s="67" t="s">
         <v>847</v>
       </c>
       <c r="K37" s="55" t="str">
@@ -7150,8 +7079,8 @@
       <c r="L37" s="55" t="s">
         <v>1183</v>
       </c>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
       <c r="O37" s="56" t="s">
         <v>63</v>
       </c>
@@ -7163,9 +7092,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A38" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A38" s="54"/>
       <c r="B38" s="54" t="s">
         <v>1095</v>
       </c>
@@ -7190,7 +7117,7 @@
       <c r="I38" s="54" t="s">
         <v>880</v>
       </c>
-      <c r="J38" s="68" t="s">
+      <c r="J38" s="67" t="s">
         <v>854</v>
       </c>
       <c r="K38" s="55" t="str">
@@ -7200,8 +7127,8 @@
       <c r="L38" s="55" t="s">
         <v>1184</v>
       </c>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
       <c r="O38" s="56" t="s">
         <v>63</v>
       </c>
@@ -7213,9 +7140,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A39" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A39" s="54"/>
       <c r="B39" s="54" t="s">
         <v>1096</v>
       </c>
@@ -7240,7 +7165,7 @@
       <c r="I39" s="54" t="s">
         <v>855</v>
       </c>
-      <c r="J39" s="68" t="s">
+      <c r="J39" s="67" t="s">
         <v>857</v>
       </c>
       <c r="K39" s="55" t="str">
@@ -7250,8 +7175,8 @@
       <c r="L39" s="55" t="s">
         <v>1185</v>
       </c>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
       <c r="O39" s="56" t="s">
         <v>867</v>
       </c>
@@ -7261,9 +7186,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A40" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A40" s="54"/>
       <c r="B40" s="54" t="s">
         <v>1097</v>
       </c>
@@ -7288,7 +7211,7 @@
       <c r="I40" s="54" t="s">
         <v>856</v>
       </c>
-      <c r="J40" s="68" t="s">
+      <c r="J40" s="67" t="s">
         <v>849</v>
       </c>
       <c r="K40" s="55" t="str">
@@ -7298,8 +7221,8 @@
       <c r="L40" s="55" t="s">
         <v>1186</v>
       </c>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
       <c r="O40" s="56" t="s">
         <v>867</v>
       </c>
@@ -7309,9 +7232,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A41" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A41" s="54"/>
       <c r="B41" s="54" t="s">
         <v>1098</v>
       </c>
@@ -7336,7 +7257,7 @@
       <c r="I41" s="54" t="s">
         <v>848</v>
       </c>
-      <c r="J41" s="68" t="s">
+      <c r="J41" s="67" t="s">
         <v>850</v>
       </c>
       <c r="K41" s="55" t="str">
@@ -7346,10 +7267,10 @@
       <c r="L41" s="55" t="s">
         <v>1187</v>
       </c>
-      <c r="M41" s="75" t="s">
+      <c r="M41" s="74" t="s">
         <v>993</v>
       </c>
-      <c r="N41" s="75" t="s">
+      <c r="N41" s="74" t="s">
         <v>961</v>
       </c>
       <c r="O41" s="56"/>
@@ -7361,9 +7282,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A42" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A42" s="54"/>
       <c r="B42" s="54" t="s">
         <v>1099</v>
       </c>
@@ -7388,7 +7307,7 @@
       <c r="I42" s="54" t="s">
         <v>848</v>
       </c>
-      <c r="J42" s="68" t="s">
+      <c r="J42" s="67" t="s">
         <v>851</v>
       </c>
       <c r="K42" s="55" t="str">
@@ -7398,10 +7317,10 @@
       <c r="L42" s="55" t="s">
         <v>1188</v>
       </c>
-      <c r="M42" s="75" t="s">
+      <c r="M42" s="74" t="s">
         <v>994</v>
       </c>
-      <c r="N42" s="75" t="s">
+      <c r="N42" s="74" t="s">
         <v>962</v>
       </c>
       <c r="O42" s="56"/>
@@ -7413,9 +7332,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A43" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A43" s="54"/>
       <c r="B43" s="54" t="s">
         <v>1100</v>
       </c>
@@ -7440,7 +7357,7 @@
       <c r="I43" s="54" t="s">
         <v>848</v>
       </c>
-      <c r="J43" s="68" t="s">
+      <c r="J43" s="67" t="s">
         <v>852</v>
       </c>
       <c r="K43" s="55" t="str">
@@ -7450,10 +7367,10 @@
       <c r="L43" s="55" t="s">
         <v>1189</v>
       </c>
-      <c r="M43" s="75" t="s">
+      <c r="M43" s="74" t="s">
         <v>995</v>
       </c>
-      <c r="N43" s="75" t="s">
+      <c r="N43" s="74" t="s">
         <v>963</v>
       </c>
       <c r="O43" s="56"/>
@@ -7465,9 +7382,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A44" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A44" s="54"/>
       <c r="B44" s="54" t="s">
         <v>1101</v>
       </c>
@@ -7492,7 +7407,7 @@
       <c r="I44" s="54" t="s">
         <v>848</v>
       </c>
-      <c r="J44" s="68" t="s">
+      <c r="J44" s="67" t="s">
         <v>853</v>
       </c>
       <c r="K44" s="55" t="str">
@@ -7502,10 +7417,10 @@
       <c r="L44" s="55" t="s">
         <v>1190</v>
       </c>
-      <c r="M44" s="75" t="s">
+      <c r="M44" s="74" t="s">
         <v>996</v>
       </c>
-      <c r="N44" s="75"/>
+      <c r="N44" s="74"/>
       <c r="O44" s="56" t="s">
         <v>885</v>
       </c>
@@ -7517,9 +7432,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A45" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A45" s="54"/>
       <c r="B45" s="54" t="s">
         <v>1102</v>
       </c>
@@ -7544,7 +7457,7 @@
       <c r="I45" s="54" t="s">
         <v>848</v>
       </c>
-      <c r="J45" s="68" t="s">
+      <c r="J45" s="67" t="s">
         <v>882</v>
       </c>
       <c r="K45" s="55" t="str">
@@ -7554,10 +7467,10 @@
       <c r="L45" s="55" t="s">
         <v>1191</v>
       </c>
-      <c r="M45" s="75" t="s">
+      <c r="M45" s="74" t="s">
         <v>996</v>
       </c>
-      <c r="N45" s="75"/>
+      <c r="N45" s="74"/>
       <c r="O45" s="56" t="s">
         <v>916</v>
       </c>
@@ -7569,9 +7482,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" s="57" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A46" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A46" s="54"/>
       <c r="B46" s="54" t="s">
         <v>1103</v>
       </c>
@@ -7596,7 +7507,7 @@
       <c r="I46" s="54" t="s">
         <v>886</v>
       </c>
-      <c r="J46" s="68" t="s">
+      <c r="J46" s="67" t="s">
         <v>859</v>
       </c>
       <c r="K46" s="55" t="str">
@@ -7606,8 +7517,8 @@
       <c r="L46" s="55" t="s">
         <v>1192</v>
       </c>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
       <c r="O46" s="57" t="s">
         <v>888</v>
       </c>
@@ -7619,9 +7530,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A47" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A47" s="54"/>
       <c r="B47" s="54" t="s">
         <v>1104</v>
       </c>
@@ -7646,7 +7555,7 @@
       <c r="I47" s="54" t="s">
         <v>887</v>
       </c>
-      <c r="J47" s="68" t="s">
+      <c r="J47" s="67" t="s">
         <v>860</v>
       </c>
       <c r="K47" s="55" t="str">
@@ -7656,16 +7565,14 @@
       <c r="L47" s="55" t="s">
         <v>1193</v>
       </c>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
       <c r="P47" s="61" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A48" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A48" s="54"/>
       <c r="B48" s="54" t="s">
         <v>1105</v>
       </c>
@@ -7690,7 +7597,7 @@
       <c r="I48" s="54" t="s">
         <v>862</v>
       </c>
-      <c r="J48" s="68" t="s">
+      <c r="J48" s="67" t="s">
         <v>868</v>
       </c>
       <c r="K48" s="55" t="str">
@@ -7700,10 +7607,10 @@
       <c r="L48" s="55" t="s">
         <v>1194</v>
       </c>
-      <c r="M48" s="75" t="s">
+      <c r="M48" s="74" t="s">
         <v>997</v>
       </c>
-      <c r="N48" s="75" t="s">
+      <c r="N48" s="74" t="s">
         <v>964</v>
       </c>
       <c r="P48" s="62" t="s">
@@ -7711,9 +7618,7 @@
       </c>
     </row>
     <row r="49" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A49" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A49" s="54"/>
       <c r="B49" s="54" t="s">
         <v>1106</v>
       </c>
@@ -7738,7 +7643,7 @@
       <c r="I49" s="54" t="s">
         <v>863</v>
       </c>
-      <c r="J49" s="68" t="s">
+      <c r="J49" s="67" t="s">
         <v>869</v>
       </c>
       <c r="K49" s="55" t="str">
@@ -7748,8 +7653,8 @@
       <c r="L49" s="55" t="s">
         <v>1195</v>
       </c>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
       <c r="O49" s="56" t="s">
         <v>891</v>
       </c>
@@ -7761,9 +7666,7 @@
       </c>
     </row>
     <row r="50" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A50" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A50" s="54"/>
       <c r="B50" s="54" t="s">
         <v>1107</v>
       </c>
@@ -7788,7 +7691,7 @@
       <c r="I50" s="54" t="s">
         <v>863</v>
       </c>
-      <c r="J50" s="68" t="s">
+      <c r="J50" s="67" t="s">
         <v>870</v>
       </c>
       <c r="K50" s="55" t="str">
@@ -7798,8 +7701,8 @@
       <c r="L50" s="55" t="s">
         <v>1196</v>
       </c>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
       <c r="O50" s="56" t="s">
         <v>889</v>
       </c>
@@ -7811,9 +7714,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A51" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A51" s="54"/>
       <c r="B51" s="54" t="s">
         <v>1108</v>
       </c>
@@ -7838,7 +7739,7 @@
       <c r="I51" s="54" t="s">
         <v>863</v>
       </c>
-      <c r="J51" s="68" t="s">
+      <c r="J51" s="67" t="s">
         <v>871</v>
       </c>
       <c r="K51" s="55" t="str">
@@ -7848,8 +7749,8 @@
       <c r="L51" s="55" t="s">
         <v>1197</v>
       </c>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
       <c r="O51" s="56" t="s">
         <v>891</v>
       </c>
@@ -7861,9 +7762,7 @@
       </c>
     </row>
     <row r="52" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A52" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A52" s="54"/>
       <c r="B52" s="54" t="s">
         <v>1109</v>
       </c>
@@ -7888,7 +7787,7 @@
       <c r="I52" s="54" t="s">
         <v>863</v>
       </c>
-      <c r="J52" s="68" t="s">
+      <c r="J52" s="67" t="s">
         <v>872</v>
       </c>
       <c r="K52" s="55" t="str">
@@ -7898,8 +7797,8 @@
       <c r="L52" s="55" t="s">
         <v>1198</v>
       </c>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
       <c r="O52" s="56" t="s">
         <v>891</v>
       </c>
@@ -7911,9 +7810,7 @@
       </c>
     </row>
     <row r="53" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A53" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A53" s="54"/>
       <c r="B53" s="54" t="s">
         <v>1110</v>
       </c>
@@ -7938,7 +7835,7 @@
       <c r="I53" s="54" t="s">
         <v>863</v>
       </c>
-      <c r="J53" s="68" t="s">
+      <c r="J53" s="67" t="s">
         <v>873</v>
       </c>
       <c r="K53" s="55" t="str">
@@ -7948,8 +7845,8 @@
       <c r="L53" s="55" t="s">
         <v>1199</v>
       </c>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
       <c r="O53" s="56" t="s">
         <v>891</v>
       </c>
@@ -7961,9 +7858,7 @@
       </c>
     </row>
     <row r="54" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A54" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A54" s="54"/>
       <c r="B54" s="54" t="s">
         <v>1111</v>
       </c>
@@ -7988,7 +7883,7 @@
       <c r="I54" s="54" t="s">
         <v>865</v>
       </c>
-      <c r="J54" s="68" t="s">
+      <c r="J54" s="67" t="s">
         <v>874</v>
       </c>
       <c r="K54" s="55" t="str">
@@ -7998,8 +7893,8 @@
       <c r="L54" s="55" t="s">
         <v>1200</v>
       </c>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
       <c r="O54" s="56" t="s">
         <v>891</v>
       </c>
@@ -8011,9 +7906,7 @@
       </c>
     </row>
     <row r="55" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A55" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A55" s="54"/>
       <c r="B55" s="54" t="s">
         <v>1112</v>
       </c>
@@ -8038,7 +7931,7 @@
       <c r="I55" s="54" t="s">
         <v>864</v>
       </c>
-      <c r="J55" s="68" t="s">
+      <c r="J55" s="67" t="s">
         <v>875</v>
       </c>
       <c r="K55" s="55" t="str">
@@ -8048,10 +7941,10 @@
       <c r="L55" s="55" t="s">
         <v>1201</v>
       </c>
-      <c r="M55" s="75" t="s">
+      <c r="M55" s="74" t="s">
         <v>998</v>
       </c>
-      <c r="N55" s="75" t="s">
+      <c r="N55" s="74" t="s">
         <v>965</v>
       </c>
       <c r="P55" s="62" t="s">
@@ -8062,9 +7955,7 @@
       </c>
     </row>
     <row r="56" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A56" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A56" s="54"/>
       <c r="B56" s="54" t="s">
         <v>1113</v>
       </c>
@@ -8099,10 +7990,10 @@
       <c r="L56" s="55" t="s">
         <v>1202</v>
       </c>
-      <c r="M56" s="75" t="s">
+      <c r="M56" s="74" t="s">
         <v>999</v>
       </c>
-      <c r="N56" s="75"/>
+      <c r="N56" s="74"/>
       <c r="O56" s="49" t="s">
         <v>895</v>
       </c>
@@ -8114,9 +8005,7 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A57" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A57" s="54"/>
       <c r="B57" s="54" t="s">
         <v>1114</v>
       </c>
@@ -8151,8 +8040,8 @@
       <c r="L57" s="55" t="s">
         <v>1203</v>
       </c>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
       <c r="O57" s="49" t="s">
         <v>895</v>
       </c>
@@ -8164,9 +8053,7 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A58" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A58" s="54"/>
       <c r="B58" s="54" t="s">
         <v>1115</v>
       </c>
@@ -8201,8 +8088,8 @@
       <c r="L58" s="55" t="s">
         <v>1204</v>
       </c>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
       <c r="P58" s="66" t="s">
         <v>867</v>
       </c>
@@ -8211,9 +8098,7 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A59" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A59" s="54"/>
       <c r="B59" s="54" t="s">
         <v>1116</v>
       </c>
@@ -8229,7 +8114,7 @@
       <c r="F59" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="G59" s="77">
+      <c r="G59" s="76">
         <v>1</v>
       </c>
       <c r="H59" s="59" t="s">
@@ -8248,10 +8133,10 @@
       <c r="L59" s="55" t="s">
         <v>1205</v>
       </c>
-      <c r="M59" s="75" t="s">
+      <c r="M59" s="74" t="s">
         <v>1000</v>
       </c>
-      <c r="N59" s="75" t="s">
+      <c r="N59" s="74" t="s">
         <v>966</v>
       </c>
       <c r="P59" s="66" t="s">
@@ -8262,9 +8147,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A60" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A60" s="54"/>
       <c r="B60" s="54" t="s">
         <v>1117</v>
       </c>
@@ -8280,7 +8163,7 @@
       <c r="F60" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="G60" s="77">
+      <c r="G60" s="76">
         <v>59</v>
       </c>
       <c r="H60" s="59" t="s">
@@ -8299,10 +8182,10 @@
       <c r="L60" s="55" t="s">
         <v>1206</v>
       </c>
-      <c r="M60" s="75" t="s">
+      <c r="M60" s="74" t="s">
         <v>1001</v>
       </c>
-      <c r="N60" s="75" t="s">
+      <c r="N60" s="74" t="s">
         <v>967</v>
       </c>
       <c r="P60" s="66" t="s">
@@ -8313,9 +8196,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A61" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A61" s="54"/>
       <c r="B61" s="54" t="s">
         <v>1118</v>
       </c>
@@ -8331,7 +8212,7 @@
       <c r="F61" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="G61" s="77">
+      <c r="G61" s="76">
         <v>60</v>
       </c>
       <c r="H61" s="59" t="s">
@@ -8350,10 +8231,10 @@
       <c r="L61" s="55" t="s">
         <v>1207</v>
       </c>
-      <c r="M61" s="75" t="s">
+      <c r="M61" s="74" t="s">
         <v>1002</v>
       </c>
-      <c r="N61" s="75" t="s">
+      <c r="N61" s="74" t="s">
         <v>968</v>
       </c>
       <c r="P61" s="66" t="s">
@@ -8364,9 +8245,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A62" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A62" s="54"/>
       <c r="B62" s="54" t="s">
         <v>1119</v>
       </c>
@@ -8382,7 +8261,7 @@
       <c r="F62" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="G62" s="77">
+      <c r="G62" s="76">
         <v>61</v>
       </c>
       <c r="H62" s="54" t="s">
@@ -8401,10 +8280,10 @@
       <c r="L62" s="55" t="s">
         <v>1208</v>
       </c>
-      <c r="M62" s="75" t="s">
+      <c r="M62" s="74" t="s">
         <v>996</v>
       </c>
-      <c r="N62" s="75"/>
+      <c r="N62" s="74"/>
       <c r="P62" s="66" t="s">
         <v>913</v>
       </c>
@@ -8413,9 +8292,7 @@
       </c>
     </row>
     <row r="63" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A63" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A63" s="54"/>
       <c r="B63" s="54" t="s">
         <v>1120</v>
       </c>
@@ -8431,7 +8308,7 @@
       <c r="F63" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="G63" s="77">
+      <c r="G63" s="76">
         <v>70</v>
       </c>
       <c r="H63" s="54" t="s">
@@ -8450,10 +8327,10 @@
       <c r="L63" s="55" t="s">
         <v>1209</v>
       </c>
-      <c r="M63" s="75" t="s">
+      <c r="M63" s="74" t="s">
         <v>996</v>
       </c>
-      <c r="N63" s="75"/>
+      <c r="N63" s="74"/>
       <c r="P63" s="66" t="s">
         <v>915</v>
       </c>
@@ -8462,25 +8339,23 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="9.75" customHeight="1">
-      <c r="A64" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A64" s="54"/>
       <c r="B64" s="54" t="s">
         <v>1121</v>
       </c>
       <c r="C64" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D64" s="71" t="s">
+      <c r="D64" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E64" s="60">
         <v>198</v>
       </c>
-      <c r="F64" s="71" t="s">
+      <c r="F64" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G64" s="71" t="s">
+      <c r="G64" s="70" t="s">
         <v>1040</v>
       </c>
       <c r="H64" s="59" t="s">
@@ -8489,7 +8364,7 @@
       <c r="I64" s="59" t="s">
         <v>918</v>
       </c>
-      <c r="J64" s="70"/>
+      <c r="J64" s="69"/>
       <c r="K64" s="55" t="str">
         <f t="shared" si="0"/>
         <v>TC64_B25_offLabel_198_bizrul_true251null_p</v>
@@ -8497,36 +8372,34 @@
       <c r="L64" s="55" t="s">
         <v>1210</v>
       </c>
-      <c r="M64" s="75" t="s">
+      <c r="M64" s="74" t="s">
         <v>1003</v>
       </c>
-      <c r="N64" s="75" t="s">
+      <c r="N64" s="74" t="s">
         <v>969</v>
       </c>
-      <c r="O64" s="74" t="s">
+      <c r="O64" s="73" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A65" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A65" s="54"/>
       <c r="B65" s="54" t="s">
         <v>1122</v>
       </c>
       <c r="C65" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D65" s="71" t="s">
+      <c r="D65" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E65" s="60">
         <v>198</v>
       </c>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G65" s="71" t="s">
+      <c r="G65" s="70" t="s">
         <v>1041</v>
       </c>
       <c r="H65" s="59" t="s">
@@ -8535,7 +8408,7 @@
       <c r="I65" s="59" t="s">
         <v>921</v>
       </c>
-      <c r="J65" s="70"/>
+      <c r="J65" s="69"/>
       <c r="K65" s="55" t="str">
         <f t="shared" si="0"/>
         <v>TC65_B25_offLabel_198_bizrul_True251unk_p</v>
@@ -8543,36 +8416,34 @@
       <c r="L65" s="55" t="s">
         <v>1211</v>
       </c>
-      <c r="M65" s="75" t="s">
+      <c r="M65" s="74" t="s">
         <v>1004</v>
       </c>
-      <c r="N65" s="75" t="s">
+      <c r="N65" s="74" t="s">
         <v>970</v>
       </c>
-      <c r="O65" s="72" t="s">
+      <c r="O65" s="71" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A66" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A66" s="54"/>
       <c r="B66" s="54" t="s">
         <v>1123</v>
       </c>
       <c r="C66" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D66" s="71" t="s">
+      <c r="D66" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E66" s="60">
         <v>198</v>
       </c>
-      <c r="F66" s="71" t="s">
+      <c r="F66" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G66" s="71" t="s">
+      <c r="G66" s="70" t="s">
         <v>1042</v>
       </c>
       <c r="H66" s="59" t="s">
@@ -8581,7 +8452,7 @@
       <c r="I66" s="59" t="s">
         <v>925</v>
       </c>
-      <c r="J66" s="70"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="55" t="str">
         <f t="shared" si="0"/>
         <v>TC66_B25_offLabel_198_bizrul_True251NA_p</v>
@@ -8589,36 +8460,34 @@
       <c r="L66" s="55" t="s">
         <v>1212</v>
       </c>
-      <c r="M66" s="75" t="s">
+      <c r="M66" s="74" t="s">
         <v>1005</v>
       </c>
-      <c r="N66" s="75" t="s">
+      <c r="N66" s="74" t="s">
         <v>971</v>
       </c>
-      <c r="O66" s="72" t="s">
+      <c r="O66" s="71" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A67" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A67" s="54"/>
       <c r="B67" s="54" t="s">
         <v>1124</v>
       </c>
       <c r="C67" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D67" s="71" t="s">
+      <c r="D67" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E67" s="60">
         <v>198</v>
       </c>
-      <c r="F67" s="71" t="s">
+      <c r="F67" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G67" s="71" t="s">
+      <c r="G67" s="70" t="s">
         <v>1043</v>
       </c>
       <c r="H67" s="54" t="s">
@@ -8627,7 +8496,7 @@
       <c r="I67" s="59" t="s">
         <v>920</v>
       </c>
-      <c r="J67" s="70"/>
+      <c r="J67" s="69"/>
       <c r="K67" s="55" t="str">
         <f t="shared" ref="K67:K80" si="2">CONCATENATE(B67,"_",C67,"_",D67,"_",E67,"_",F67,"_",G67,"_",H67)</f>
         <v>TC67_B25_offLabel_198_bizrul_True251false_err</v>
@@ -8635,36 +8504,34 @@
       <c r="L67" s="55" t="s">
         <v>1213</v>
       </c>
-      <c r="M67" s="75" t="s">
+      <c r="M67" s="74" t="s">
         <v>1006</v>
       </c>
-      <c r="N67" s="75" t="s">
+      <c r="N67" s="74" t="s">
         <v>972</v>
       </c>
-      <c r="O67" s="73" t="s">
+      <c r="O67" s="72" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A68" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A68" s="54"/>
       <c r="B68" s="54" t="s">
         <v>1125</v>
       </c>
       <c r="C68" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D68" s="71" t="s">
+      <c r="D68" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E68" s="60">
         <v>198</v>
       </c>
-      <c r="F68" s="71" t="s">
+      <c r="F68" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G68" s="71" t="s">
+      <c r="G68" s="70" t="s">
         <v>1044</v>
       </c>
       <c r="H68" s="54" t="s">
@@ -8673,7 +8540,7 @@
       <c r="I68" s="59" t="s">
         <v>930</v>
       </c>
-      <c r="J68" s="70"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="55" t="str">
         <f t="shared" si="2"/>
         <v>TC68_B25_offLabel_198_bizrul_True251true_err</v>
@@ -8681,36 +8548,34 @@
       <c r="L68" s="55" t="s">
         <v>1214</v>
       </c>
-      <c r="M68" s="75" t="s">
+      <c r="M68" s="74" t="s">
         <v>1006</v>
       </c>
-      <c r="N68" s="75" t="s">
+      <c r="N68" s="74" t="s">
         <v>972</v>
       </c>
-      <c r="O68" s="73" t="s">
+      <c r="O68" s="72" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A69" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A69" s="54"/>
       <c r="B69" s="54" t="s">
         <v>1126</v>
       </c>
       <c r="C69" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E69" s="60">
         <v>197</v>
       </c>
-      <c r="F69" s="71" t="s">
+      <c r="F69" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G69" s="71" t="s">
+      <c r="G69" s="70" t="s">
         <v>1045</v>
       </c>
       <c r="H69" s="59" t="s">
@@ -8719,7 +8584,7 @@
       <c r="I69" s="59" t="s">
         <v>922</v>
       </c>
-      <c r="J69" s="70"/>
+      <c r="J69" s="69"/>
       <c r="K69" s="55" t="str">
         <f t="shared" si="2"/>
         <v>TC69_B25_offLabel_197_bizrul_False251Null_p</v>
@@ -8727,36 +8592,34 @@
       <c r="L69" s="55" t="s">
         <v>1215</v>
       </c>
-      <c r="M69" s="75" t="s">
+      <c r="M69" s="74" t="s">
         <v>1007</v>
       </c>
-      <c r="N69" s="75" t="s">
+      <c r="N69" s="74" t="s">
         <v>973</v>
       </c>
-      <c r="O69" s="72" t="s">
+      <c r="O69" s="71" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A70" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A70" s="54"/>
       <c r="B70" s="54" t="s">
         <v>1127</v>
       </c>
       <c r="C70" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D70" s="71" t="s">
+      <c r="D70" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E70" s="60">
         <v>197</v>
       </c>
-      <c r="F70" s="71" t="s">
+      <c r="F70" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G70" s="71" t="s">
+      <c r="G70" s="70" t="s">
         <v>1046</v>
       </c>
       <c r="H70" s="59" t="s">
@@ -8765,7 +8628,7 @@
       <c r="I70" s="59" t="s">
         <v>919</v>
       </c>
-      <c r="J70" s="70"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="55" t="str">
         <f t="shared" si="2"/>
         <v>TC70_B25_offLabel_197_bizrul_False251true_p</v>
@@ -8773,36 +8636,34 @@
       <c r="L70" s="55" t="s">
         <v>1216</v>
       </c>
-      <c r="M70" s="75" t="s">
+      <c r="M70" s="74" t="s">
         <v>1008</v>
       </c>
-      <c r="N70" s="75" t="s">
+      <c r="N70" s="74" t="s">
         <v>974</v>
       </c>
-      <c r="O70" s="72" t="s">
+      <c r="O70" s="71" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A71" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A71" s="54"/>
       <c r="B71" s="54" t="s">
         <v>1128</v>
       </c>
       <c r="C71" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D71" s="71" t="s">
+      <c r="D71" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E71" s="60">
         <v>197</v>
       </c>
-      <c r="F71" s="71" t="s">
+      <c r="F71" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G71" s="71" t="s">
+      <c r="G71" s="70" t="s">
         <v>1047</v>
       </c>
       <c r="H71" s="54" t="s">
@@ -8811,7 +8672,7 @@
       <c r="I71" s="59" t="s">
         <v>923</v>
       </c>
-      <c r="J71" s="70"/>
+      <c r="J71" s="69"/>
       <c r="K71" s="55" t="str">
         <f t="shared" si="2"/>
         <v>TC71_B25_offLabel_197_bizrul_False251false_err</v>
@@ -8819,36 +8680,34 @@
       <c r="L71" s="55" t="s">
         <v>1217</v>
       </c>
-      <c r="M71" s="75" t="s">
+      <c r="M71" s="74" t="s">
         <v>1009</v>
       </c>
-      <c r="N71" s="75" t="s">
+      <c r="N71" s="74" t="s">
         <v>975</v>
       </c>
-      <c r="O71" s="73" t="s">
+      <c r="O71" s="72" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A72" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A72" s="54"/>
       <c r="B72" s="54" t="s">
         <v>1129</v>
       </c>
       <c r="C72" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D72" s="71" t="s">
+      <c r="D72" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E72" s="60">
         <v>197</v>
       </c>
-      <c r="F72" s="71" t="s">
+      <c r="F72" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G72" s="71" t="s">
+      <c r="G72" s="70" t="s">
         <v>1048</v>
       </c>
       <c r="H72" s="59" t="s">
@@ -8857,7 +8716,7 @@
       <c r="I72" s="59" t="s">
         <v>924</v>
       </c>
-      <c r="J72" s="70"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="55" t="str">
         <f t="shared" si="2"/>
         <v>TC72_B25_offLabel_197_bizrul_false251unk_p</v>
@@ -8865,36 +8724,34 @@
       <c r="L72" s="55" t="s">
         <v>1218</v>
       </c>
-      <c r="M72" s="75" t="s">
+      <c r="M72" s="74" t="s">
         <v>1007</v>
       </c>
-      <c r="N72" s="75" t="s">
+      <c r="N72" s="74" t="s">
         <v>973</v>
       </c>
-      <c r="O72" s="72" t="s">
+      <c r="O72" s="71" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A73" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A73" s="54"/>
       <c r="B73" s="54" t="s">
         <v>1130</v>
       </c>
       <c r="C73" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D73" s="71" t="s">
+      <c r="D73" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E73" s="60">
         <v>197</v>
       </c>
-      <c r="F73" s="71" t="s">
+      <c r="F73" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G73" s="71" t="s">
+      <c r="G73" s="70" t="s">
         <v>1049</v>
       </c>
       <c r="H73" s="59" t="s">
@@ -8903,7 +8760,7 @@
       <c r="I73" s="59" t="s">
         <v>929</v>
       </c>
-      <c r="J73" s="70"/>
+      <c r="J73" s="69"/>
       <c r="K73" s="55" t="str">
         <f t="shared" si="2"/>
         <v>TC73_B25_offLabel_197_bizrul_false251NA_p</v>
@@ -8911,42 +8768,40 @@
       <c r="L73" s="55" t="s">
         <v>1219</v>
       </c>
-      <c r="M73" s="75" t="s">
+      <c r="M73" s="74" t="s">
         <v>1007</v>
       </c>
-      <c r="N73" s="75" t="s">
+      <c r="N73" s="74" t="s">
         <v>973</v>
       </c>
-      <c r="O73" s="72" t="s">
+      <c r="O73" s="71" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A74" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A74" s="54"/>
       <c r="B74" s="54" t="s">
         <v>1131</v>
       </c>
       <c r="C74" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D74" s="71" t="s">
+      <c r="D74" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E74" s="60">
         <v>197</v>
       </c>
-      <c r="F74" s="71" t="s">
+      <c r="F74" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G74" s="71" t="s">
+      <c r="G74" s="70" t="s">
         <v>1050</v>
       </c>
       <c r="H74" s="54" t="s">
         <v>1142</v>
       </c>
-      <c r="I74" s="71" t="s">
+      <c r="I74" s="70" t="s">
         <v>938</v>
       </c>
       <c r="K74" s="55" t="str">
@@ -8956,42 +8811,40 @@
       <c r="L74" s="55" t="s">
         <v>1220</v>
       </c>
-      <c r="M74" s="75" t="s">
+      <c r="M74" s="74" t="s">
         <v>1010</v>
       </c>
-      <c r="N74" s="75" t="s">
+      <c r="N74" s="74" t="s">
         <v>976</v>
       </c>
-      <c r="O74" s="73" t="s">
+      <c r="O74" s="72" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A75" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A75" s="54"/>
       <c r="B75" s="54" t="s">
         <v>1132</v>
       </c>
       <c r="C75" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D75" s="71" t="s">
+      <c r="D75" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E75" s="60">
         <v>197</v>
       </c>
-      <c r="F75" s="71" t="s">
+      <c r="F75" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G75" s="71" t="s">
+      <c r="G75" s="70" t="s">
         <v>1051</v>
       </c>
       <c r="H75" s="54" t="s">
         <v>1142</v>
       </c>
-      <c r="I75" s="71" t="s">
+      <c r="I75" s="70" t="s">
         <v>940</v>
       </c>
       <c r="K75" s="55" t="str">
@@ -9001,42 +8854,40 @@
       <c r="L75" s="55" t="s">
         <v>1221</v>
       </c>
-      <c r="M75" s="75" t="s">
+      <c r="M75" s="74" t="s">
         <v>1010</v>
       </c>
-      <c r="N75" s="75" t="s">
+      <c r="N75" s="74" t="s">
         <v>976</v>
       </c>
-      <c r="O75" s="73" t="s">
+      <c r="O75" s="72" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A76" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A76" s="54"/>
       <c r="B76" s="54" t="s">
         <v>1133</v>
       </c>
       <c r="C76" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D76" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E76" s="60">
         <v>197</v>
       </c>
-      <c r="F76" s="71" t="s">
+      <c r="F76" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G76" s="71" t="s">
+      <c r="G76" s="70" t="s">
         <v>1052</v>
       </c>
       <c r="H76" s="54" t="s">
         <v>1142</v>
       </c>
-      <c r="I76" s="71" t="s">
+      <c r="I76" s="70" t="s">
         <v>941</v>
       </c>
       <c r="K76" s="55" t="str">
@@ -9046,42 +8897,40 @@
       <c r="L76" s="55" t="s">
         <v>1222</v>
       </c>
-      <c r="M76" s="75" t="s">
+      <c r="M76" s="74" t="s">
         <v>1011</v>
       </c>
-      <c r="N76" s="75" t="s">
+      <c r="N76" s="74" t="s">
         <v>977</v>
       </c>
-      <c r="O76" s="73" t="s">
+      <c r="O76" s="72" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A77" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A77" s="54"/>
       <c r="B77" s="54" t="s">
         <v>1134</v>
       </c>
       <c r="C77" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E77" s="60">
         <v>197</v>
       </c>
-      <c r="F77" s="71" t="s">
+      <c r="F77" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G77" s="71" t="s">
+      <c r="G77" s="70" t="s">
         <v>1053</v>
       </c>
       <c r="H77" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I77" s="71" t="s">
+      <c r="I77" s="70" t="s">
         <v>941</v>
       </c>
       <c r="K77" s="55" t="str">
@@ -9091,38 +8940,36 @@
       <c r="L77" s="55" t="s">
         <v>1223</v>
       </c>
-      <c r="M77" s="75"/>
-      <c r="N77" s="75"/>
-      <c r="O77" s="72" t="s">
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="71" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A78" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A78" s="54"/>
       <c r="B78" s="54" t="s">
         <v>1135</v>
       </c>
       <c r="C78" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E78" s="60">
         <v>197</v>
       </c>
-      <c r="F78" s="71" t="s">
+      <c r="F78" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G78" s="71" t="s">
+      <c r="G78" s="70" t="s">
         <v>1054</v>
       </c>
       <c r="H78" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I78" s="71" t="s">
+      <c r="I78" s="70" t="s">
         <v>944</v>
       </c>
       <c r="K78" s="55" t="str">
@@ -9132,38 +8979,36 @@
       <c r="L78" s="55" t="s">
         <v>1224</v>
       </c>
-      <c r="M78" s="75"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="72" t="s">
+      <c r="M78" s="74"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="71" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A79" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A79" s="54"/>
       <c r="B79" s="54" t="s">
         <v>1136</v>
       </c>
       <c r="C79" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E79" s="60">
         <v>197</v>
       </c>
-      <c r="F79" s="71" t="s">
+      <c r="F79" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G79" s="71" t="s">
+      <c r="G79" s="70" t="s">
         <v>1055</v>
       </c>
       <c r="H79" s="54" t="s">
         <v>1142</v>
       </c>
-      <c r="I79" s="71" t="s">
+      <c r="I79" s="70" t="s">
         <v>944</v>
       </c>
       <c r="K79" s="55" t="str">
@@ -9173,42 +9018,40 @@
       <c r="L79" s="55" t="s">
         <v>1225</v>
       </c>
-      <c r="M79" s="75" t="s">
+      <c r="M79" s="74" t="s">
         <v>1009</v>
       </c>
-      <c r="N79" s="75" t="s">
+      <c r="N79" s="74" t="s">
         <v>975</v>
       </c>
-      <c r="O79" s="73" t="s">
+      <c r="O79" s="72" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="9.75" customHeight="1">
-      <c r="A80" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A80" s="54"/>
       <c r="B80" s="54" t="s">
         <v>1137</v>
       </c>
       <c r="C80" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="70" t="s">
         <v>1039</v>
       </c>
       <c r="E80" s="60">
         <v>197</v>
       </c>
-      <c r="F80" s="71" t="s">
+      <c r="F80" s="70" t="s">
         <v>1038</v>
       </c>
-      <c r="G80" s="71" t="s">
+      <c r="G80" s="70" t="s">
         <v>1056</v>
       </c>
       <c r="H80" s="54" t="s">
         <v>1142</v>
       </c>
-      <c r="I80" s="71" t="s">
+      <c r="I80" s="70" t="s">
         <v>945</v>
       </c>
       <c r="K80" s="55" t="str">
@@ -9218,13 +9061,13 @@
       <c r="L80" s="55" t="s">
         <v>1226</v>
       </c>
-      <c r="M80" s="75" t="s">
+      <c r="M80" s="74" t="s">
         <v>1010</v>
       </c>
-      <c r="N80" s="75" t="s">
+      <c r="N80" s="74" t="s">
         <v>976</v>
       </c>
-      <c r="O80" s="73" t="s">
+      <c r="O80" s="72" t="s">
         <v>937</v>
       </c>
     </row>

--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="1229">
   <si>
     <t>y</t>
   </si>
@@ -4366,6 +4366,9 @@
   </si>
   <si>
     <t>XPATH</t>
+  </si>
+  <si>
+    <t>{"xpath":[{ "field":"/MCCI_IN200100UV01/PORR_IN049006UV/controlActProcess/subject/investigationEvent/outboundRelationship[priorityNumber/@value=1]/relatedInvestigation[code/@code=\"T95002\"]/participation/assignedEntity/assignedPerson/name/family","value":"Kannan"}]}</t>
   </si>
 </sst>
 </file>
@@ -4763,7 +4766,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4807,7 +4810,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4851,7 +4854,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4895,7 +4898,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5179,7 +5182,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5188,11 +5191,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W80"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1"/>
@@ -5206,7 +5209,7 @@
     <col min="7" max="7" width="17.33203125" style="59" customWidth="1"/>
     <col min="8" max="8" width="9.109375" style="59" collapsed="1"/>
     <col min="9" max="9" width="17.5546875" style="59" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8" style="68" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.33203125" style="68" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="39.5546875" style="64" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="42.88671875" style="65" customWidth="1" collapsed="1"/>
@@ -5216,7 +5219,9 @@
     <col min="17" max="17" width="9.109375" style="64" collapsed="1"/>
     <col min="18" max="18" width="58" style="64" customWidth="1" collapsed="1"/>
     <col min="19" max="23" width="9.109375" style="64"/>
-    <col min="24" max="16384" width="9.109375" style="64" collapsed="1"/>
+    <col min="24" max="24" width="9.109375" style="64" collapsed="1"/>
+    <col min="25" max="25" width="9.109375" style="64"/>
+    <col min="26" max="16384" width="9.109375" style="64" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
@@ -5301,10 +5306,11 @@
         <v>348</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>1148</v>
+        <v>1228</v>
+      </c>
+      <c r="K2" s="55" t="str">
+        <f t="shared" ref="K2:K66" si="0">CONCATENATE(B2,"_",C2,"_",D2,"_",E2,"_",F2,"_",G2,"_",H2)</f>
+        <v>TC1_A312_LastName_39_mand_validtext_P</v>
       </c>
       <c r="L2" s="55" t="s">
         <v>1148</v>
@@ -5355,7 +5361,7 @@
         <v>47</v>
       </c>
       <c r="K3" s="55" t="str">
-        <f t="shared" ref="K3:K66" si="0">CONCATENATE(B3,"_",C3,"_",D3,"_",E3,"_",F3,"_",G3,"_",H3)</f>
+        <f t="shared" si="0"/>
         <v>TC2_A312_LastName_39_mand_unknown_P</v>
       </c>
       <c r="L3" s="55" t="s">

--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">A1ToA4_mandatorychecks!$A$1:$N$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bizrule!$A$1:$Q$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bizrule!$A$1:$S$80</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="1252">
   <si>
     <t>y</t>
   </si>
@@ -4128,15 +4128,6 @@
     <t>BizRuleID</t>
   </si>
   <si>
-    <t>TC1_A312_LastName_39_mand_validtext_P</t>
-  </si>
-  <si>
-    <t>TC2_A312_LastName_39_mand_unknown_P</t>
-  </si>
-  <si>
-    <t>TC3_A312_LastName_39_mand_withheld_P</t>
-  </si>
-  <si>
     <t>TC4_A312_LastName_39_mand_null_preValErr</t>
   </si>
   <si>
@@ -4369,6 +4360,85 @@
   </si>
   <si>
     <t>{"xpath":[{ "field":"/MCCI_IN200100UV01/PORR_IN049006UV/controlActProcess/subject/investigationEvent/outboundRelationship[priorityNumber/@value=1]/relatedInvestigation[code/@code=\"T95002\"]/participation/assignedEntity/assignedPerson/name/family","value":"Kannan"}]}</t>
+  </si>
+  <si>
+    <t>B14_Breed_Value_null_InvalidType_optional_p</t>
+  </si>
+  <si>
+    <t>TC81</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>NullFlavor_InvalidType</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>B12_AnimalsAffected_nullflavor_invalidType_dkakav</t>
+  </si>
+  <si>
+    <t>B13_speciescodeterm_6_LookUpChec_invalid_n_goingDeadLetter_obwlar</t>
+  </si>
+  <si>
+    <t>going deadletter</t>
+  </si>
+  <si>
+    <t>A224_Telecom_prefix_wronglyProvided</t>
+  </si>
+  <si>
+    <t>Bug - This should get rejected
+- provided telecome as T, Fax as f and M</t>
+  </si>
+  <si>
+    <t>dbresults</t>
+  </si>
+  <si>
+    <t>B6_Multiple_LinkedReports</t>
+  </si>
+  <si>
+    <t>B32_multiple_clinical_signs</t>
+  </si>
+  <si>
+    <t>B32_multiple_clinical_signs_WithValues</t>
+  </si>
+  <si>
+    <t>B217_RouteofExposure_2VMPS_3_MultipleRoutes_p</t>
+  </si>
+  <si>
+    <t>B231_ExpirationDate_only_YeardateMonth_invaliddtformat</t>
+  </si>
+  <si>
+    <t>B231_ExpirationDate_only_YearMonth</t>
+  </si>
+  <si>
+    <t>B231_ExpirationDate_onlyyear</t>
+  </si>
+  <si>
+    <t>B231_MultipleLots_OneDrugProduct</t>
+  </si>
+  <si>
+    <t>B711_multipleDocumentsAttachments</t>
+  </si>
+  <si>
+    <t>TC1_A312_LastName_39_mand_validtext_P_new</t>
+  </si>
+  <si>
+    <t>TC2_A312_LastName_39_mand_unknown_P_new</t>
+  </si>
+  <si>
+    <t>TC3_A312_LastName_39_mand_withheld_P_new</t>
+  </si>
+  <si>
+    <t>VICH_EU_Sample_AER_mandatory</t>
+  </si>
+  <si>
+    <t>only mandatory fields</t>
   </si>
 </sst>
 </file>
@@ -4518,7 +4588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4728,6 +4798,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4750,16 +4826,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>63498</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>709082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>602447</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>64558</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>395863</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4794,16 +4870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>370417</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>455085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>487505</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>1734</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>487504</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114377</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4838,16 +4914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>328083</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>132032</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>23405</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>16779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4882,16 +4958,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>203254</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>180734</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>79613</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>72987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5191,40 +5267,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="64" collapsed="1"/>
-    <col min="2" max="2" width="9.109375" style="64"/>
+    <col min="1" max="2" width="9.109375" style="64" collapsed="1"/>
     <col min="3" max="3" width="9.109375" style="59" collapsed="1"/>
     <col min="4" max="4" width="17.44140625" style="59" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.44140625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="59" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="59" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="60" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.44140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.33203125" style="59" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="9.109375" style="59" collapsed="1"/>
     <col min="9" max="9" width="17.5546875" style="59" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="39.33203125" style="68" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="39.5546875" style="64" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="42.88671875" style="65" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21" style="65" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="64.88671875" style="65" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="43.5546875" style="66" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.109375" style="64" collapsed="1"/>
-    <col min="18" max="18" width="58" style="64" customWidth="1" collapsed="1"/>
-    <col min="19" max="23" width="9.109375" style="64"/>
-    <col min="24" max="24" width="9.109375" style="64" collapsed="1"/>
-    <col min="25" max="25" width="9.109375" style="64"/>
-    <col min="26" max="16384" width="9.109375" style="64" collapsed="1"/>
+    <col min="12" max="14" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="42.88671875" style="65" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21" style="65" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="64.88671875" style="65" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="43.5546875" style="66" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.109375" style="64" collapsed="1"/>
+    <col min="20" max="20" width="58" style="64" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9.109375" style="64" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
@@ -5253,7 +5325,7 @@
         <v>1020</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="K1" s="50" t="s">
         <v>30</v>
@@ -5261,23 +5333,27 @@
       <c r="L1" s="50" t="s">
         <v>946</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O1" s="51" t="s">
         <v>1012</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>978</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="Q1" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="R1" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="S1" s="53" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
@@ -5306,33 +5382,37 @@
         <v>348</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="K2" s="55" t="str">
         <f t="shared" ref="K2:K66" si="0">CONCATENATE(B2,"_",C2,"_",D2,"_",E2,"_",F2,"_",G2,"_",H2)</f>
         <v>TC1_A312_LastName_39_mand_validtext_P</v>
       </c>
       <c r="L2" s="55" t="s">
-        <v>1148</v>
-      </c>
-      <c r="M2" s="74" t="s">
+        <v>1247</v>
+      </c>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="74" t="s">
         <v>979</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="P2" s="74" t="s">
         <v>947</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="Q2" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="R2" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="Q2" s="60">
+      <c r="S2" s="60">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A3" s="54"/>
+    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A3" s="54" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="54" t="s">
         <v>1060</v>
       </c>
@@ -5365,26 +5445,30 @@
         <v>TC2_A312_LastName_39_mand_unknown_P</v>
       </c>
       <c r="L3" s="55" t="s">
-        <v>1149</v>
-      </c>
-      <c r="M3" s="74" t="s">
+        <v>1248</v>
+      </c>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="74" t="s">
         <v>980</v>
       </c>
-      <c r="N3" s="74" t="s">
+      <c r="P3" s="74" t="s">
         <v>948</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="Q3" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="R3" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="Q3" s="60">
+      <c r="S3" s="60">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A4" s="54"/>
+    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A4" s="54" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" s="54" t="s">
         <v>1061</v>
       </c>
@@ -5417,25 +5501,27 @@
         <v>TC3_A312_LastName_39_mand_withheld_P</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>1150</v>
-      </c>
-      <c r="M4" s="74" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="74" t="s">
         <v>981</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="P4" s="74" t="s">
         <v>949</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="Q4" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="R4" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="Q4" s="60">
+      <c r="S4" s="60">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A5" s="54"/>
       <c r="B5" s="54" t="s">
         <v>1062</v>
@@ -5469,23 +5555,25 @@
         <v>TC4_A312_LastName_39_mand_null_preValErr</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>1151</v>
-      </c>
-      <c r="M5" s="74" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="61" t="s">
+      <c r="P5" s="74"/>
+      <c r="Q5" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="P5" s="62" t="s">
+      <c r="R5" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="Q5" s="63">
+      <c r="S5" s="63">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A6" s="54"/>
       <c r="B6" s="54" t="s">
         <v>1063</v>
@@ -5519,23 +5607,25 @@
         <v>TC5_A312_LastName_39_mand_remove_preValErr</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>1152</v>
-      </c>
-      <c r="M6" s="74" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="N6" s="74"/>
-      <c r="O6" s="61" t="s">
+      <c r="P6" s="74"/>
+      <c r="Q6" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="P6" s="62" t="s">
+      <c r="R6" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="Q6" s="63">
+      <c r="S6" s="63">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A7" s="54"/>
       <c r="B7" s="54" t="s">
         <v>1064</v>
@@ -5569,21 +5659,23 @@
         <v>TC6_A312_LastName_40_mand_space_preValErr</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>1153</v>
-      </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="61" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="R7" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="Q7" s="63">
+      <c r="S7" s="63">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A8" s="54"/>
       <c r="B8" s="54" t="s">
         <v>1065</v>
@@ -5617,25 +5709,27 @@
         <v>TC7_A312_LastName_40_len_1_p</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>1154</v>
-      </c>
-      <c r="M8" s="74" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="74" t="s">
         <v>981</v>
       </c>
-      <c r="N8" s="74" t="s">
+      <c r="P8" s="74" t="s">
         <v>949</v>
       </c>
-      <c r="O8" s="61" t="s">
+      <c r="Q8" s="61" t="s">
         <v>356</v>
       </c>
-      <c r="P8" s="62" t="s">
+      <c r="R8" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="S8" s="63">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A9" s="54"/>
       <c r="B9" s="54" t="s">
         <v>1066</v>
@@ -5669,25 +5763,27 @@
         <v>TC8_A312_LastName_40_len_49_p</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M9" s="74" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="74" t="s">
         <v>982</v>
       </c>
-      <c r="N9" s="74" t="s">
+      <c r="P9" s="74" t="s">
         <v>950</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="Q9" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="R9" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="Q9" s="63">
+      <c r="S9" s="63">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A10" s="54"/>
       <c r="B10" s="54" t="s">
         <v>1067</v>
@@ -5721,25 +5817,27 @@
         <v>TC9_A312_LastName_40_len_50_p</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M10" s="74" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="74" t="s">
         <v>983</v>
       </c>
-      <c r="N10" s="74" t="s">
+      <c r="P10" s="74" t="s">
         <v>951</v>
       </c>
-      <c r="O10" s="61" t="s">
+      <c r="Q10" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="P10" s="62" t="s">
+      <c r="R10" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="Q10" s="63">
+      <c r="S10" s="63">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="54" t="s">
         <v>1068</v>
@@ -5773,25 +5871,27 @@
         <v>TC10_A312_LastName_40_len_51_chkfail</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M11" s="74" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="N11" s="74" t="s">
+      <c r="P11" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="O11" s="61" t="s">
+      <c r="Q11" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="P11" s="62" t="s">
+      <c r="R11" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="Q11" s="63">
+      <c r="S11" s="63">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A12" s="54"/>
       <c r="B12" s="54" t="s">
         <v>1069</v>
@@ -5825,21 +5925,23 @@
         <v>TC11_A312_LastName_40_mand_nospace_preValErr</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="61" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="P12" s="62" t="s">
+      <c r="R12" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="Q12" s="63">
+      <c r="S12" s="63">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A13" s="54"/>
       <c r="B13" s="54" t="s">
         <v>1070</v>
@@ -5873,21 +5975,23 @@
         <v>TC12_B13_speciescode_107_mand_null_preValErr</v>
       </c>
       <c r="L13" s="55" t="s">
-        <v>1159</v>
-      </c>
-      <c r="M13" s="74" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="74" t="s">
         <v>780</v>
       </c>
-      <c r="N13" s="74"/>
-      <c r="O13" s="62" t="s">
+      <c r="P13" s="74"/>
+      <c r="Q13" s="62" t="s">
         <v>780</v>
       </c>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="60">
+      <c r="R13" s="62"/>
+      <c r="S13" s="60">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="54"/>
       <c r="B14" s="54" t="s">
         <v>1071</v>
@@ -5921,19 +6025,21 @@
         <v>TC13_B13_speciescode_107_mand_remove_preValErr</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>1160</v>
-      </c>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="56" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="56" t="s">
         <v>890</v>
       </c>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="60">
+      <c r="R14" s="62"/>
+      <c r="S14" s="60">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A15" s="54"/>
       <c r="B15" s="54" t="s">
         <v>1072</v>
@@ -5967,19 +6073,21 @@
         <v>TC14_B13_speciescode_107_mand_space_xsdErr</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>1161</v>
-      </c>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="56" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="56" t="s">
         <v>802</v>
       </c>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="60">
+      <c r="R15" s="62"/>
+      <c r="S15" s="60">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A16" s="54"/>
       <c r="B16" s="54" t="s">
         <v>1073</v>
@@ -6013,19 +6121,21 @@
         <v>TC15_B13_speciescode_107_mand_nospace_xsdErr</v>
       </c>
       <c r="L16" s="55" t="s">
-        <v>1162</v>
-      </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="56" t="s">
+        <v>1159</v>
+      </c>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="56" t="s">
         <v>802</v>
       </c>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="60">
+      <c r="R16" s="62"/>
+      <c r="S16" s="60">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A17" s="54"/>
       <c r="B17" s="54" t="s">
         <v>1074</v>
@@ -6060,25 +6170,27 @@
         <v>TC16_B13_speciescode_108_bizrul_lookup_validZEB_p</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>1163</v>
-      </c>
-      <c r="M17" s="74" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="74" t="s">
         <v>984</v>
       </c>
-      <c r="N17" s="74" t="s">
+      <c r="P17" s="74" t="s">
         <v>952</v>
       </c>
-      <c r="O17" s="56" t="s">
+      <c r="Q17" s="56" t="s">
         <v>779</v>
       </c>
-      <c r="P17" s="62" t="s">
+      <c r="R17" s="62" t="s">
         <v>781</v>
       </c>
-      <c r="Q17" s="60">
+      <c r="S17" s="60">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A18" s="54"/>
       <c r="B18" s="54" t="s">
         <v>1075</v>
@@ -6113,25 +6225,27 @@
         <v>TC17_B13_speciescode_108_bizrul_lookup_invalid_err</v>
       </c>
       <c r="L18" s="55" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M18" s="74" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="74" t="s">
         <v>773</v>
       </c>
-      <c r="N18" s="74" t="s">
+      <c r="P18" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="O18" s="56" t="s">
+      <c r="Q18" s="56" t="s">
         <v>365</v>
       </c>
-      <c r="P18" s="62" t="s">
+      <c r="R18" s="62" t="s">
         <v>773</v>
       </c>
-      <c r="Q18" s="60">
+      <c r="S18" s="60">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A19" s="54"/>
       <c r="B19" s="54" t="s">
         <v>1076</v>
@@ -6165,25 +6279,27 @@
         <v>TC18_B21_BrandName_147_len_1_p</v>
       </c>
       <c r="L19" s="55" t="s">
-        <v>1165</v>
-      </c>
-      <c r="M19" s="74" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="74" t="s">
         <v>985</v>
       </c>
-      <c r="N19" s="74" t="s">
+      <c r="P19" s="74" t="s">
         <v>953</v>
       </c>
-      <c r="O19" s="56" t="s">
+      <c r="Q19" s="56" t="s">
         <v>803</v>
       </c>
-      <c r="P19" s="62" t="s">
+      <c r="R19" s="62" t="s">
         <v>797</v>
       </c>
-      <c r="Q19" s="60">
+      <c r="S19" s="60">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A20" s="54"/>
       <c r="B20" s="54" t="s">
         <v>1077</v>
@@ -6217,25 +6333,27 @@
         <v>TC19_B21_BrandName_147_len_199_p</v>
       </c>
       <c r="L20" s="55" t="s">
-        <v>1166</v>
-      </c>
-      <c r="M20" s="74" t="s">
+        <v>1163</v>
+      </c>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="74" t="s">
         <v>986</v>
       </c>
-      <c r="N20" s="74" t="s">
+      <c r="P20" s="74" t="s">
         <v>954</v>
       </c>
-      <c r="O20" s="56" t="s">
+      <c r="Q20" s="56" t="s">
         <v>804</v>
       </c>
-      <c r="P20" s="62" t="s">
+      <c r="R20" s="62" t="s">
         <v>798</v>
       </c>
-      <c r="Q20" s="60">
+      <c r="S20" s="60">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A21" s="54"/>
       <c r="B21" s="54" t="s">
         <v>1078</v>
@@ -6269,25 +6387,27 @@
         <v>TC20_B21_BrandName_147_len_200_p</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>1167</v>
-      </c>
-      <c r="M21" s="74" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="74" t="s">
         <v>987</v>
       </c>
-      <c r="N21" s="74" t="s">
+      <c r="P21" s="74" t="s">
         <v>955</v>
       </c>
-      <c r="O21" s="56" t="s">
+      <c r="Q21" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="P21" s="62" t="s">
+      <c r="R21" s="62" t="s">
         <v>799</v>
       </c>
-      <c r="Q21" s="60">
+      <c r="S21" s="60">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A22" s="54"/>
       <c r="B22" s="54" t="s">
         <v>1079</v>
@@ -6321,25 +6441,27 @@
         <v>TC21_B21_BrandName_147_len_201_chkfail</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M22" s="74" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="74" t="s">
         <v>800</v>
       </c>
-      <c r="N22" s="74" t="s">
+      <c r="P22" s="74" t="s">
         <v>806</v>
       </c>
-      <c r="O22" s="56" t="s">
+      <c r="Q22" s="56" t="s">
         <v>806</v>
       </c>
-      <c r="P22" s="62" t="s">
+      <c r="R22" s="62" t="s">
         <v>800</v>
       </c>
-      <c r="Q22" s="60">
+      <c r="S22" s="60">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A23" s="54"/>
       <c r="B23" s="54" t="s">
         <v>1080</v>
@@ -6373,25 +6495,27 @@
         <v>TC22_B21_BrandName_147_len_250_chkfail</v>
       </c>
       <c r="L23" s="55" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M23" s="74" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="74" t="s">
         <v>800</v>
       </c>
-      <c r="N23" s="74" t="s">
+      <c r="P23" s="74" t="s">
         <v>806</v>
       </c>
-      <c r="O23" s="56" t="s">
+      <c r="Q23" s="56" t="s">
         <v>806</v>
       </c>
-      <c r="P23" s="62" t="s">
+      <c r="R23" s="62" t="s">
         <v>800</v>
       </c>
-      <c r="Q23" s="60">
+      <c r="S23" s="60">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A24" s="54"/>
       <c r="B24" s="54" t="s">
         <v>1081</v>
@@ -6425,25 +6549,27 @@
         <v>TC23_B21_BrandName_147_len_space_chkfail</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M24" s="74" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="74" t="s">
         <v>1013</v>
       </c>
-      <c r="N24" s="74" t="s">
+      <c r="P24" s="74" t="s">
         <v>1013</v>
       </c>
-      <c r="O24" s="75" t="s">
+      <c r="Q24" s="75" t="s">
         <v>1013</v>
       </c>
-      <c r="P24" s="62" t="s">
+      <c r="R24" s="62" t="s">
         <v>801</v>
       </c>
-      <c r="Q24" s="60">
+      <c r="S24" s="60">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A25" s="54"/>
       <c r="B25" s="54" t="s">
         <v>1082</v>
@@ -6477,25 +6603,27 @@
         <v>TC24_B21_BrandName_147_len_nospace_chkfail</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>1171</v>
-      </c>
-      <c r="M25" s="74" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="74" t="s">
         <v>1013</v>
       </c>
-      <c r="N25" s="74" t="s">
+      <c r="P25" s="74" t="s">
         <v>1013</v>
       </c>
-      <c r="O25" s="75" t="s">
+      <c r="Q25" s="75" t="s">
         <v>1013</v>
       </c>
-      <c r="P25" s="62" t="s">
+      <c r="R25" s="62" t="s">
         <v>796</v>
       </c>
-      <c r="Q25" s="60">
+      <c r="S25" s="60">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A26" s="54"/>
       <c r="B26" s="54" t="s">
         <v>1083</v>
@@ -6529,25 +6657,27 @@
         <v>TC26_B21_BrandName_146_bizrul_valid_p</v>
       </c>
       <c r="L26" s="55" t="s">
-        <v>1172</v>
-      </c>
-      <c r="M26" s="74" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="74" t="s">
         <v>988</v>
       </c>
-      <c r="N26" s="74" t="s">
+      <c r="P26" s="74" t="s">
         <v>956</v>
       </c>
-      <c r="O26" s="56" t="s">
+      <c r="Q26" s="56" t="s">
         <v>836</v>
       </c>
-      <c r="P26" s="62" t="s">
+      <c r="R26" s="62" t="s">
         <v>829</v>
       </c>
-      <c r="Q26" s="60">
+      <c r="S26" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A27" s="54"/>
       <c r="B27" s="54" t="s">
         <v>1084</v>
@@ -6581,25 +6711,27 @@
         <v>TC27_B21_BrandName_146_bizrul_nullSubNull_err</v>
       </c>
       <c r="L27" s="55" t="s">
-        <v>1173</v>
-      </c>
-      <c r="M27" s="56" t="s">
-        <v>884</v>
-      </c>
-      <c r="N27" s="56" t="s">
-        <v>884</v>
-      </c>
+        <v>1170</v>
+      </c>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
       <c r="O27" s="56" t="s">
         <v>884</v>
       </c>
-      <c r="P27" s="62" t="s">
+      <c r="P27" s="56" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q27" s="56" t="s">
+        <v>884</v>
+      </c>
+      <c r="R27" s="62" t="s">
         <v>830</v>
       </c>
-      <c r="Q27" s="60">
+      <c r="S27" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A28" s="54"/>
       <c r="B28" s="54" t="s">
         <v>1085</v>
@@ -6633,25 +6765,27 @@
         <v>TC28_B21_BrandName_146_bizrul_avlblSubNull_err</v>
       </c>
       <c r="L28" s="55" t="s">
-        <v>1174</v>
-      </c>
-      <c r="M28" s="74" t="s">
+        <v>1171</v>
+      </c>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="74" t="s">
         <v>984</v>
       </c>
-      <c r="N28" s="74" t="s">
+      <c r="P28" s="74" t="s">
         <v>952</v>
       </c>
-      <c r="O28" s="56" t="s">
+      <c r="Q28" s="56" t="s">
         <v>837</v>
       </c>
-      <c r="P28" s="62" t="s">
+      <c r="R28" s="62" t="s">
         <v>831</v>
       </c>
-      <c r="Q28" s="60">
+      <c r="S28" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A29" s="54"/>
       <c r="B29" s="54" t="s">
         <v>1086</v>
@@ -6685,25 +6819,27 @@
         <v>TC29_B21_BrandName_146_bizrul_nullSubAvlbl_err</v>
       </c>
       <c r="L29" s="55" t="s">
-        <v>1175</v>
-      </c>
-      <c r="M29" s="74" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="74" t="s">
         <v>990</v>
       </c>
-      <c r="N29" s="74" t="s">
+      <c r="P29" s="74" t="s">
         <v>958</v>
       </c>
-      <c r="O29" s="56" t="s">
+      <c r="Q29" s="56" t="s">
         <v>838</v>
       </c>
-      <c r="P29" s="62" t="s">
+      <c r="R29" s="62" t="s">
         <v>832</v>
       </c>
-      <c r="Q29" s="60">
+      <c r="S29" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A30" s="54"/>
       <c r="B30" s="54" t="s">
         <v>1087</v>
@@ -6737,25 +6873,27 @@
         <v>TC30_B21_BrandName_146_bizrul_unknownSubAvlbl_err</v>
       </c>
       <c r="L30" s="55" t="s">
-        <v>1176</v>
-      </c>
-      <c r="M30" s="74" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="74" t="s">
         <v>989</v>
       </c>
-      <c r="N30" s="74" t="s">
+      <c r="P30" s="74" t="s">
         <v>957</v>
       </c>
-      <c r="O30" s="56" t="s">
+      <c r="Q30" s="56" t="s">
         <v>839</v>
       </c>
-      <c r="P30" s="62" t="s">
+      <c r="R30" s="62" t="s">
         <v>833</v>
       </c>
-      <c r="Q30" s="60">
+      <c r="S30" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A31" s="54"/>
       <c r="B31" s="54" t="s">
         <v>1088</v>
@@ -6789,25 +6927,27 @@
         <v>TC31_B21_BrandName_146_bizrul_unknownSubNUll_err</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>1177</v>
-      </c>
-      <c r="M31" s="74" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="74" t="s">
         <v>991</v>
       </c>
-      <c r="N31" s="74" t="s">
+      <c r="P31" s="74" t="s">
         <v>959</v>
       </c>
-      <c r="O31" s="56" t="s">
+      <c r="Q31" s="56" t="s">
         <v>840</v>
       </c>
-      <c r="P31" s="62" t="s">
+      <c r="R31" s="62" t="s">
         <v>834</v>
       </c>
-      <c r="Q31" s="60">
+      <c r="S31" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A32" s="54"/>
       <c r="B32" s="54" t="s">
         <v>1089</v>
@@ -6841,25 +6981,27 @@
         <v>TC32_B21_BrandName_146_bizrul_removeSubAvlbl_err</v>
       </c>
       <c r="L32" s="55" t="s">
-        <v>1178</v>
-      </c>
-      <c r="M32" s="74" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="74" t="s">
         <v>992</v>
       </c>
-      <c r="N32" s="74" t="s">
+      <c r="P32" s="74" t="s">
         <v>960</v>
       </c>
-      <c r="O32" s="56" t="s">
+      <c r="Q32" s="56" t="s">
         <v>841</v>
       </c>
-      <c r="P32" s="62" t="s">
+      <c r="R32" s="62" t="s">
         <v>835</v>
       </c>
-      <c r="Q32" s="60">
+      <c r="S32" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A33" s="54"/>
       <c r="B33" s="54" t="s">
         <v>1090</v>
@@ -6893,25 +7035,27 @@
         <v>TC33_B21_BrandName_146_bizrul_remove_SubNull_err</v>
       </c>
       <c r="L33" s="55" t="s">
-        <v>1179</v>
-      </c>
-      <c r="M33" s="74" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="74" t="s">
         <v>989</v>
       </c>
-      <c r="N33" s="74" t="s">
+      <c r="P33" s="74" t="s">
         <v>957</v>
       </c>
-      <c r="O33" s="56" t="s">
+      <c r="Q33" s="56" t="s">
         <v>884</v>
       </c>
-      <c r="P33" s="62" t="s">
+      <c r="R33" s="62" t="s">
         <v>844</v>
       </c>
-      <c r="Q33" s="60">
+      <c r="S33" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A34" s="54"/>
       <c r="B34" s="54" t="s">
         <v>1091</v>
@@ -6945,19 +7089,21 @@
         <v>TC34_B21_BrandName_146_bizrul_remove_SubRemove_err</v>
       </c>
       <c r="L34" s="55" t="s">
-        <v>1180</v>
-      </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="56" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="56" t="s">
         <v>883</v>
       </c>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="60">
+      <c r="R34" s="62"/>
+      <c r="S34" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A35" s="54"/>
       <c r="B35" s="54" t="s">
         <v>1092</v>
@@ -6991,19 +7137,21 @@
         <v>TC35_B21_BrandName_146_bizrul_AvlblSubRemove_err</v>
       </c>
       <c r="L35" s="55" t="s">
-        <v>1181</v>
-      </c>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="56" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="56" t="s">
         <v>883</v>
       </c>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="60">
+      <c r="R35" s="62"/>
+      <c r="S35" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A36" s="54"/>
       <c r="B36" s="54" t="s">
         <v>1093</v>
@@ -7037,19 +7185,21 @@
         <v>TC36_B21_BrandName_146_bizrul_NullSubRemove_err</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>1182</v>
-      </c>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="56" t="s">
+        <v>1179</v>
+      </c>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="56" t="s">
         <v>883</v>
       </c>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="60">
+      <c r="R36" s="62"/>
+      <c r="S36" s="60">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A37" s="54"/>
       <c r="B37" s="54" t="s">
         <v>1094</v>
@@ -7083,21 +7233,23 @@
         <v>TC37_B8111_BatchNumIdentRoot_262_mand_null_xsdErr</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>1183</v>
-      </c>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="56" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="P37" s="62" t="s">
+      <c r="R37" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="Q37" s="60">
+      <c r="S37" s="60">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A38" s="54"/>
       <c r="B38" s="54" t="s">
         <v>1095</v>
@@ -7131,21 +7283,23 @@
         <v>TC38_B8111_BatchNumIdentRoot_262_mand_remove_xsdErr</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>1184</v>
-      </c>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="56" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="P38" s="62" t="s">
+      <c r="R38" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="Q38" s="60">
+      <c r="S38" s="60">
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A39" s="54"/>
       <c r="B39" s="54" t="s">
         <v>1096</v>
@@ -7179,19 +7333,21 @@
         <v>TC39_B8111_BatchNumIdentRoot_262_len_space_xsdErr</v>
       </c>
       <c r="L39" s="55" t="s">
-        <v>1185</v>
-      </c>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="56" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="56" t="s">
         <v>867</v>
       </c>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="60">
+      <c r="R39" s="62"/>
+      <c r="S39" s="60">
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A40" s="54"/>
       <c r="B40" s="54" t="s">
         <v>1097</v>
@@ -7225,19 +7381,21 @@
         <v>TC40_B8111_BatchNumIdentRoot_262_len_nospace_xsdErr</v>
       </c>
       <c r="L40" s="55" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="56" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="56" t="s">
         <v>867</v>
       </c>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="60">
+      <c r="R40" s="62"/>
+      <c r="S40" s="60">
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A41" s="54"/>
       <c r="B41" s="54" t="s">
         <v>1098</v>
@@ -7271,23 +7429,25 @@
         <v>TC41_B8111_BatchNumIdentRoot_263_len_1_p</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>1187</v>
-      </c>
-      <c r="M41" s="74" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="74" t="s">
         <v>993</v>
       </c>
-      <c r="N41" s="74" t="s">
+      <c r="P41" s="74" t="s">
         <v>961</v>
       </c>
-      <c r="O41" s="56"/>
-      <c r="P41" s="62" t="s">
+      <c r="Q41" s="56"/>
+      <c r="R41" s="62" t="s">
         <v>866</v>
       </c>
-      <c r="Q41" s="60">
+      <c r="S41" s="60">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A42" s="54"/>
       <c r="B42" s="54" t="s">
         <v>1099</v>
@@ -7321,23 +7481,25 @@
         <v>TC42_B8111_BatchNumIdentRoot_263_len_59_p</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M42" s="74" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="74" t="s">
         <v>994</v>
       </c>
-      <c r="N42" s="74" t="s">
+      <c r="P42" s="74" t="s">
         <v>962</v>
       </c>
-      <c r="O42" s="56"/>
-      <c r="P42" s="62" t="s">
+      <c r="Q42" s="56"/>
+      <c r="R42" s="62" t="s">
         <v>866</v>
       </c>
-      <c r="Q42" s="60">
+      <c r="S42" s="60">
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A43" s="54"/>
       <c r="B43" s="54" t="s">
         <v>1100</v>
@@ -7371,23 +7533,25 @@
         <v>TC43_B8111_BatchNumIdentRoot_263_len_60_p</v>
       </c>
       <c r="L43" s="55" t="s">
-        <v>1189</v>
-      </c>
-      <c r="M43" s="74" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="74" t="s">
         <v>995</v>
       </c>
-      <c r="N43" s="74" t="s">
+      <c r="P43" s="74" t="s">
         <v>963</v>
       </c>
-      <c r="O43" s="56"/>
-      <c r="P43" s="62" t="s">
+      <c r="Q43" s="56"/>
+      <c r="R43" s="62" t="s">
         <v>866</v>
       </c>
-      <c r="Q43" s="60">
+      <c r="S43" s="60">
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A44" s="54"/>
       <c r="B44" s="54" t="s">
         <v>1101</v>
@@ -7421,23 +7585,25 @@
         <v>TC44_B8111_BatchNumIdentRoot_263_len_61_chkfail</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>1190</v>
-      </c>
-      <c r="M44" s="74" t="s">
+        <v>1187</v>
+      </c>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="74" t="s">
         <v>996</v>
       </c>
-      <c r="N44" s="74"/>
-      <c r="O44" s="56" t="s">
+      <c r="P44" s="74"/>
+      <c r="Q44" s="56" t="s">
         <v>885</v>
       </c>
-      <c r="P44" s="62" t="s">
+      <c r="R44" s="62" t="s">
         <v>866</v>
       </c>
-      <c r="Q44" s="60">
+      <c r="S44" s="60">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A45" s="54"/>
       <c r="B45" s="54" t="s">
         <v>1102</v>
@@ -7471,23 +7637,25 @@
         <v>TC45_B8111_BatchNumIdentRoot_263_len_70_chkfail</v>
       </c>
       <c r="L45" s="55" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M45" s="74" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="74" t="s">
         <v>996</v>
       </c>
-      <c r="N45" s="74"/>
-      <c r="O45" s="56" t="s">
+      <c r="P45" s="74"/>
+      <c r="Q45" s="56" t="s">
         <v>916</v>
       </c>
-      <c r="P45" s="62" t="s">
+      <c r="R45" s="62" t="s">
         <v>866</v>
       </c>
-      <c r="Q45" s="60">
+      <c r="S45" s="60">
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="57" customFormat="1" ht="9.75" customHeight="1">
+    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1">
       <c r="A46" s="54"/>
       <c r="B46" s="54" t="s">
         <v>1103</v>
@@ -7521,21 +7689,23 @@
         <v>TC46_B814_BatchCreationDate_265_mand_null_preValErr</v>
       </c>
       <c r="L46" s="55" t="s">
-        <v>1192</v>
-      </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="57" t="s">
         <v>888</v>
       </c>
-      <c r="P46" s="58" t="s">
+      <c r="R46" s="58" t="s">
         <v>877</v>
       </c>
-      <c r="Q46" s="57">
+      <c r="S46" s="57">
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A47" s="54"/>
       <c r="B47" s="54" t="s">
         <v>1104</v>
@@ -7569,15 +7739,17 @@
         <v>TC47_B814_BatchCreationDate_265_mand_remove_preValErr</v>
       </c>
       <c r="L47" s="55" t="s">
-        <v>1193</v>
-      </c>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="P47" s="61" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="R47" s="61" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A48" s="54"/>
       <c r="B48" s="54" t="s">
         <v>1105</v>
@@ -7611,19 +7783,21 @@
         <v>TC48_B814_BatchCreationDate_265_bizrul_validformat_p</v>
       </c>
       <c r="L48" s="55" t="s">
-        <v>1194</v>
-      </c>
-      <c r="M48" s="74" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="74" t="s">
         <v>997</v>
       </c>
-      <c r="N48" s="74" t="s">
+      <c r="P48" s="74" t="s">
         <v>964</v>
       </c>
-      <c r="P48" s="62" t="s">
+      <c r="R48" s="62" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A49" s="54"/>
       <c r="B49" s="54" t="s">
         <v>1106</v>
@@ -7657,21 +7831,23 @@
         <v>TC49_B814_BatchCreationDate_266_bizrul_invalidformat1_err</v>
       </c>
       <c r="L49" s="55" t="s">
-        <v>1195</v>
-      </c>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="56" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="56" t="s">
         <v>891</v>
       </c>
-      <c r="P49" s="61" t="s">
+      <c r="R49" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="Q49" s="60">
+      <c r="S49" s="60">
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A50" s="54"/>
       <c r="B50" s="54" t="s">
         <v>1107</v>
@@ -7705,21 +7881,23 @@
         <v>TC50_B814_BatchCreationDate_266_bizrul_invalidformat2_err</v>
       </c>
       <c r="L50" s="55" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="56" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="56" t="s">
         <v>889</v>
       </c>
-      <c r="P50" s="61" t="s">
+      <c r="R50" s="61" t="s">
         <v>867</v>
       </c>
-      <c r="Q50" s="60">
+      <c r="S50" s="60">
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A51" s="54"/>
       <c r="B51" s="54" t="s">
         <v>1108</v>
@@ -7753,21 +7931,23 @@
         <v>TC51_B814_BatchCreationDate_266_bizrul_invalidformat3_err</v>
       </c>
       <c r="L51" s="55" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="56" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="56" t="s">
         <v>891</v>
       </c>
-      <c r="P51" s="61" t="s">
+      <c r="R51" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="Q51" s="60">
+      <c r="S51" s="60">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A52" s="54"/>
       <c r="B52" s="54" t="s">
         <v>1109</v>
@@ -7801,21 +7981,23 @@
         <v>TC52_B814_BatchCreationDate_266_bizrul_invalidformat4_err</v>
       </c>
       <c r="L52" s="55" t="s">
-        <v>1198</v>
-      </c>
-      <c r="M52" s="74"/>
-      <c r="N52" s="74"/>
-      <c r="O52" s="56" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="56" t="s">
         <v>891</v>
       </c>
-      <c r="P52" s="61" t="s">
+      <c r="R52" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="Q52" s="60">
+      <c r="S52" s="60">
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A53" s="54"/>
       <c r="B53" s="54" t="s">
         <v>1110</v>
@@ -7849,21 +8031,23 @@
         <v>TC53_B814_BatchCreationDate_266_bizrul_invalidformat5_err</v>
       </c>
       <c r="L53" s="55" t="s">
-        <v>1199</v>
-      </c>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="56" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M53" s="77"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="56" t="s">
         <v>891</v>
       </c>
-      <c r="P53" s="61" t="s">
+      <c r="R53" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="Q53" s="60">
+      <c r="S53" s="60">
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A54" s="54"/>
       <c r="B54" s="54" t="s">
         <v>1111</v>
@@ -7897,21 +8081,23 @@
         <v>TC54_B814_BatchCreationDate_266_bizrul_futureyear_err</v>
       </c>
       <c r="L54" s="55" t="s">
-        <v>1200</v>
-      </c>
-      <c r="M54" s="74"/>
-      <c r="N54" s="74"/>
-      <c r="O54" s="56" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="56" t="s">
         <v>891</v>
       </c>
-      <c r="P54" s="61" t="s">
+      <c r="R54" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="Q54" s="60">
+      <c r="S54" s="60">
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A55" s="54"/>
       <c r="B55" s="54" t="s">
         <v>1112</v>
@@ -7945,22 +8131,24 @@
         <v>TC55_B814_BatchCreationDate_267_bizrul_validyear_p</v>
       </c>
       <c r="L55" s="55" t="s">
-        <v>1201</v>
-      </c>
-      <c r="M55" s="74" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="74" t="s">
         <v>998</v>
       </c>
-      <c r="N55" s="74" t="s">
+      <c r="P55" s="74" t="s">
         <v>965</v>
       </c>
-      <c r="P55" s="62" t="s">
+      <c r="R55" s="62" t="s">
         <v>876</v>
       </c>
-      <c r="Q55" s="60">
+      <c r="S55" s="60">
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="9.75" customHeight="1">
+    <row r="56" spans="1:19" ht="9.75" customHeight="1">
       <c r="A56" s="54"/>
       <c r="B56" s="54" t="s">
         <v>1113</v>
@@ -7994,23 +8182,25 @@
         <v>TC56_B8121_BatchSendRoot_268_mand_null_preValErr</v>
       </c>
       <c r="L56" s="55" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M56" s="74" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="74" t="s">
         <v>999</v>
       </c>
-      <c r="N56" s="74"/>
-      <c r="O56" s="49" t="s">
+      <c r="P56" s="74"/>
+      <c r="Q56" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="P56" s="66" t="s">
+      <c r="R56" s="66" t="s">
         <v>912</v>
       </c>
-      <c r="Q56" s="64">
+      <c r="S56" s="64">
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="9.75" customHeight="1">
+    <row r="57" spans="1:19" ht="9.75" customHeight="1">
       <c r="A57" s="54"/>
       <c r="B57" s="54" t="s">
         <v>1114</v>
@@ -8044,21 +8234,23 @@
         <v>TC57_B8121_BatchSendRoot_268_mand_remove_preValErr</v>
       </c>
       <c r="L57" s="55" t="s">
-        <v>1203</v>
-      </c>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="49" t="s">
+        <v>1200</v>
+      </c>
+      <c r="M57" s="77"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="P57" s="66" t="s">
+      <c r="R57" s="66" t="s">
         <v>867</v>
       </c>
-      <c r="Q57" s="64">
+      <c r="S57" s="64">
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="9.75" customHeight="1">
+    <row r="58" spans="1:19" ht="9.75" customHeight="1">
       <c r="A58" s="54"/>
       <c r="B58" s="54" t="s">
         <v>1115</v>
@@ -8092,18 +8284,20 @@
         <v>TC58_B8121_BatchSendRoot_269_len_nospace_chkfail</v>
       </c>
       <c r="L58" s="55" t="s">
-        <v>1204</v>
-      </c>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="P58" s="66" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="R58" s="66" t="s">
         <v>867</v>
       </c>
-      <c r="Q58" s="64">
+      <c r="S58" s="64">
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="9.75" customHeight="1">
+    <row r="59" spans="1:19" ht="9.75" customHeight="1">
       <c r="A59" s="54"/>
       <c r="B59" s="54" t="s">
         <v>1116</v>
@@ -8137,22 +8331,24 @@
         <v>TC59_B8121_BatchSendRoot_269_len_1_p</v>
       </c>
       <c r="L59" s="55" t="s">
-        <v>1205</v>
-      </c>
-      <c r="M59" s="74" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="74" t="s">
         <v>1000</v>
       </c>
-      <c r="N59" s="74" t="s">
+      <c r="P59" s="74" t="s">
         <v>966</v>
       </c>
-      <c r="P59" s="66" t="s">
+      <c r="R59" s="66" t="s">
         <v>911</v>
       </c>
-      <c r="Q59" s="64">
+      <c r="S59" s="64">
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="9.75" customHeight="1">
+    <row r="60" spans="1:19" ht="9.75" customHeight="1">
       <c r="A60" s="54"/>
       <c r="B60" s="54" t="s">
         <v>1117</v>
@@ -8186,22 +8382,24 @@
         <v>TC60_B8121_BatchSendRoot_269_len_59_p</v>
       </c>
       <c r="L60" s="55" t="s">
-        <v>1206</v>
-      </c>
-      <c r="M60" s="74" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M60" s="77"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="74" t="s">
         <v>1001</v>
       </c>
-      <c r="N60" s="74" t="s">
+      <c r="P60" s="74" t="s">
         <v>967</v>
       </c>
-      <c r="P60" s="66" t="s">
+      <c r="R60" s="66" t="s">
         <v>911</v>
       </c>
-      <c r="Q60" s="64">
+      <c r="S60" s="64">
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="9.75" customHeight="1">
+    <row r="61" spans="1:19" ht="9.75" customHeight="1">
       <c r="A61" s="54"/>
       <c r="B61" s="54" t="s">
         <v>1118</v>
@@ -8235,22 +8433,24 @@
         <v>TC61_B8121_BatchSendRoot_269_len_60_p</v>
       </c>
       <c r="L61" s="55" t="s">
-        <v>1207</v>
-      </c>
-      <c r="M61" s="74" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M61" s="77"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="74" t="s">
         <v>1002</v>
       </c>
-      <c r="N61" s="74" t="s">
+      <c r="P61" s="74" t="s">
         <v>968</v>
       </c>
-      <c r="P61" s="66" t="s">
+      <c r="R61" s="66" t="s">
         <v>914</v>
       </c>
-      <c r="Q61" s="64">
+      <c r="S61" s="64">
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="9.75" customHeight="1">
+    <row r="62" spans="1:19" ht="9.75" customHeight="1">
       <c r="A62" s="54"/>
       <c r="B62" s="54" t="s">
         <v>1119</v>
@@ -8284,20 +8484,22 @@
         <v>TC62_B8121_BatchSendRoot_269_len_61_chkfail</v>
       </c>
       <c r="L62" s="55" t="s">
-        <v>1208</v>
-      </c>
-      <c r="M62" s="74" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="74" t="s">
         <v>996</v>
       </c>
-      <c r="N62" s="74"/>
-      <c r="P62" s="66" t="s">
+      <c r="P62" s="74"/>
+      <c r="R62" s="66" t="s">
         <v>913</v>
       </c>
-      <c r="Q62" s="64">
+      <c r="S62" s="64">
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="9.75" customHeight="1">
+    <row r="63" spans="1:19" ht="9.75" customHeight="1">
       <c r="A63" s="54"/>
       <c r="B63" s="54" t="s">
         <v>1120</v>
@@ -8331,20 +8533,22 @@
         <v>TC63_B8121_BatchSendRoot_269_len_70_chkfail</v>
       </c>
       <c r="L63" s="55" t="s">
-        <v>1209</v>
-      </c>
-      <c r="M63" s="74" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="74" t="s">
         <v>996</v>
       </c>
-      <c r="N63" s="74"/>
-      <c r="P63" s="66" t="s">
+      <c r="P63" s="74"/>
+      <c r="R63" s="66" t="s">
         <v>915</v>
       </c>
-      <c r="Q63" s="64">
+      <c r="S63" s="64">
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="9.75" customHeight="1">
+    <row r="64" spans="1:19" ht="9.75" customHeight="1">
       <c r="A64" s="54"/>
       <c r="B64" s="54" t="s">
         <v>1121</v>
@@ -8376,19 +8580,21 @@
         <v>TC64_B25_offLabel_198_bizrul_true251null_p</v>
       </c>
       <c r="L64" s="55" t="s">
-        <v>1210</v>
-      </c>
-      <c r="M64" s="74" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
+      <c r="O64" s="74" t="s">
         <v>1003</v>
       </c>
-      <c r="N64" s="74" t="s">
+      <c r="P64" s="74" t="s">
         <v>969</v>
       </c>
-      <c r="O64" s="73" t="s">
+      <c r="Q64" s="73" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="9.75" customHeight="1">
+    <row r="65" spans="1:17" ht="9.75" customHeight="1">
       <c r="A65" s="54"/>
       <c r="B65" s="54" t="s">
         <v>1122</v>
@@ -8420,19 +8626,21 @@
         <v>TC65_B25_offLabel_198_bizrul_True251unk_p</v>
       </c>
       <c r="L65" s="55" t="s">
-        <v>1211</v>
-      </c>
-      <c r="M65" s="74" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="74" t="s">
         <v>1004</v>
       </c>
-      <c r="N65" s="74" t="s">
+      <c r="P65" s="74" t="s">
         <v>970</v>
       </c>
-      <c r="O65" s="71" t="s">
+      <c r="Q65" s="71" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="9.75" customHeight="1">
+    <row r="66" spans="1:17" ht="9.75" customHeight="1">
       <c r="A66" s="54"/>
       <c r="B66" s="54" t="s">
         <v>1123</v>
@@ -8464,19 +8672,21 @@
         <v>TC66_B25_offLabel_198_bizrul_True251NA_p</v>
       </c>
       <c r="L66" s="55" t="s">
-        <v>1212</v>
-      </c>
-      <c r="M66" s="74" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M66" s="77"/>
+      <c r="N66" s="77"/>
+      <c r="O66" s="74" t="s">
         <v>1005</v>
       </c>
-      <c r="N66" s="74" t="s">
+      <c r="P66" s="74" t="s">
         <v>971</v>
       </c>
-      <c r="O66" s="71" t="s">
+      <c r="Q66" s="71" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="9.75" customHeight="1">
+    <row r="67" spans="1:17" ht="9.75" customHeight="1">
       <c r="A67" s="54"/>
       <c r="B67" s="54" t="s">
         <v>1124</v>
@@ -8508,19 +8718,21 @@
         <v>TC67_B25_offLabel_198_bizrul_True251false_err</v>
       </c>
       <c r="L67" s="55" t="s">
-        <v>1213</v>
-      </c>
-      <c r="M67" s="74" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M67" s="77"/>
+      <c r="N67" s="77"/>
+      <c r="O67" s="74" t="s">
         <v>1006</v>
       </c>
-      <c r="N67" s="74" t="s">
+      <c r="P67" s="74" t="s">
         <v>972</v>
       </c>
-      <c r="O67" s="72" t="s">
+      <c r="Q67" s="72" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="9.75" customHeight="1">
+    <row r="68" spans="1:17" ht="9.75" customHeight="1">
       <c r="A68" s="54"/>
       <c r="B68" s="54" t="s">
         <v>1125</v>
@@ -8552,19 +8764,21 @@
         <v>TC68_B25_offLabel_198_bizrul_True251true_err</v>
       </c>
       <c r="L68" s="55" t="s">
-        <v>1214</v>
-      </c>
-      <c r="M68" s="74" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="74" t="s">
         <v>1006</v>
       </c>
-      <c r="N68" s="74" t="s">
+      <c r="P68" s="74" t="s">
         <v>972</v>
       </c>
-      <c r="O68" s="72" t="s">
+      <c r="Q68" s="72" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="9.75" customHeight="1">
+    <row r="69" spans="1:17" ht="9.75" customHeight="1">
       <c r="A69" s="54"/>
       <c r="B69" s="54" t="s">
         <v>1126</v>
@@ -8596,19 +8810,21 @@
         <v>TC69_B25_offLabel_197_bizrul_False251Null_p</v>
       </c>
       <c r="L69" s="55" t="s">
-        <v>1215</v>
-      </c>
-      <c r="M69" s="74" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="74" t="s">
         <v>1007</v>
       </c>
-      <c r="N69" s="74" t="s">
+      <c r="P69" s="74" t="s">
         <v>973</v>
       </c>
-      <c r="O69" s="71" t="s">
+      <c r="Q69" s="71" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="9.75" customHeight="1">
+    <row r="70" spans="1:17" ht="9.75" customHeight="1">
       <c r="A70" s="54"/>
       <c r="B70" s="54" t="s">
         <v>1127</v>
@@ -8640,19 +8856,21 @@
         <v>TC70_B25_offLabel_197_bizrul_False251true_p</v>
       </c>
       <c r="L70" s="55" t="s">
-        <v>1216</v>
-      </c>
-      <c r="M70" s="74" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M70" s="77"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="74" t="s">
         <v>1008</v>
       </c>
-      <c r="N70" s="74" t="s">
+      <c r="P70" s="74" t="s">
         <v>974</v>
       </c>
-      <c r="O70" s="71" t="s">
+      <c r="Q70" s="71" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="9.75" customHeight="1">
+    <row r="71" spans="1:17" ht="9.75" customHeight="1">
       <c r="A71" s="54"/>
       <c r="B71" s="54" t="s">
         <v>1128</v>
@@ -8684,19 +8902,21 @@
         <v>TC71_B25_offLabel_197_bizrul_False251false_err</v>
       </c>
       <c r="L71" s="55" t="s">
-        <v>1217</v>
-      </c>
-      <c r="M71" s="74" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M71" s="77"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="74" t="s">
         <v>1009</v>
       </c>
-      <c r="N71" s="74" t="s">
+      <c r="P71" s="74" t="s">
         <v>975</v>
       </c>
-      <c r="O71" s="72" t="s">
+      <c r="Q71" s="72" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="9.75" customHeight="1">
+    <row r="72" spans="1:17" ht="9.75" customHeight="1">
       <c r="A72" s="54"/>
       <c r="B72" s="54" t="s">
         <v>1129</v>
@@ -8728,19 +8948,21 @@
         <v>TC72_B25_offLabel_197_bizrul_false251unk_p</v>
       </c>
       <c r="L72" s="55" t="s">
-        <v>1218</v>
-      </c>
-      <c r="M72" s="74" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M72" s="77"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="74" t="s">
         <v>1007</v>
       </c>
-      <c r="N72" s="74" t="s">
+      <c r="P72" s="74" t="s">
         <v>973</v>
       </c>
-      <c r="O72" s="71" t="s">
+      <c r="Q72" s="71" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="9.75" customHeight="1">
+    <row r="73" spans="1:17" ht="9.75" customHeight="1">
       <c r="A73" s="54"/>
       <c r="B73" s="54" t="s">
         <v>1130</v>
@@ -8772,19 +8994,21 @@
         <v>TC73_B25_offLabel_197_bizrul_false251NA_p</v>
       </c>
       <c r="L73" s="55" t="s">
-        <v>1219</v>
-      </c>
-      <c r="M73" s="74" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M73" s="77"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="74" t="s">
         <v>1007</v>
       </c>
-      <c r="N73" s="74" t="s">
+      <c r="P73" s="74" t="s">
         <v>973</v>
       </c>
-      <c r="O73" s="71" t="s">
+      <c r="Q73" s="71" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="9.75" customHeight="1">
+    <row r="74" spans="1:17" ht="9.75" customHeight="1">
       <c r="A74" s="54"/>
       <c r="B74" s="54" t="s">
         <v>1131</v>
@@ -8815,19 +9039,21 @@
         <v>TC74_B25_offLabel_197_bizrul_Null251NULL_err</v>
       </c>
       <c r="L74" s="55" t="s">
-        <v>1220</v>
-      </c>
-      <c r="M74" s="74" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M74" s="77"/>
+      <c r="N74" s="77"/>
+      <c r="O74" s="74" t="s">
         <v>1010</v>
       </c>
-      <c r="N74" s="74" t="s">
+      <c r="P74" s="74" t="s">
         <v>976</v>
       </c>
-      <c r="O74" s="72" t="s">
+      <c r="Q74" s="72" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="9.75" customHeight="1">
+    <row r="75" spans="1:17" ht="9.75" customHeight="1">
       <c r="A75" s="54"/>
       <c r="B75" s="54" t="s">
         <v>1132</v>
@@ -8858,19 +9084,21 @@
         <v>TC75_B25_offLabel_197_bizrul_Null251true_err</v>
       </c>
       <c r="L75" s="55" t="s">
-        <v>1221</v>
-      </c>
-      <c r="M75" s="74" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M75" s="77"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="74" t="s">
         <v>1010</v>
       </c>
-      <c r="N75" s="74" t="s">
+      <c r="P75" s="74" t="s">
         <v>976</v>
       </c>
-      <c r="O75" s="72" t="s">
+      <c r="Q75" s="72" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="9.75" customHeight="1">
+    <row r="76" spans="1:17" ht="9.75" customHeight="1">
       <c r="A76" s="54"/>
       <c r="B76" s="54" t="s">
         <v>1133</v>
@@ -8901,19 +9129,21 @@
         <v>TC76_B25_offLabel_197_bizrul_Null251false_err</v>
       </c>
       <c r="L76" s="55" t="s">
-        <v>1222</v>
-      </c>
-      <c r="M76" s="74" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M76" s="77"/>
+      <c r="N76" s="77"/>
+      <c r="O76" s="74" t="s">
         <v>1011</v>
       </c>
-      <c r="N76" s="74" t="s">
+      <c r="P76" s="74" t="s">
         <v>977</v>
       </c>
-      <c r="O76" s="72" t="s">
+      <c r="Q76" s="72" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="9.75" customHeight="1">
+    <row r="77" spans="1:17" ht="9.75" customHeight="1">
       <c r="A77" s="54"/>
       <c r="B77" s="54" t="s">
         <v>1134</v>
@@ -8944,15 +9174,17 @@
         <v>TC77_B25_offLabel_197_bizrul_UNK251true_p</v>
       </c>
       <c r="L77" s="55" t="s">
-        <v>1223</v>
-      </c>
-      <c r="M77" s="74"/>
-      <c r="N77" s="74"/>
-      <c r="O77" s="71" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="71" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="9.75" customHeight="1">
+    <row r="78" spans="1:17" ht="9.75" customHeight="1">
       <c r="A78" s="54"/>
       <c r="B78" s="54" t="s">
         <v>1135</v>
@@ -8983,15 +9215,17 @@
         <v>TC78_B25_offLabel_197_bizrul_UNK251null_p</v>
       </c>
       <c r="L78" s="55" t="s">
-        <v>1224</v>
-      </c>
-      <c r="M78" s="74"/>
-      <c r="N78" s="74"/>
-      <c r="O78" s="71" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M78" s="77"/>
+      <c r="N78" s="77"/>
+      <c r="O78" s="74"/>
+      <c r="P78" s="74"/>
+      <c r="Q78" s="71" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="9.75" customHeight="1">
+    <row r="79" spans="1:17" ht="9.75" customHeight="1">
       <c r="A79" s="54"/>
       <c r="B79" s="54" t="s">
         <v>1136</v>
@@ -9022,19 +9256,21 @@
         <v>TC79_B25_offLabel_197_bizrul_UNK251false_err</v>
       </c>
       <c r="L79" s="55" t="s">
-        <v>1225</v>
-      </c>
-      <c r="M79" s="74" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M79" s="77"/>
+      <c r="N79" s="77"/>
+      <c r="O79" s="74" t="s">
         <v>1009</v>
       </c>
-      <c r="N79" s="74" t="s">
+      <c r="P79" s="74" t="s">
         <v>975</v>
       </c>
-      <c r="O79" s="72" t="s">
+      <c r="Q79" s="72" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="9.75" customHeight="1">
+    <row r="80" spans="1:17" ht="9.75" customHeight="1">
       <c r="A80" s="54"/>
       <c r="B80" s="54" t="s">
         <v>1137</v>
@@ -9065,16 +9301,124 @@
         <v>TC80_B25_offLabel_197_bizrul_NA251true_err</v>
       </c>
       <c r="L80" s="55" t="s">
+        <v>1223</v>
+      </c>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="74" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P80" s="74" t="s">
+        <v>976</v>
+      </c>
+      <c r="Q80" s="72" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="9.75" customHeight="1">
+      <c r="B81" s="64" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D81" s="59" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F81" s="59" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I81" s="59" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K81" s="64" t="s">
         <v>1226</v>
       </c>
-      <c r="M80" s="74" t="s">
-        <v>1010</v>
-      </c>
-      <c r="N80" s="74" t="s">
-        <v>976</v>
-      </c>
-      <c r="O80" s="72" t="s">
-        <v>937</v>
+      <c r="L81" s="64" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O81" s="65" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A82" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K82" s="64" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O82" s="65" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="11.4">
+      <c r="K83" s="64" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O83" s="65" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="45.6">
+      <c r="I84" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K84" s="64" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="9.75" customHeight="1">
+      <c r="K85" s="64" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="9.75" customHeight="1">
+      <c r="K86" s="64" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="9.75" customHeight="1">
+      <c r="K87" s="64" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="9.75" customHeight="1">
+      <c r="K88" s="64" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="9.75" customHeight="1">
+      <c r="K89" s="64" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="9.75" customHeight="1">
+      <c r="K90" s="64" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="9.75" customHeight="1">
+      <c r="K91" s="64" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="9.75" customHeight="1">
+      <c r="K92" s="64" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="9.75" customHeight="1">
+      <c r="K93" s="64" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="9.75" customHeight="1">
+      <c r="I94" s="59" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K94" s="64" t="s">
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -9090,8 +9434,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -14631,7 +14975,7 @@
   <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:N32"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="9.75" customHeight="1"/>

--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\vich-file-creation\Files\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D985E2-0610-450C-9649-BBFD9E166A95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="12756" tabRatio="910"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11925" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bizrule" sheetId="4" r:id="rId1"/>
@@ -15,9 +21,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">A1ToA4_mandatorychecks!$A$1:$N$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bizrule!$A$1:$S$80</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="1256">
   <si>
     <t>y</t>
   </si>
@@ -4440,12 +4446,24 @@
   <si>
     <t>only mandatory fields</t>
   </si>
+  <si>
+    <t>moving to deadletter</t>
+  </si>
+  <si>
+    <t>valid ack</t>
+  </si>
+  <si>
+    <t>adverse event report not loaded;                    Comments: Parsing process: report with mandatory check violationsThere must be exactly 1 date of onset in the report;There must be exactly 1 effective time in the report;</t>
+  </si>
+  <si>
+    <t>One or more attachments did not decode, did not decompress or contains a virus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4515,6 +4533,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4588,7 +4612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4804,10 +4828,11 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4842,7 +4867,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4886,7 +4911,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4930,7 +4955,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4974,7 +4999,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5258,45 +5283,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="64" collapsed="1"/>
-    <col min="3" max="3" width="9.109375" style="59" collapsed="1"/>
-    <col min="4" max="4" width="17.44140625" style="59" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.44140625" style="60" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.44140625" style="59" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.33203125" style="59" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.109375" style="59" collapsed="1"/>
-    <col min="9" max="9" width="17.5546875" style="59" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.33203125" style="68" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.5546875" style="64" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="42.88671875" style="65" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="9.140625" style="64" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="59" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" style="59" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" style="60" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.42578125" style="59" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="59" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="59" collapsed="1"/>
+    <col min="9" max="9" width="17.5703125" style="59" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.28515625" style="68" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.5703125" style="64" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="33.42578125" style="64" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="42.85546875" style="65" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="21" style="65" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="64.88671875" style="65" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="43.5546875" style="66" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.109375" style="64" collapsed="1"/>
+    <col min="17" max="17" width="64.85546875" style="65" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="43.5703125" style="66" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="64" collapsed="1"/>
     <col min="20" max="20" width="58" style="64" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.109375" style="64" collapsed="1"/>
+    <col min="21" max="16384" width="9.140625" style="64" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
@@ -5353,7 +5378,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
@@ -5409,7 +5434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
@@ -5465,7 +5490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>0</v>
       </c>
@@ -5521,7 +5546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="54" t="s">
         <v>1062</v>
@@ -5573,7 +5598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="54" t="s">
         <v>1063</v>
@@ -5625,7 +5650,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
       <c r="B7" s="54" t="s">
         <v>1064</v>
@@ -5675,7 +5700,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
       <c r="B8" s="54" t="s">
         <v>1065</v>
@@ -5729,7 +5754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
       <c r="B9" s="54" t="s">
         <v>1066</v>
@@ -5783,7 +5808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
       <c r="B10" s="54" t="s">
         <v>1067</v>
@@ -5837,7 +5862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
       <c r="B11" s="54" t="s">
         <v>1068</v>
@@ -5891,7 +5916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
       <c r="B12" s="54" t="s">
         <v>1069</v>
@@ -5941,7 +5966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
       <c r="B13" s="54" t="s">
         <v>1070</v>
@@ -5991,7 +6016,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
       <c r="B14" s="54" t="s">
         <v>1071</v>
@@ -6039,7 +6064,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="54" t="s">
         <v>1072</v>
@@ -6087,7 +6112,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
       <c r="B16" s="54" t="s">
         <v>1073</v>
@@ -6135,7 +6160,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
       <c r="B17" s="54" t="s">
         <v>1074</v>
@@ -6190,7 +6215,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
       <c r="B18" s="54" t="s">
         <v>1075</v>
@@ -6245,7 +6270,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
       <c r="B19" s="54" t="s">
         <v>1076</v>
@@ -6299,7 +6324,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
       <c r="B20" s="54" t="s">
         <v>1077</v>
@@ -6353,7 +6378,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
       <c r="B21" s="54" t="s">
         <v>1078</v>
@@ -6407,7 +6432,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
       <c r="B22" s="54" t="s">
         <v>1079</v>
@@ -6461,7 +6486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="B23" s="54" t="s">
         <v>1080</v>
@@ -6515,7 +6540,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
       <c r="B24" s="54" t="s">
         <v>1081</v>
@@ -6569,7 +6594,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
       <c r="B25" s="54" t="s">
         <v>1082</v>
@@ -6623,7 +6648,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
       <c r="B26" s="54" t="s">
         <v>1083</v>
@@ -6677,7 +6702,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="54" t="s">
         <v>1084</v>
@@ -6731,7 +6756,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
       <c r="B28" s="54" t="s">
         <v>1085</v>
@@ -6785,7 +6810,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
       <c r="B29" s="54" t="s">
         <v>1086</v>
@@ -6839,7 +6864,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54" t="s">
         <v>1087</v>
@@ -6893,7 +6918,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
       <c r="B31" s="54" t="s">
         <v>1088</v>
@@ -6947,7 +6972,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="54" t="s">
         <v>1089</v>
@@ -7001,7 +7026,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="54"/>
       <c r="B33" s="54" t="s">
         <v>1090</v>
@@ -7055,7 +7080,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54"/>
       <c r="B34" s="54" t="s">
         <v>1091</v>
@@ -7103,7 +7128,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="54"/>
       <c r="B35" s="54" t="s">
         <v>1092</v>
@@ -7151,7 +7176,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
       <c r="B36" s="54" t="s">
         <v>1093</v>
@@ -7199,7 +7224,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="54" t="s">
         <v>1094</v>
@@ -7249,7 +7274,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
       <c r="B38" s="54" t="s">
         <v>1095</v>
@@ -7299,7 +7324,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="54"/>
       <c r="B39" s="54" t="s">
         <v>1096</v>
@@ -7347,7 +7372,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54"/>
       <c r="B40" s="54" t="s">
         <v>1097</v>
@@ -7395,7 +7420,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
       <c r="B41" s="54" t="s">
         <v>1098</v>
@@ -7447,7 +7472,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
       <c r="B42" s="54" t="s">
         <v>1099</v>
@@ -7499,7 +7524,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
       <c r="B43" s="54" t="s">
         <v>1100</v>
@@ -7551,7 +7576,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="54"/>
       <c r="B44" s="54" t="s">
         <v>1101</v>
@@ -7603,7 +7628,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
       <c r="B45" s="54" t="s">
         <v>1102</v>
@@ -7655,7 +7680,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1">
+    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
       <c r="B46" s="54" t="s">
         <v>1103</v>
@@ -7705,7 +7730,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54"/>
       <c r="B47" s="54" t="s">
         <v>1104</v>
@@ -7749,7 +7774,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="54"/>
       <c r="B48" s="54" t="s">
         <v>1105</v>
@@ -7797,7 +7822,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54"/>
       <c r="B49" s="54" t="s">
         <v>1106</v>
@@ -7847,7 +7872,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="54"/>
       <c r="B50" s="54" t="s">
         <v>1107</v>
@@ -7897,7 +7922,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54"/>
       <c r="B51" s="54" t="s">
         <v>1108</v>
@@ -7947,7 +7972,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
       <c r="B52" s="54" t="s">
         <v>1109</v>
@@ -7997,7 +8022,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="54"/>
       <c r="B53" s="54" t="s">
         <v>1110</v>
@@ -8047,7 +8072,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="54"/>
       <c r="B54" s="54" t="s">
         <v>1111</v>
@@ -8097,7 +8122,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="54"/>
       <c r="B55" s="54" t="s">
         <v>1112</v>
@@ -8148,7 +8173,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="9.75" customHeight="1">
+    <row r="56" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54"/>
       <c r="B56" s="54" t="s">
         <v>1113</v>
@@ -8200,7 +8225,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="9.75" customHeight="1">
+    <row r="57" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="54"/>
       <c r="B57" s="54" t="s">
         <v>1114</v>
@@ -8250,7 +8275,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="9.75" customHeight="1">
+    <row r="58" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="54"/>
       <c r="B58" s="54" t="s">
         <v>1115</v>
@@ -8297,7 +8322,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="9.75" customHeight="1">
+    <row r="59" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="54"/>
       <c r="B59" s="54" t="s">
         <v>1116</v>
@@ -8348,7 +8373,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="9.75" customHeight="1">
+    <row r="60" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="54"/>
       <c r="B60" s="54" t="s">
         <v>1117</v>
@@ -8399,7 +8424,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="9.75" customHeight="1">
+    <row r="61" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="54"/>
       <c r="B61" s="54" t="s">
         <v>1118</v>
@@ -8450,7 +8475,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="9.75" customHeight="1">
+    <row r="62" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
       <c r="B62" s="54" t="s">
         <v>1119</v>
@@ -8499,7 +8524,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="9.75" customHeight="1">
+    <row r="63" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="54"/>
       <c r="B63" s="54" t="s">
         <v>1120</v>
@@ -8548,7 +8573,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="9.75" customHeight="1">
+    <row r="64" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="54"/>
       <c r="B64" s="54" t="s">
         <v>1121</v>
@@ -8594,7 +8619,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="9.75" customHeight="1">
+    <row r="65" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
       <c r="B65" s="54" t="s">
         <v>1122</v>
@@ -8640,7 +8665,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="9.75" customHeight="1">
+    <row r="66" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="54"/>
       <c r="B66" s="54" t="s">
         <v>1123</v>
@@ -8686,7 +8711,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="9.75" customHeight="1">
+    <row r="67" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
       <c r="B67" s="54" t="s">
         <v>1124</v>
@@ -8732,7 +8757,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="9.75" customHeight="1">
+    <row r="68" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="54"/>
       <c r="B68" s="54" t="s">
         <v>1125</v>
@@ -8778,7 +8803,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="9.75" customHeight="1">
+    <row r="69" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54"/>
       <c r="B69" s="54" t="s">
         <v>1126</v>
@@ -8824,7 +8849,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="9.75" customHeight="1">
+    <row r="70" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54"/>
       <c r="B70" s="54" t="s">
         <v>1127</v>
@@ -8870,7 +8895,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="9.75" customHeight="1">
+    <row r="71" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="54"/>
       <c r="B71" s="54" t="s">
         <v>1128</v>
@@ -8916,7 +8941,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="9.75" customHeight="1">
+    <row r="72" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="54"/>
       <c r="B72" s="54" t="s">
         <v>1129</v>
@@ -8962,7 +8987,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="9.75" customHeight="1">
+    <row r="73" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="54"/>
       <c r="B73" s="54" t="s">
         <v>1130</v>
@@ -9008,7 +9033,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="9.75" customHeight="1">
+    <row r="74" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="54"/>
       <c r="B74" s="54" t="s">
         <v>1131</v>
@@ -9053,7 +9078,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="9.75" customHeight="1">
+    <row r="75" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="54"/>
       <c r="B75" s="54" t="s">
         <v>1132</v>
@@ -9098,7 +9123,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="9.75" customHeight="1">
+    <row r="76" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="54"/>
       <c r="B76" s="54" t="s">
         <v>1133</v>
@@ -9143,7 +9168,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="9.75" customHeight="1">
+    <row r="77" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="54"/>
       <c r="B77" s="54" t="s">
         <v>1134</v>
@@ -9184,7 +9209,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="9.75" customHeight="1">
+    <row r="78" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="54"/>
       <c r="B78" s="54" t="s">
         <v>1135</v>
@@ -9225,7 +9250,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="9.75" customHeight="1">
+    <row r="79" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="54"/>
       <c r="B79" s="54" t="s">
         <v>1136</v>
@@ -9270,7 +9295,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="9.75" customHeight="1">
+    <row r="80" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="54"/>
       <c r="B80" s="54" t="s">
         <v>1137</v>
@@ -9315,7 +9340,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="9.75" customHeight="1">
+    <row r="81" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="64" t="s">
         <v>1227</v>
       </c>
@@ -9341,7 +9366,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="9.75" customHeight="1">
+    <row r="82" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="64" t="s">
         <v>0</v>
       </c>
@@ -9352,7 +9377,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="11.4">
+    <row r="83" spans="1:15" ht="12" x14ac:dyDescent="0.2">
       <c r="K83" s="64" t="s">
         <v>1233</v>
       </c>
@@ -9360,65 +9385,98 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="45.6">
+    <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="I84" s="59" t="s">
         <v>1236</v>
       </c>
-      <c r="K84" s="64" t="s">
+      <c r="K84" s="79" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" ht="9.75" customHeight="1">
+      <c r="M84" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K85" s="64" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" ht="9.75" customHeight="1">
-      <c r="K86" s="64" t="s">
+      <c r="M85" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K86" s="79" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" ht="9.75" customHeight="1">
-      <c r="K87" s="64" t="s">
+      <c r="M86" s="64" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K87" s="79" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" ht="9.75" customHeight="1">
-      <c r="K88" s="64" t="s">
+      <c r="M87" s="64" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K88" s="79" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" ht="9.75" customHeight="1">
-      <c r="K89" s="64" t="s">
+      <c r="M88" s="64" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K89" s="79" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="9.75" customHeight="1">
+      <c r="M89" s="64" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K90" s="64" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" ht="9.75" customHeight="1">
+      <c r="M90" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K91" s="64" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" ht="9.75" customHeight="1">
+      <c r="M91" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K92" s="64" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="9.75" customHeight="1">
-      <c r="K93" s="64" t="s">
+      <c r="M92" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K93" s="79" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" ht="9.75" customHeight="1">
+      <c r="M93" s="64" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I94" s="59" t="s">
         <v>1251</v>
       </c>
-      <c r="K94" s="64" t="s">
+      <c r="K94" s="79" t="s">
         <v>1250</v>
+      </c>
+      <c r="M94" s="64" t="s">
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -9430,7 +9488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L138"/>
   <sheetViews>
@@ -9438,14 +9496,14 @@
       <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="12" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
@@ -9483,7 +9541,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -9523,7 +9581,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -9563,7 +9621,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
@@ -9603,7 +9661,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
@@ -9643,7 +9701,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -9683,7 +9741,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
@@ -9723,7 +9781,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
@@ -9763,7 +9821,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
@@ -9803,7 +9861,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
@@ -9843,7 +9901,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
@@ -9883,7 +9941,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
@@ -9923,7 +9981,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
@@ -9963,7 +10021,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>0</v>
       </c>
@@ -10003,7 +10061,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>0</v>
       </c>
@@ -10043,7 +10101,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>0</v>
       </c>
@@ -10083,7 +10141,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>0</v>
       </c>
@@ -10123,7 +10181,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>0</v>
       </c>
@@ -10163,7 +10221,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>0</v>
       </c>
@@ -10203,7 +10261,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>0</v>
       </c>
@@ -10243,7 +10301,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>0</v>
       </c>
@@ -10283,7 +10341,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>0</v>
       </c>
@@ -10323,7 +10381,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>0</v>
       </c>
@@ -10363,7 +10421,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>0</v>
       </c>
@@ -10403,7 +10461,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
@@ -10443,7 +10501,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -10483,7 +10541,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -10523,7 +10581,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -10563,7 +10621,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -10603,7 +10661,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>0</v>
       </c>
@@ -10643,7 +10701,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>0</v>
       </c>
@@ -10683,7 +10741,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>0</v>
       </c>
@@ -10723,7 +10781,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>0</v>
       </c>
@@ -10763,7 +10821,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>0</v>
       </c>
@@ -10803,7 +10861,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>0</v>
       </c>
@@ -10843,7 +10901,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
@@ -10883,7 +10941,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>0</v>
       </c>
@@ -10923,7 +10981,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>0</v>
       </c>
@@ -10963,7 +11021,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>0</v>
       </c>
@@ -11003,7 +11061,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>0</v>
       </c>
@@ -11043,7 +11101,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>0</v>
       </c>
@@ -11083,7 +11141,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>0</v>
       </c>
@@ -11123,7 +11181,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>0</v>
       </c>
@@ -11163,7 +11221,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>0</v>
       </c>
@@ -11203,7 +11261,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>0</v>
       </c>
@@ -11243,7 +11301,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>0</v>
       </c>
@@ -11283,7 +11341,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>0</v>
       </c>
@@ -11323,7 +11381,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>0</v>
       </c>
@@ -11363,7 +11421,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>0</v>
       </c>
@@ -11403,7 +11461,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>0</v>
       </c>
@@ -11443,7 +11501,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>0</v>
       </c>
@@ -11483,7 +11541,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>0</v>
       </c>
@@ -11523,7 +11581,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>0</v>
       </c>
@@ -11563,7 +11621,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>0</v>
       </c>
@@ -11603,7 +11661,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>0</v>
       </c>
@@ -11643,7 +11701,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>0</v>
       </c>
@@ -11683,7 +11741,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>0</v>
       </c>
@@ -11723,7 +11781,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>0</v>
       </c>
@@ -11763,7 +11821,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>0</v>
       </c>
@@ -11803,7 +11861,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>0</v>
       </c>
@@ -11843,7 +11901,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>0</v>
       </c>
@@ -11883,7 +11941,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>0</v>
       </c>
@@ -11923,7 +11981,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>0</v>
       </c>
@@ -11963,7 +12021,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>0</v>
       </c>
@@ -12003,7 +12061,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>0</v>
       </c>
@@ -12043,7 +12101,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>0</v>
       </c>
@@ -12083,7 +12141,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>0</v>
       </c>
@@ -12123,7 +12181,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>0</v>
       </c>
@@ -12163,7 +12221,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>0</v>
       </c>
@@ -12203,7 +12261,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>0</v>
       </c>
@@ -12243,7 +12301,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>0</v>
       </c>
@@ -12283,7 +12341,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
         <v>0</v>
       </c>
@@ -12323,7 +12381,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>0</v>
       </c>
@@ -12363,7 +12421,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
         <v>0</v>
       </c>
@@ -12403,7 +12461,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
         <v>0</v>
       </c>
@@ -12443,7 +12501,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
         <v>0</v>
       </c>
@@ -12483,7 +12541,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
         <v>0</v>
       </c>
@@ -12523,7 +12581,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>0</v>
       </c>
@@ -12563,7 +12621,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>0</v>
       </c>
@@ -12603,7 +12661,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>0</v>
       </c>
@@ -12643,7 +12701,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
         <v>0</v>
       </c>
@@ -12683,7 +12741,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>0</v>
       </c>
@@ -12723,7 +12781,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
         <v>0</v>
       </c>
@@ -12763,7 +12821,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
         <v>0</v>
       </c>
@@ -12803,7 +12861,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
         <v>0</v>
       </c>
@@ -12843,7 +12901,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
         <v>0</v>
       </c>
@@ -12883,7 +12941,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
         <v>0</v>
       </c>
@@ -12923,7 +12981,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
         <v>0</v>
       </c>
@@ -12963,7 +13021,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
         <v>0</v>
       </c>
@@ -13003,7 +13061,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
         <v>0</v>
       </c>
@@ -13043,7 +13101,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
         <v>0</v>
       </c>
@@ -13083,7 +13141,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>0</v>
       </c>
@@ -13123,7 +13181,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>0</v>
       </c>
@@ -13163,7 +13221,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
         <v>0</v>
       </c>
@@ -13203,7 +13261,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
         <v>0</v>
       </c>
@@ -13243,7 +13301,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
         <v>0</v>
       </c>
@@ -13283,7 +13341,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
         <v>0</v>
       </c>
@@ -13323,7 +13381,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>0</v>
       </c>
@@ -13363,7 +13421,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>0</v>
       </c>
@@ -13403,7 +13461,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
         <v>0</v>
       </c>
@@ -13443,7 +13501,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
         <v>0</v>
       </c>
@@ -13483,7 +13541,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
         <v>0</v>
       </c>
@@ -13523,7 +13581,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
         <v>0</v>
       </c>
@@ -13563,7 +13621,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
         <v>0</v>
       </c>
@@ -13603,7 +13661,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
         <v>0</v>
       </c>
@@ -13643,7 +13701,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
         <v>0</v>
       </c>
@@ -13683,7 +13741,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="33" t="s">
         <v>0</v>
       </c>
@@ -13723,7 +13781,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
         <v>0</v>
       </c>
@@ -13763,7 +13821,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
         <v>0</v>
       </c>
@@ -13803,7 +13861,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="33" t="s">
         <v>0</v>
       </c>
@@ -13843,7 +13901,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="33" t="s">
         <v>0</v>
       </c>
@@ -13883,7 +13941,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
         <v>0</v>
       </c>
@@ -13923,7 +13981,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
         <v>0</v>
       </c>
@@ -13963,7 +14021,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
         <v>0</v>
       </c>
@@ -14003,7 +14061,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
         <v>0</v>
       </c>
@@ -14043,7 +14101,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
         <v>0</v>
       </c>
@@ -14083,7 +14141,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
         <v>0</v>
       </c>
@@ -14123,7 +14181,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
         <v>0</v>
       </c>
@@ -14163,7 +14221,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
         <v>0</v>
       </c>
@@ -14203,7 +14261,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
         <v>0</v>
       </c>
@@ -14243,7 +14301,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
         <v>0</v>
       </c>
@@ -14283,7 +14341,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
         <v>0</v>
       </c>
@@ -14323,7 +14381,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
         <v>0</v>
       </c>
@@ -14363,7 +14421,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="33" t="s">
         <v>0</v>
       </c>
@@ -14403,7 +14461,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
         <v>0</v>
       </c>
@@ -14443,7 +14501,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>0</v>
       </c>
@@ -14483,7 +14541,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
         <v>0</v>
       </c>
@@ -14523,7 +14581,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
         <v>0</v>
       </c>
@@ -14563,7 +14621,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
         <v>0</v>
       </c>
@@ -14603,7 +14661,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
         <v>0</v>
       </c>
@@ -14643,7 +14701,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>0</v>
       </c>
@@ -14683,7 +14741,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
         <v>0</v>
       </c>
@@ -14723,7 +14781,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
         <v>0</v>
       </c>
@@ -14763,7 +14821,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="33" t="s">
         <v>0</v>
       </c>
@@ -14803,7 +14861,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
         <v>0</v>
       </c>
@@ -14843,7 +14901,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
         <v>0</v>
       </c>
@@ -14883,7 +14941,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
         <v>0</v>
       </c>
@@ -14923,7 +14981,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
         <v>0</v>
       </c>
@@ -14970,7 +15028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P113"/>
   <sheetViews>
@@ -14978,26 +15036,26 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="9.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.88671875" style="2" collapsed="1"/>
-    <col min="5" max="5" width="18.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.88671875" style="2" collapsed="1"/>
-    <col min="8" max="8" width="63.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="59.33203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="79.88671875" style="14" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="61.44140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="36.88671875" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.44140625" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="5.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.85546875" style="2" collapsed="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.85546875" style="2" collapsed="1"/>
+    <col min="8" max="8" width="63.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="59.28515625" style="14" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="79.85546875" style="14" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="61.42578125" style="14" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="36.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.42578125" style="15" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="5.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="9.75" customHeight="1">
+    <row r="1" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -15041,7 +15099,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="9.75" customHeight="1">
+    <row r="2" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>127</v>
@@ -15080,7 +15138,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="9.75" customHeight="1">
+    <row r="3" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>127</v>
@@ -15115,7 +15173,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="9.75" customHeight="1">
+    <row r="4" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>128</v>
@@ -15150,7 +15208,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="9.75" customHeight="1">
+    <row r="5" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>65</v>
@@ -15185,7 +15243,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="9.75" customHeight="1">
+    <row r="6" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="21" t="s">
         <v>73</v>
@@ -15224,7 +15282,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="9.75" customHeight="1">
+    <row r="7" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>129</v>
@@ -15259,7 +15317,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="9.75" customHeight="1">
+    <row r="8" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>130</v>
@@ -15294,7 +15352,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="9.75" customHeight="1">
+    <row r="9" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>66</v>
@@ -15331,7 +15389,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="9.75" customHeight="1">
+    <row r="10" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>131</v>
@@ -15366,7 +15424,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="9.75" customHeight="1">
+    <row r="11" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>132</v>
@@ -15401,7 +15459,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="9.75" customHeight="1">
+    <row r="12" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="21" t="s">
         <v>74</v>
@@ -15438,7 +15496,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="9.75" customHeight="1">
+    <row r="13" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>133</v>
@@ -15473,7 +15531,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="9.75" customHeight="1">
+    <row r="14" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>134</v>
@@ -15508,7 +15566,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="9.75" customHeight="1">
+    <row r="15" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="22" t="s">
         <v>75</v>
@@ -15548,7 +15606,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="9.75" customHeight="1">
+    <row r="16" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="22" t="s">
         <v>76</v>
@@ -15588,7 +15646,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="9.75" customHeight="1">
+    <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="22" t="s">
         <v>77</v>
@@ -15628,7 +15686,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="9.75" customHeight="1">
+    <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>78</v>
@@ -15668,7 +15726,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="9.75" customHeight="1">
+    <row r="19" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>79</v>
@@ -15708,7 +15766,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="9.75" customHeight="1">
+    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>80</v>
@@ -15748,7 +15806,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="9.75" customHeight="1">
+    <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="12" t="s">
         <v>67</v>
@@ -15784,7 +15842,7 @@
       <c r="N21" s="8"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="9.75" customHeight="1">
+    <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -15829,7 +15887,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="9.75" customHeight="1">
+    <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -15874,7 +15932,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="9.75" customHeight="1">
+    <row r="24" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -15919,7 +15977,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="9.75" customHeight="1">
+    <row r="25" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
@@ -15959,7 +16017,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="1:16" ht="9.75" customHeight="1">
+    <row r="26" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -15998,7 +16056,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="9.75" customHeight="1">
+    <row r="27" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -16037,7 +16095,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="9.75" customHeight="1">
+    <row r="28" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -16076,7 +16134,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="9.75" customHeight="1">
+    <row r="29" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -16115,7 +16173,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="9.75" customHeight="1">
+    <row r="30" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>0</v>
       </c>
@@ -16151,7 +16209,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="9.75" customHeight="1">
+    <row r="31" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -16190,7 +16248,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="9.75" customHeight="1">
+    <row r="32" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -16233,7 +16291,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="9.75" customHeight="1">
+    <row r="33" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>64</v>
@@ -16273,7 +16331,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="9.75" customHeight="1">
+    <row r="34" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
@@ -16313,7 +16371,7 @@
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="9.75" customHeight="1">
+    <row r="35" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>83</v>
@@ -16353,7 +16411,7 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="9.75" customHeight="1">
+    <row r="36" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>84</v>
@@ -16393,7 +16451,7 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="9.75" customHeight="1">
+    <row r="37" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>85</v>
@@ -16433,7 +16491,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="9.75" customHeight="1">
+    <row r="38" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>86</v>
@@ -16473,7 +16531,7 @@
       </c>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="9.75" customHeight="1">
+    <row r="39" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>87</v>
@@ -16513,7 +16571,7 @@
       </c>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="9.75" customHeight="1">
+    <row r="40" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>88</v>
@@ -16553,7 +16611,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="9.75" customHeight="1">
+    <row r="41" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>89</v>
@@ -16593,7 +16651,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="9.75" customHeight="1">
+    <row r="42" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>135</v>
@@ -16633,7 +16691,7 @@
       </c>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="9.75" customHeight="1">
+    <row r="43" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>135</v>
@@ -16672,7 +16730,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="9.75" customHeight="1">
+    <row r="44" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>135</v>
@@ -16707,7 +16765,7 @@
       <c r="M44" s="18"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:16" ht="9.75" customHeight="1">
+    <row r="45" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>135</v>
@@ -16744,7 +16802,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:16" ht="9.75" customHeight="1">
+    <row r="46" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>90</v>
@@ -16784,7 +16842,7 @@
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="9.75" customHeight="1">
+    <row r="47" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>91</v>
@@ -16824,7 +16882,7 @@
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" ht="9.75" customHeight="1">
+    <row r="48" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>92</v>
@@ -16864,7 +16922,7 @@
       </c>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="9.75" customHeight="1">
+    <row r="49" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
         <v>93</v>
@@ -16904,7 +16962,7 @@
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="9.75" customHeight="1">
+    <row r="50" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
         <v>94</v>
@@ -16942,7 +17000,7 @@
       </c>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="9.75" customHeight="1">
+    <row r="51" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>95</v>
@@ -16982,7 +17040,7 @@
       </c>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="9.75" customHeight="1">
+    <row r="52" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
         <v>96</v>
@@ -17022,7 +17080,7 @@
       </c>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="9.75" customHeight="1">
+    <row r="53" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
         <v>97</v>
@@ -17062,7 +17120,7 @@
       </c>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="9.75" customHeight="1">
+    <row r="54" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>98</v>
@@ -17102,7 +17160,7 @@
       </c>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" ht="9.75" customHeight="1">
+    <row r="55" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
         <v>99</v>
@@ -17142,7 +17200,7 @@
       </c>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" ht="9.75" customHeight="1">
+    <row r="56" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>100</v>
@@ -17182,7 +17240,7 @@
       </c>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="9.75" customHeight="1">
+    <row r="57" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>136</v>
@@ -17221,7 +17279,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="9.75" customHeight="1">
+    <row r="58" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>136</v>
@@ -17256,7 +17314,7 @@
       <c r="M58" s="18"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="9.75" customHeight="1">
+    <row r="59" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>137</v>
@@ -17295,7 +17353,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="9.75" customHeight="1">
+    <row r="60" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>137</v>
@@ -17330,7 +17388,7 @@
       <c r="M60" s="18"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:16" ht="9.75" customHeight="1">
+    <row r="61" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>138</v>
@@ -17369,7 +17427,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="9.75" customHeight="1">
+    <row r="62" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>138</v>
@@ -17404,7 +17462,7 @@
       <c r="M62" s="18"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="9.75" customHeight="1">
+    <row r="63" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>140</v>
@@ -17441,7 +17499,7 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:16" ht="9.75" customHeight="1">
+    <row r="64" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
         <v>101</v>
@@ -17481,7 +17539,7 @@
       </c>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="2:16" ht="9.75" customHeight="1">
+    <row r="65" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
@@ -17516,7 +17574,7 @@
       <c r="N65" s="27"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="2:16" ht="9.75" customHeight="1">
+    <row r="66" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="27"/>
@@ -17531,7 +17589,7 @@
       <c r="N66" s="27"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="2:16" ht="9.75" customHeight="1">
+    <row r="67" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>218</v>
       </c>
@@ -17568,7 +17626,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="9.75" customHeight="1">
+    <row r="68" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
@@ -17600,7 +17658,7 @@
       <c r="K68" s="27"/>
       <c r="L68" s="27"/>
     </row>
-    <row r="69" spans="2:16" ht="9.75" customHeight="1">
+    <row r="69" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>80</v>
       </c>
@@ -17632,7 +17690,7 @@
       <c r="K69" s="27"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="2:16" ht="9.75" customHeight="1">
+    <row r="70" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>80</v>
       </c>
@@ -17664,7 +17722,7 @@
       <c r="K70" s="27"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="2:16" ht="9.75" customHeight="1">
+    <row r="71" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>80</v>
       </c>
@@ -17696,7 +17754,7 @@
       <c r="K71" s="27"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="2:16" ht="9.75" customHeight="1">
+    <row r="72" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>217</v>
       </c>
@@ -17726,7 +17784,7 @@
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="2:16" ht="9.75" customHeight="1">
+    <row r="73" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>217</v>
       </c>
@@ -17756,7 +17814,7 @@
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="2:16" ht="9.75" customHeight="1">
+    <row r="74" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>217</v>
       </c>
@@ -17785,7 +17843,7 @@
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="2:16" ht="9.75" customHeight="1">
+    <row r="75" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>78</v>
       </c>
@@ -17817,7 +17875,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="2:16" ht="9.75" customHeight="1">
+    <row r="76" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>78</v>
       </c>
@@ -17849,7 +17907,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="2:16" ht="9.75" customHeight="1">
+    <row r="77" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
@@ -17881,7 +17939,7 @@
       <c r="K77" s="27"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="2:16" ht="9.75" customHeight="1">
+    <row r="78" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
@@ -17913,7 +17971,7 @@
       <c r="K78" s="27"/>
       <c r="L78" s="27"/>
     </row>
-    <row r="79" spans="2:16" ht="9.75" customHeight="1">
+    <row r="79" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>84</v>
       </c>
@@ -17945,7 +18003,7 @@
       <c r="K79" s="27"/>
       <c r="L79" s="27"/>
     </row>
-    <row r="80" spans="2:16" ht="9.75" customHeight="1">
+    <row r="80" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>136</v>
       </c>
@@ -17977,7 +18035,7 @@
       <c r="K80" s="27"/>
       <c r="L80" s="27"/>
     </row>
-    <row r="81" spans="2:12" ht="9.75" customHeight="1">
+    <row r="81" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>136</v>
       </c>
@@ -18009,7 +18067,7 @@
       <c r="K81" s="27"/>
       <c r="L81" s="27"/>
     </row>
-    <row r="82" spans="2:12" ht="9.75" customHeight="1">
+    <row r="82" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>136</v>
       </c>
@@ -18041,7 +18099,7 @@
       <c r="K82" s="27"/>
       <c r="L82" s="27"/>
     </row>
-    <row r="83" spans="2:12" ht="9.75" customHeight="1">
+    <row r="83" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>136</v>
       </c>
@@ -18073,7 +18131,7 @@
       <c r="K83" s="27"/>
       <c r="L83" s="27"/>
     </row>
-    <row r="84" spans="2:12" ht="9.75" customHeight="1">
+    <row r="84" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>136</v>
       </c>
@@ -18105,7 +18163,7 @@
       <c r="K84" s="27"/>
       <c r="L84" s="27"/>
     </row>
-    <row r="85" spans="2:12" ht="9.75" customHeight="1">
+    <row r="85" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>136</v>
       </c>
@@ -18137,7 +18195,7 @@
       <c r="K85" s="27"/>
       <c r="L85" s="27"/>
     </row>
-    <row r="86" spans="2:12" ht="9.75" customHeight="1">
+    <row r="86" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>136</v>
       </c>
@@ -18169,7 +18227,7 @@
       <c r="K86" s="27"/>
       <c r="L86" s="27"/>
     </row>
-    <row r="87" spans="2:12" ht="9.75" customHeight="1">
+    <row r="87" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>136</v>
       </c>
@@ -18201,7 +18259,7 @@
       <c r="K87" s="27"/>
       <c r="L87" s="27"/>
     </row>
-    <row r="88" spans="2:12" ht="9.75" customHeight="1">
+    <row r="88" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
@@ -18233,7 +18291,7 @@
       <c r="K88" s="27"/>
       <c r="L88" s="27"/>
     </row>
-    <row r="89" spans="2:12" ht="9.75" customHeight="1">
+    <row r="89" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>136</v>
       </c>
@@ -18265,7 +18323,7 @@
       <c r="K89" s="27"/>
       <c r="L89" s="27"/>
     </row>
-    <row r="90" spans="2:12" ht="9.75" customHeight="1">
+    <row r="90" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>137</v>
       </c>
@@ -18297,7 +18355,7 @@
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
     </row>
-    <row r="91" spans="2:12" ht="9.75" customHeight="1">
+    <row r="91" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>137</v>
       </c>
@@ -18329,7 +18387,7 @@
       <c r="K91" s="27"/>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="2:12" ht="9.75" customHeight="1">
+    <row r="92" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>137</v>
       </c>
@@ -18361,7 +18419,7 @@
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
     </row>
-    <row r="93" spans="2:12" ht="9.75" customHeight="1">
+    <row r="93" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>137</v>
       </c>
@@ -18393,7 +18451,7 @@
       <c r="K93" s="27"/>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="2:12" ht="9.75" customHeight="1">
+    <row r="94" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>137</v>
       </c>
@@ -18425,7 +18483,7 @@
       <c r="K94" s="27"/>
       <c r="L94" s="27"/>
     </row>
-    <row r="95" spans="2:12" ht="9.75" customHeight="1">
+    <row r="95" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>137</v>
       </c>
@@ -18457,7 +18515,7 @@
       <c r="K95" s="27"/>
       <c r="L95" s="27"/>
     </row>
-    <row r="96" spans="2:12" ht="9.75" customHeight="1">
+    <row r="96" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>137</v>
       </c>
@@ -18489,7 +18547,7 @@
       <c r="K96" s="27"/>
       <c r="L96" s="27"/>
     </row>
-    <row r="97" spans="1:12" ht="9.75" customHeight="1">
+    <row r="97" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>137</v>
       </c>
@@ -18521,7 +18579,7 @@
       <c r="K97" s="27"/>
       <c r="L97" s="27"/>
     </row>
-    <row r="98" spans="1:12" ht="9.75" customHeight="1">
+    <row r="98" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>137</v>
       </c>
@@ -18553,7 +18611,7 @@
       <c r="K98" s="27"/>
       <c r="L98" s="27"/>
     </row>
-    <row r="99" spans="1:12" ht="9.75" customHeight="1">
+    <row r="99" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>137</v>
       </c>
@@ -18585,7 +18643,7 @@
       <c r="K99" s="27"/>
       <c r="L99" s="27"/>
     </row>
-    <row r="100" spans="1:12" ht="9.75" customHeight="1">
+    <row r="100" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
         <v>137</v>
       </c>
@@ -18617,7 +18675,7 @@
       <c r="K100" s="27"/>
       <c r="L100" s="27"/>
     </row>
-    <row r="101" spans="1:12" ht="9.75" customHeight="1">
+    <row r="101" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>138</v>
       </c>
@@ -18649,7 +18707,7 @@
       <c r="K101" s="27"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="1:12" ht="9.75" customHeight="1">
+    <row r="102" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>138</v>
       </c>
@@ -18681,7 +18739,7 @@
       <c r="K102" s="27"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="1:12" ht="9.75" customHeight="1">
+    <row r="103" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>138</v>
       </c>
@@ -18713,7 +18771,7 @@
       <c r="K103" s="27"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="1:12" ht="9.75" customHeight="1">
+    <row r="104" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>138</v>
       </c>
@@ -18745,7 +18803,7 @@
       <c r="K104" s="27"/>
       <c r="L104" s="27"/>
     </row>
-    <row r="105" spans="1:12" ht="9.75" customHeight="1">
+    <row r="105" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
         <v>138</v>
       </c>
@@ -18777,7 +18835,7 @@
       <c r="K105" s="27"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="1:12" ht="9.75" customHeight="1">
+    <row r="106" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>138</v>
       </c>
@@ -18809,7 +18867,7 @@
       <c r="K106" s="27"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="109" spans="1:12" ht="9.75" customHeight="1">
+    <row r="109" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="33"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -18823,7 +18881,7 @@
       <c r="K109" s="27"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="1:12" ht="9.75" customHeight="1">
+    <row r="110" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -18837,7 +18895,7 @@
       <c r="K110" s="27"/>
       <c r="L110" s="27"/>
     </row>
-    <row r="111" spans="1:12" ht="9.75" customHeight="1">
+    <row r="111" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="33"/>
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
@@ -18851,7 +18909,7 @@
       <c r="K111" s="27"/>
       <c r="L111" s="27"/>
     </row>
-    <row r="112" spans="1:12" ht="9.75" customHeight="1">
+    <row r="112" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="35"/>
       <c r="C112" s="35"/>
@@ -18865,7 +18923,7 @@
       <c r="K112" s="27"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" ht="9.75" customHeight="1">
+    <row r="113" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="33"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>

--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\vich-file-creation\Files\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D985E2-0610-450C-9649-BBFD9E166A95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA29B8D1-EA04-48EC-9F33-0C87A4FB48A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11925" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12750" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bizrule" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1258">
   <si>
     <t>y</t>
   </si>
@@ -4457,6 +4457,12 @@
   </si>
   <si>
     <t>One or more attachments did not decode, did not decompress or contains a virus</t>
+  </si>
+  <si>
+    <t>VICH_EU_Sample_AER_Human</t>
+  </si>
+  <si>
+    <t>only Human data</t>
   </si>
 </sst>
 </file>
@@ -5292,11 +5298,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M87" sqref="M87"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9477,6 +9483,17 @@
       </c>
       <c r="M94" s="64" t="s">
         <v>1252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I95" s="59" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K95" s="64" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M95" s="64" t="s">
+        <v>1253</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\vich-file-creation\Files\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA29B8D1-EA04-48EC-9F33-0C87A4FB48A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12750" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="12756" tabRatio="910"/>
   </bookViews>
   <sheets>
     <sheet name="bizrule" sheetId="4" r:id="rId1"/>
@@ -21,9 +15,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">A1ToA4_mandatorychecks!$A$1:$N$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bizrule!$A$1:$S$80</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="1287">
   <si>
     <t>y</t>
   </si>
@@ -4453,23 +4447,112 @@
     <t>valid ack</t>
   </si>
   <si>
-    <t>adverse event report not loaded;                    Comments: Parsing process: report with mandatory check violationsThere must be exactly 1 date of onset in the report;There must be exactly 1 effective time in the report;</t>
-  </si>
-  <si>
-    <t>One or more attachments did not decode, did not decompress or contains a virus</t>
-  </si>
-  <si>
     <t>VICH_EU_Sample_AER_Human</t>
   </si>
   <si>
     <t>only Human data</t>
+  </si>
+  <si>
+    <t>A224_telecom_singleValueWithNullFlavor</t>
+  </si>
+  <si>
+    <t>A224_telecom_AllValuesWithNullFlavor</t>
+  </si>
+  <si>
+    <t>A224_telecom_includingprefixPlus</t>
+  </si>
+  <si>
+    <t>tel=:+1-615-5551110-10</t>
+  </si>
+  <si>
+    <t>“YYYYMMDD” is the date format to be used for this data element</t>
+  </si>
+  <si>
+    <t>yyyyDDMM</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>Invalidformat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Up to
+two breed &lt;observation&gt; nodes can be used, one for purebred and/or the other for crossbred. 
+Provide one more breed section</t>
+  </si>
+  <si>
+    <t>TC82</t>
+  </si>
+  <si>
+    <t>TC83</t>
+  </si>
+  <si>
+    <t>TC84</t>
+  </si>
+  <si>
+    <t>TC85</t>
+  </si>
+  <si>
+    <t>TC86</t>
+  </si>
+  <si>
+    <t>TC87</t>
+  </si>
+  <si>
+    <t>TC88</t>
+  </si>
+  <si>
+    <t>TC89</t>
+  </si>
+  <si>
+    <t>TC90</t>
+  </si>
+  <si>
+    <t>TC91</t>
+  </si>
+  <si>
+    <t>TC92</t>
+  </si>
+  <si>
+    <t>TC93</t>
+  </si>
+  <si>
+    <t>TC94</t>
+  </si>
+  <si>
+    <t>TC95</t>
+  </si>
+  <si>
+    <t>TC96</t>
+  </si>
+  <si>
+    <t>TC97</t>
+  </si>
+  <si>
+    <t>TC98</t>
+  </si>
+  <si>
+    <t>TC99</t>
+  </si>
+  <si>
+    <t>TC100</t>
+  </si>
+  <si>
+    <t>TC100_InvalidMultipleBreedSection_n</t>
+  </si>
+  <si>
+    <t>TC101_B14_InvalidMultipleBreedSection_For_PureBredsection</t>
+  </si>
+  <si>
+    <t>TC101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4838,7 +4921,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4865,15 +4948,15 @@
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>602447</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>395863</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4908,16 +4991,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>487504</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>114377</xdr:rowOff>
+      <xdr:colOff>487505</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>54743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4954,14 +5037,14 @@
       <xdr:col>47</xdr:col>
       <xdr:colOff>132032</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>16779</xdr:rowOff>
+      <xdr:rowOff>76414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4997,15 +5080,15 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>180734</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>72987</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>66361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5289,45 +5372,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="64" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="59" collapsed="1"/>
-    <col min="4" max="4" width="17.42578125" style="59" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" style="60" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.42578125" style="59" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="59" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="59" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" style="59" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.28515625" style="68" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.5703125" style="64" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="33.42578125" style="64" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="42.85546875" style="65" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="9.109375" style="64" collapsed="1"/>
+    <col min="3" max="3" width="9.109375" style="59" collapsed="1"/>
+    <col min="4" max="4" width="17.44140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.44140625" style="60" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.44140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.33203125" style="59" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.109375" style="59" collapsed="1"/>
+    <col min="9" max="9" width="51.5546875" style="59" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.33203125" style="68" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.5546875" style="64" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="42.88671875" style="65" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="21" style="65" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="64.85546875" style="65" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="43.5703125" style="66" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="64" collapsed="1"/>
+    <col min="17" max="17" width="64.88671875" style="65" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="43.5546875" style="66" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.109375" style="64" collapsed="1"/>
     <col min="20" max="20" width="58" style="64" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="64" collapsed="1"/>
+    <col min="21" max="16384" width="9.109375" style="64" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
@@ -5384,7 +5467,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
@@ -5440,7 +5523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
@@ -5496,7 +5579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A4" s="54" t="s">
         <v>0</v>
       </c>
@@ -5552,7 +5635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A5" s="54"/>
       <c r="B5" s="54" t="s">
         <v>1062</v>
@@ -5604,7 +5687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A6" s="54"/>
       <c r="B6" s="54" t="s">
         <v>1063</v>
@@ -5656,7 +5739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A7" s="54"/>
       <c r="B7" s="54" t="s">
         <v>1064</v>
@@ -5706,7 +5789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A8" s="54"/>
       <c r="B8" s="54" t="s">
         <v>1065</v>
@@ -5760,7 +5843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A9" s="54"/>
       <c r="B9" s="54" t="s">
         <v>1066</v>
@@ -5814,7 +5897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A10" s="54"/>
       <c r="B10" s="54" t="s">
         <v>1067</v>
@@ -5868,7 +5951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="54" t="s">
         <v>1068</v>
@@ -5922,7 +6005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A12" s="54"/>
       <c r="B12" s="54" t="s">
         <v>1069</v>
@@ -5972,7 +6055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A13" s="54"/>
       <c r="B13" s="54" t="s">
         <v>1070</v>
@@ -6022,7 +6105,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="54"/>
       <c r="B14" s="54" t="s">
         <v>1071</v>
@@ -6070,7 +6153,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A15" s="54"/>
       <c r="B15" s="54" t="s">
         <v>1072</v>
@@ -6118,7 +6201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A16" s="54"/>
       <c r="B16" s="54" t="s">
         <v>1073</v>
@@ -6166,7 +6249,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A17" s="54"/>
       <c r="B17" s="54" t="s">
         <v>1074</v>
@@ -6221,7 +6304,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A18" s="54"/>
       <c r="B18" s="54" t="s">
         <v>1075</v>
@@ -6276,7 +6359,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A19" s="54"/>
       <c r="B19" s="54" t="s">
         <v>1076</v>
@@ -6330,7 +6413,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A20" s="54"/>
       <c r="B20" s="54" t="s">
         <v>1077</v>
@@ -6384,7 +6467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A21" s="54"/>
       <c r="B21" s="54" t="s">
         <v>1078</v>
@@ -6438,7 +6521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A22" s="54"/>
       <c r="B22" s="54" t="s">
         <v>1079</v>
@@ -6492,7 +6575,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A23" s="54"/>
       <c r="B23" s="54" t="s">
         <v>1080</v>
@@ -6546,7 +6629,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A24" s="54"/>
       <c r="B24" s="54" t="s">
         <v>1081</v>
@@ -6600,7 +6683,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A25" s="54"/>
       <c r="B25" s="54" t="s">
         <v>1082</v>
@@ -6654,7 +6737,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A26" s="54"/>
       <c r="B26" s="54" t="s">
         <v>1083</v>
@@ -6708,7 +6791,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A27" s="54"/>
       <c r="B27" s="54" t="s">
         <v>1084</v>
@@ -6762,7 +6845,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A28" s="54"/>
       <c r="B28" s="54" t="s">
         <v>1085</v>
@@ -6816,7 +6899,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A29" s="54"/>
       <c r="B29" s="54" t="s">
         <v>1086</v>
@@ -6870,7 +6953,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A30" s="54"/>
       <c r="B30" s="54" t="s">
         <v>1087</v>
@@ -6924,7 +7007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A31" s="54"/>
       <c r="B31" s="54" t="s">
         <v>1088</v>
@@ -6978,7 +7061,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A32" s="54"/>
       <c r="B32" s="54" t="s">
         <v>1089</v>
@@ -7032,7 +7115,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A33" s="54"/>
       <c r="B33" s="54" t="s">
         <v>1090</v>
@@ -7086,7 +7169,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A34" s="54"/>
       <c r="B34" s="54" t="s">
         <v>1091</v>
@@ -7134,7 +7217,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A35" s="54"/>
       <c r="B35" s="54" t="s">
         <v>1092</v>
@@ -7182,7 +7265,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A36" s="54"/>
       <c r="B36" s="54" t="s">
         <v>1093</v>
@@ -7230,7 +7313,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A37" s="54"/>
       <c r="B37" s="54" t="s">
         <v>1094</v>
@@ -7280,7 +7363,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A38" s="54"/>
       <c r="B38" s="54" t="s">
         <v>1095</v>
@@ -7330,7 +7413,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A39" s="54"/>
       <c r="B39" s="54" t="s">
         <v>1096</v>
@@ -7378,7 +7461,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A40" s="54"/>
       <c r="B40" s="54" t="s">
         <v>1097</v>
@@ -7426,7 +7509,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A41" s="54"/>
       <c r="B41" s="54" t="s">
         <v>1098</v>
@@ -7478,7 +7561,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A42" s="54"/>
       <c r="B42" s="54" t="s">
         <v>1099</v>
@@ -7530,7 +7613,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A43" s="54"/>
       <c r="B43" s="54" t="s">
         <v>1100</v>
@@ -7582,7 +7665,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A44" s="54"/>
       <c r="B44" s="54" t="s">
         <v>1101</v>
@@ -7634,7 +7717,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A45" s="54"/>
       <c r="B45" s="54" t="s">
         <v>1102</v>
@@ -7686,7 +7769,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1">
       <c r="A46" s="54"/>
       <c r="B46" s="54" t="s">
         <v>1103</v>
@@ -7736,7 +7819,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A47" s="54"/>
       <c r="B47" s="54" t="s">
         <v>1104</v>
@@ -7780,7 +7863,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A48" s="54"/>
       <c r="B48" s="54" t="s">
         <v>1105</v>
@@ -7828,7 +7911,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A49" s="54"/>
       <c r="B49" s="54" t="s">
         <v>1106</v>
@@ -7878,7 +7961,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A50" s="54"/>
       <c r="B50" s="54" t="s">
         <v>1107</v>
@@ -7928,7 +8011,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A51" s="54"/>
       <c r="B51" s="54" t="s">
         <v>1108</v>
@@ -7978,7 +8061,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A52" s="54"/>
       <c r="B52" s="54" t="s">
         <v>1109</v>
@@ -8028,7 +8111,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A53" s="54"/>
       <c r="B53" s="54" t="s">
         <v>1110</v>
@@ -8078,7 +8161,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A54" s="54"/>
       <c r="B54" s="54" t="s">
         <v>1111</v>
@@ -8128,7 +8211,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A55" s="54"/>
       <c r="B55" s="54" t="s">
         <v>1112</v>
@@ -8179,7 +8262,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="9.75" customHeight="1">
       <c r="A56" s="54"/>
       <c r="B56" s="54" t="s">
         <v>1113</v>
@@ -8231,7 +8314,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="9.75" customHeight="1">
       <c r="A57" s="54"/>
       <c r="B57" s="54" t="s">
         <v>1114</v>
@@ -8281,7 +8364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="9.75" customHeight="1">
       <c r="A58" s="54"/>
       <c r="B58" s="54" t="s">
         <v>1115</v>
@@ -8328,7 +8411,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="9.75" customHeight="1">
       <c r="A59" s="54"/>
       <c r="B59" s="54" t="s">
         <v>1116</v>
@@ -8379,7 +8462,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="9.75" customHeight="1">
       <c r="A60" s="54"/>
       <c r="B60" s="54" t="s">
         <v>1117</v>
@@ -8430,7 +8513,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="9.75" customHeight="1">
       <c r="A61" s="54"/>
       <c r="B61" s="54" t="s">
         <v>1118</v>
@@ -8481,7 +8564,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="9.75" customHeight="1">
       <c r="A62" s="54"/>
       <c r="B62" s="54" t="s">
         <v>1119</v>
@@ -8530,7 +8613,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="9.75" customHeight="1">
       <c r="A63" s="54"/>
       <c r="B63" s="54" t="s">
         <v>1120</v>
@@ -8579,7 +8662,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="9.75" customHeight="1">
       <c r="A64" s="54"/>
       <c r="B64" s="54" t="s">
         <v>1121</v>
@@ -8625,7 +8708,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="9.75" customHeight="1">
       <c r="A65" s="54"/>
       <c r="B65" s="54" t="s">
         <v>1122</v>
@@ -8671,7 +8754,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="9.75" customHeight="1">
       <c r="A66" s="54"/>
       <c r="B66" s="54" t="s">
         <v>1123</v>
@@ -8717,7 +8800,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="9.75" customHeight="1">
       <c r="A67" s="54"/>
       <c r="B67" s="54" t="s">
         <v>1124</v>
@@ -8763,7 +8846,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="9.75" customHeight="1">
       <c r="A68" s="54"/>
       <c r="B68" s="54" t="s">
         <v>1125</v>
@@ -8809,7 +8892,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="9.75" customHeight="1">
       <c r="A69" s="54"/>
       <c r="B69" s="54" t="s">
         <v>1126</v>
@@ -8855,7 +8938,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="9.75" customHeight="1">
       <c r="A70" s="54"/>
       <c r="B70" s="54" t="s">
         <v>1127</v>
@@ -8901,7 +8984,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="9.75" customHeight="1">
       <c r="A71" s="54"/>
       <c r="B71" s="54" t="s">
         <v>1128</v>
@@ -8947,7 +9030,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="9.75" customHeight="1">
       <c r="A72" s="54"/>
       <c r="B72" s="54" t="s">
         <v>1129</v>
@@ -8993,7 +9076,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="9.75" customHeight="1">
       <c r="A73" s="54"/>
       <c r="B73" s="54" t="s">
         <v>1130</v>
@@ -9039,7 +9122,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="9.75" customHeight="1">
       <c r="A74" s="54"/>
       <c r="B74" s="54" t="s">
         <v>1131</v>
@@ -9084,7 +9167,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="9.75" customHeight="1">
       <c r="A75" s="54"/>
       <c r="B75" s="54" t="s">
         <v>1132</v>
@@ -9129,7 +9212,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="9.75" customHeight="1">
       <c r="A76" s="54"/>
       <c r="B76" s="54" t="s">
         <v>1133</v>
@@ -9174,7 +9257,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="9.75" customHeight="1">
       <c r="A77" s="54"/>
       <c r="B77" s="54" t="s">
         <v>1134</v>
@@ -9215,7 +9298,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="9.75" customHeight="1">
       <c r="A78" s="54"/>
       <c r="B78" s="54" t="s">
         <v>1135</v>
@@ -9256,7 +9339,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="9.75" customHeight="1">
       <c r="A79" s="54"/>
       <c r="B79" s="54" t="s">
         <v>1136</v>
@@ -9301,7 +9384,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="9.75" customHeight="1">
       <c r="A80" s="54"/>
       <c r="B80" s="54" t="s">
         <v>1137</v>
@@ -9346,7 +9429,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="9.75" customHeight="1">
       <c r="B81" s="64" t="s">
         <v>1227</v>
       </c>
@@ -9372,10 +9455,13 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="9.75" customHeight="1">
       <c r="A82" s="64" t="s">
         <v>0</v>
       </c>
+      <c r="B82" s="54" t="s">
+        <v>1265</v>
+      </c>
       <c r="K82" s="64" t="s">
         <v>1232</v>
       </c>
@@ -9383,7 +9469,10 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="11.4">
+      <c r="B83" s="64" t="s">
+        <v>1266</v>
+      </c>
       <c r="K83" s="64" t="s">
         <v>1233</v>
       </c>
@@ -9391,7 +9480,10 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="22.8">
+      <c r="B84" s="54" t="s">
+        <v>1267</v>
+      </c>
       <c r="I84" s="59" t="s">
         <v>1236</v>
       </c>
@@ -9402,98 +9494,206 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K85" s="64" t="s">
+    <row r="85" spans="1:15" ht="11.4">
+      <c r="B85" s="64" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K85" s="79" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="11.4">
+      <c r="B86" s="54" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K86" s="79" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="22.8">
+      <c r="B87" s="64" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I87" s="59" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K87" s="79" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="9.75" customHeight="1">
+      <c r="B88" s="54" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K88" s="64" t="s">
         <v>1238</v>
       </c>
-      <c r="M85" s="64" t="s">
+      <c r="M88" s="64" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K86" s="79" t="s">
+    <row r="89" spans="1:15" ht="9.75" customHeight="1">
+      <c r="B89" s="64" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K89" s="79" t="s">
         <v>1239</v>
       </c>
-      <c r="M86" s="64" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K87" s="79" t="s">
+      <c r="M89" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="9.75" customHeight="1">
+      <c r="B90" s="54" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K90" s="79" t="s">
         <v>1240</v>
-      </c>
-      <c r="M87" s="64" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K88" s="79" t="s">
-        <v>1241</v>
-      </c>
-      <c r="M88" s="64" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K89" s="79" t="s">
-        <v>1242</v>
-      </c>
-      <c r="M89" s="64" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K90" s="64" t="s">
-        <v>1243</v>
       </c>
       <c r="M90" s="64" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K91" s="64" t="s">
+    <row r="91" spans="1:15" ht="9.75" customHeight="1">
+      <c r="B91" s="64" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K91" s="79" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M91" s="64" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="9.75" customHeight="1">
+      <c r="B92" s="54" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K92" s="79" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M92" s="64" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="9.75" customHeight="1">
+      <c r="B93" s="64" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K93" s="64" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M93" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="9.75" customHeight="1">
+      <c r="B94" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K94" s="64" t="s">
         <v>1244</v>
       </c>
-      <c r="M91" s="64" t="s">
+      <c r="M94" s="64" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K92" s="64" t="s">
+    <row r="95" spans="1:15" ht="9.75" customHeight="1">
+      <c r="B95" s="64" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K95" s="64" t="s">
         <v>1245</v>
-      </c>
-      <c r="M92" s="64" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K93" s="79" t="s">
-        <v>1246</v>
-      </c>
-      <c r="M93" s="64" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I94" s="59" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K94" s="79" t="s">
-        <v>1250</v>
-      </c>
-      <c r="M94" s="64" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I95" s="59" t="s">
-        <v>1257</v>
-      </c>
-      <c r="K95" s="64" t="s">
-        <v>1256</v>
       </c>
       <c r="M95" s="64" t="s">
         <v>1253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="9.75" customHeight="1">
+      <c r="B96" s="54" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K96" s="79" t="s">
+        <v>1246</v>
+      </c>
+      <c r="M96" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" ht="9.75" customHeight="1">
+      <c r="B97" s="64" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I97" s="59" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K97" s="79" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M97" s="64" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" ht="9.75" customHeight="1">
+      <c r="B98" s="54" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I98" s="59" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K98" s="64" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M98" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" ht="34.200000000000003">
+      <c r="B99" s="64" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C99" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="59" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E99" s="60" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F99" s="59" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G99" s="59" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I99" s="59" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" ht="52.2" customHeight="1">
+      <c r="B100" s="54" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I100" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K100" s="64" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" ht="9.75" customHeight="1">
+      <c r="B101" s="54" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C101" s="59" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K101" s="64" t="s">
+        <v>1285</v>
       </c>
     </row>
   </sheetData>
@@ -9505,7 +9705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L138"/>
   <sheetViews>
@@ -9513,14 +9713,14 @@
       <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="9" max="9" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="12" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
@@ -9558,7 +9758,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -9598,7 +9798,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -9638,7 +9838,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
@@ -9678,7 +9878,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
@@ -9718,7 +9918,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -9758,7 +9958,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
@@ -9798,7 +9998,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
@@ -9838,7 +10038,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
@@ -9878,7 +10078,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
@@ -9918,7 +10118,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
@@ -9958,7 +10158,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
@@ -9998,7 +10198,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
@@ -10038,7 +10238,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>0</v>
       </c>
@@ -10078,7 +10278,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="33" t="s">
         <v>0</v>
       </c>
@@ -10118,7 +10318,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>0</v>
       </c>
@@ -10158,7 +10358,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="33" t="s">
         <v>0</v>
       </c>
@@ -10198,7 +10398,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="33" t="s">
         <v>0</v>
       </c>
@@ -10238,7 +10438,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>0</v>
       </c>
@@ -10278,7 +10478,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="33" t="s">
         <v>0</v>
       </c>
@@ -10318,7 +10518,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="33" t="s">
         <v>0</v>
       </c>
@@ -10358,7 +10558,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="33" t="s">
         <v>0</v>
       </c>
@@ -10398,7 +10598,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="33" t="s">
         <v>0</v>
       </c>
@@ -10438,7 +10638,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="33" t="s">
         <v>0</v>
       </c>
@@ -10478,7 +10678,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
@@ -10518,7 +10718,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -10558,7 +10758,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -10598,7 +10798,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -10638,7 +10838,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -10678,7 +10878,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="33" t="s">
         <v>0</v>
       </c>
@@ -10718,7 +10918,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="33" t="s">
         <v>0</v>
       </c>
@@ -10758,7 +10958,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
         <v>0</v>
       </c>
@@ -10798,7 +10998,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="33" t="s">
         <v>0</v>
       </c>
@@ -10838,7 +11038,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="33" t="s">
         <v>0</v>
       </c>
@@ -10878,7 +11078,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="33" t="s">
         <v>0</v>
       </c>
@@ -10918,7 +11118,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
@@ -10958,7 +11158,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="33" t="s">
         <v>0</v>
       </c>
@@ -10998,7 +11198,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="33" t="s">
         <v>0</v>
       </c>
@@ -11038,7 +11238,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="33" t="s">
         <v>0</v>
       </c>
@@ -11078,7 +11278,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="33" t="s">
         <v>0</v>
       </c>
@@ -11118,7 +11318,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="33" t="s">
         <v>0</v>
       </c>
@@ -11158,7 +11358,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="33" t="s">
         <v>0</v>
       </c>
@@ -11198,7 +11398,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="33" t="s">
         <v>0</v>
       </c>
@@ -11238,7 +11438,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="33" t="s">
         <v>0</v>
       </c>
@@ -11278,7 +11478,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="33" t="s">
         <v>0</v>
       </c>
@@ -11318,7 +11518,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="33" t="s">
         <v>0</v>
       </c>
@@ -11358,7 +11558,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="33" t="s">
         <v>0</v>
       </c>
@@ -11398,7 +11598,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="33" t="s">
         <v>0</v>
       </c>
@@ -11438,7 +11638,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="33" t="s">
         <v>0</v>
       </c>
@@ -11478,7 +11678,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="33" t="s">
         <v>0</v>
       </c>
@@ -11518,7 +11718,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="33" t="s">
         <v>0</v>
       </c>
@@ -11558,7 +11758,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="33" t="s">
         <v>0</v>
       </c>
@@ -11598,7 +11798,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="33" t="s">
         <v>0</v>
       </c>
@@ -11638,7 +11838,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="33" t="s">
         <v>0</v>
       </c>
@@ -11678,7 +11878,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="33" t="s">
         <v>0</v>
       </c>
@@ -11718,7 +11918,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="33" t="s">
         <v>0</v>
       </c>
@@ -11758,7 +11958,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="33" t="s">
         <v>0</v>
       </c>
@@ -11798,7 +11998,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="33" t="s">
         <v>0</v>
       </c>
@@ -11838,7 +12038,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="33" t="s">
         <v>0</v>
       </c>
@@ -11878,7 +12078,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="33" t="s">
         <v>0</v>
       </c>
@@ -11918,7 +12118,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="33" t="s">
         <v>0</v>
       </c>
@@ -11958,7 +12158,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="33" t="s">
         <v>0</v>
       </c>
@@ -11998,7 +12198,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="33" t="s">
         <v>0</v>
       </c>
@@ -12038,7 +12238,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="33" t="s">
         <v>0</v>
       </c>
@@ -12078,7 +12278,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
         <v>0</v>
       </c>
@@ -12118,7 +12318,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="33" t="s">
         <v>0</v>
       </c>
@@ -12158,7 +12358,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="33" t="s">
         <v>0</v>
       </c>
@@ -12198,7 +12398,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="33" t="s">
         <v>0</v>
       </c>
@@ -12238,7 +12438,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="33" t="s">
         <v>0</v>
       </c>
@@ -12278,7 +12478,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="33" t="s">
         <v>0</v>
       </c>
@@ -12318,7 +12518,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="33" t="s">
         <v>0</v>
       </c>
@@ -12358,7 +12558,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
       <c r="A72" s="33" t="s">
         <v>0</v>
       </c>
@@ -12398,7 +12598,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
       <c r="A73" s="33" t="s">
         <v>0</v>
       </c>
@@ -12438,7 +12638,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="33" t="s">
         <v>0</v>
       </c>
@@ -12478,7 +12678,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="A75" s="33" t="s">
         <v>0</v>
       </c>
@@ -12518,7 +12718,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="33" t="s">
         <v>0</v>
       </c>
@@ -12558,7 +12758,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="33" t="s">
         <v>0</v>
       </c>
@@ -12598,7 +12798,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="33" t="s">
         <v>0</v>
       </c>
@@ -12638,7 +12838,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="33" t="s">
         <v>0</v>
       </c>
@@ -12678,7 +12878,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="33" t="s">
         <v>0</v>
       </c>
@@ -12718,7 +12918,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="33" t="s">
         <v>0</v>
       </c>
@@ -12758,7 +12958,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="33" t="s">
         <v>0</v>
       </c>
@@ -12798,7 +12998,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="33" t="s">
         <v>0</v>
       </c>
@@ -12838,7 +13038,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="33" t="s">
         <v>0</v>
       </c>
@@ -12878,7 +13078,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="33" t="s">
         <v>0</v>
       </c>
@@ -12918,7 +13118,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="33" t="s">
         <v>0</v>
       </c>
@@ -12958,7 +13158,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="33" t="s">
         <v>0</v>
       </c>
@@ -12998,7 +13198,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="33" t="s">
         <v>0</v>
       </c>
@@ -13038,7 +13238,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="33" t="s">
         <v>0</v>
       </c>
@@ -13078,7 +13278,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="33" t="s">
         <v>0</v>
       </c>
@@ -13118,7 +13318,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1">
       <c r="A91" s="33" t="s">
         <v>0</v>
       </c>
@@ -13158,7 +13358,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1">
       <c r="A92" s="33" t="s">
         <v>0</v>
       </c>
@@ -13198,7 +13398,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1">
       <c r="A93" s="33" t="s">
         <v>0</v>
       </c>
@@ -13238,7 +13438,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="33" t="s">
         <v>0</v>
       </c>
@@ -13278,7 +13478,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="33" t="s">
         <v>0</v>
       </c>
@@ -13318,7 +13518,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="33" t="s">
         <v>0</v>
       </c>
@@ -13358,7 +13558,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="33" t="s">
         <v>0</v>
       </c>
@@ -13398,7 +13598,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="33" t="s">
         <v>0</v>
       </c>
@@ -13438,7 +13638,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="33" t="s">
         <v>0</v>
       </c>
@@ -13478,7 +13678,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="33" t="s">
         <v>0</v>
       </c>
@@ -13518,7 +13718,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="33" t="s">
         <v>0</v>
       </c>
@@ -13558,7 +13758,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="33" t="s">
         <v>0</v>
       </c>
@@ -13598,7 +13798,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="33" t="s">
         <v>0</v>
       </c>
@@ -13638,7 +13838,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="33" t="s">
         <v>0</v>
       </c>
@@ -13678,7 +13878,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="33" t="s">
         <v>0</v>
       </c>
@@ -13718,7 +13918,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="33" t="s">
         <v>0</v>
       </c>
@@ -13758,7 +13958,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="33" t="s">
         <v>0</v>
       </c>
@@ -13798,7 +13998,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1">
       <c r="A108" s="33" t="s">
         <v>0</v>
       </c>
@@ -13838,7 +14038,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1">
       <c r="A109" s="33" t="s">
         <v>0</v>
       </c>
@@ -13878,7 +14078,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1">
       <c r="A110" s="33" t="s">
         <v>0</v>
       </c>
@@ -13918,7 +14118,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1">
       <c r="A111" s="33" t="s">
         <v>0</v>
       </c>
@@ -13958,7 +14158,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="33" t="s">
         <v>0</v>
       </c>
@@ -13998,7 +14198,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="33" t="s">
         <v>0</v>
       </c>
@@ -14038,7 +14238,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="33" t="s">
         <v>0</v>
       </c>
@@ -14078,7 +14278,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="33" t="s">
         <v>0</v>
       </c>
@@ -14118,7 +14318,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1">
       <c r="A116" s="33" t="s">
         <v>0</v>
       </c>
@@ -14158,7 +14358,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1">
       <c r="A117" s="33" t="s">
         <v>0</v>
       </c>
@@ -14198,7 +14398,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1">
       <c r="A118" s="33" t="s">
         <v>0</v>
       </c>
@@ -14238,7 +14438,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1">
       <c r="A119" s="33" t="s">
         <v>0</v>
       </c>
@@ -14278,7 +14478,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1">
       <c r="A120" s="33" t="s">
         <v>0</v>
       </c>
@@ -14318,7 +14518,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1">
       <c r="A121" s="33" t="s">
         <v>0</v>
       </c>
@@ -14358,7 +14558,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1">
       <c r="A122" s="33" t="s">
         <v>0</v>
       </c>
@@ -14398,7 +14598,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1">
       <c r="A123" s="33" t="s">
         <v>0</v>
       </c>
@@ -14438,7 +14638,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1">
       <c r="A124" s="33" t="s">
         <v>0</v>
       </c>
@@ -14478,7 +14678,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1">
       <c r="A125" s="33" t="s">
         <v>0</v>
       </c>
@@ -14518,7 +14718,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1">
       <c r="A126" s="33" t="s">
         <v>0</v>
       </c>
@@ -14558,7 +14758,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1">
       <c r="A127" s="33" t="s">
         <v>0</v>
       </c>
@@ -14598,7 +14798,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1">
       <c r="A128" s="33" t="s">
         <v>0</v>
       </c>
@@ -14638,7 +14838,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1">
       <c r="A129" s="33" t="s">
         <v>0</v>
       </c>
@@ -14678,7 +14878,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1">
       <c r="A130" s="33" t="s">
         <v>0</v>
       </c>
@@ -14718,7 +14918,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1">
       <c r="A131" s="33" t="s">
         <v>0</v>
       </c>
@@ -14758,7 +14958,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1">
       <c r="A132" s="33" t="s">
         <v>0</v>
       </c>
@@ -14798,7 +14998,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1">
       <c r="A133" s="33" t="s">
         <v>0</v>
       </c>
@@ -14838,7 +15038,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1">
       <c r="A134" s="33" t="s">
         <v>0</v>
       </c>
@@ -14878,7 +15078,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1">
       <c r="A135" s="33" t="s">
         <v>0</v>
       </c>
@@ -14918,7 +15118,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1">
       <c r="A136" s="33" t="s">
         <v>0</v>
       </c>
@@ -14958,7 +15158,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1">
       <c r="A137" s="33" t="s">
         <v>0</v>
       </c>
@@ -14998,7 +15198,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1">
       <c r="A138" s="33" t="s">
         <v>0</v>
       </c>
@@ -15045,34 +15245,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" topLeftCell="G59" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.85546875" style="2" collapsed="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.85546875" style="2" collapsed="1"/>
-    <col min="8" max="8" width="63.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="59.28515625" style="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="79.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="61.42578125" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="36.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.42578125" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="5.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" width="4.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.88671875" style="2" collapsed="1"/>
+    <col min="5" max="5" width="18.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.88671875" style="2" collapsed="1"/>
+    <col min="8" max="8" width="63.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="59.33203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="79.88671875" style="14" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="61.44140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="36.88671875" style="15" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.44140625" style="15" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="5.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="9.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -15116,7 +15316,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="9.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>127</v>
@@ -15155,7 +15355,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="9.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>127</v>
@@ -15190,7 +15390,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="9.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>128</v>
@@ -15225,7 +15425,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="9.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>65</v>
@@ -15260,7 +15460,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="9.75" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="21" t="s">
         <v>73</v>
@@ -15299,7 +15499,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="9.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>129</v>
@@ -15334,7 +15534,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="9.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>130</v>
@@ -15369,7 +15569,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="9.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>66</v>
@@ -15406,7 +15606,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="9.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>131</v>
@@ -15441,7 +15641,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="9.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>132</v>
@@ -15476,7 +15676,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="9.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="21" t="s">
         <v>74</v>
@@ -15513,7 +15713,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="9.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>133</v>
@@ -15548,7 +15748,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="9.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>134</v>
@@ -15583,7 +15783,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="9.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="22" t="s">
         <v>75</v>
@@ -15623,7 +15823,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="9.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="22" t="s">
         <v>76</v>
@@ -15663,7 +15863,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="9.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="22" t="s">
         <v>77</v>
@@ -15703,7 +15903,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="9.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>78</v>
@@ -15743,7 +15943,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="9.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>79</v>
@@ -15783,7 +15983,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="9.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>80</v>
@@ -15823,7 +16023,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="9.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="12" t="s">
         <v>67</v>
@@ -15859,7 +16059,7 @@
       <c r="N21" s="8"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="9.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -15904,7 +16104,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="9.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -15949,7 +16149,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="9.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -15994,7 +16194,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="9.75" customHeight="1">
       <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
@@ -16034,7 +16234,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="9.75" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -16073,7 +16273,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="9.75" customHeight="1">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -16112,7 +16312,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="9.75" customHeight="1">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -16151,7 +16351,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="9.75" customHeight="1">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -16190,7 +16390,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="9.75" customHeight="1">
       <c r="A30" s="33" t="s">
         <v>0</v>
       </c>
@@ -16226,7 +16426,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="9.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -16265,7 +16465,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="9.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -16308,7 +16508,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="9.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>64</v>
@@ -16348,7 +16548,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="9.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
@@ -16388,7 +16588,7 @@
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="9.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>83</v>
@@ -16428,7 +16628,7 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="9.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>84</v>
@@ -16468,7 +16668,7 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="9.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>85</v>
@@ -16508,7 +16708,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="9.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>86</v>
@@ -16548,7 +16748,7 @@
       </c>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="9.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>87</v>
@@ -16588,7 +16788,7 @@
       </c>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="9.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>88</v>
@@ -16628,7 +16828,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="9.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>89</v>
@@ -16668,7 +16868,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="9.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>135</v>
@@ -16708,7 +16908,7 @@
       </c>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="9.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>135</v>
@@ -16747,7 +16947,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="9.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>135</v>
@@ -16782,7 +16982,7 @@
       <c r="M44" s="18"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="9.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>135</v>
@@ -16819,7 +17019,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="9.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>90</v>
@@ -16859,7 +17059,7 @@
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="9.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>91</v>
@@ -16899,7 +17099,7 @@
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="9.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>92</v>
@@ -16939,7 +17139,7 @@
       </c>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="9.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
         <v>93</v>
@@ -16979,7 +17179,7 @@
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="9.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
         <v>94</v>
@@ -17017,7 +17217,7 @@
       </c>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="9.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>95</v>
@@ -17057,7 +17257,7 @@
       </c>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="9.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
         <v>96</v>
@@ -17097,7 +17297,7 @@
       </c>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="9.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
         <v>97</v>
@@ -17137,7 +17337,7 @@
       </c>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="9.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>98</v>
@@ -17177,7 +17377,7 @@
       </c>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="9.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
         <v>99</v>
@@ -17217,7 +17417,7 @@
       </c>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="9.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>100</v>
@@ -17257,7 +17457,7 @@
       </c>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="9.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>136</v>
@@ -17296,7 +17496,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="9.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>136</v>
@@ -17331,7 +17531,7 @@
       <c r="M58" s="18"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="9.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>137</v>
@@ -17370,7 +17570,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="9.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>137</v>
@@ -17405,7 +17605,7 @@
       <c r="M60" s="18"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="9.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>138</v>
@@ -17444,7 +17644,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="9.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>138</v>
@@ -17479,7 +17679,7 @@
       <c r="M62" s="18"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="9.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>140</v>
@@ -17516,7 +17716,7 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="9.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
         <v>101</v>
@@ -17556,7 +17756,7 @@
       </c>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" ht="9.75" customHeight="1">
       <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
@@ -17591,7 +17791,7 @@
       <c r="N65" s="27"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" ht="9.75" customHeight="1">
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="27"/>
@@ -17606,7 +17806,7 @@
       <c r="N66" s="27"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" ht="9.75" customHeight="1">
       <c r="B67" s="2" t="s">
         <v>218</v>
       </c>
@@ -17643,7 +17843,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" ht="9.75" customHeight="1">
       <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
@@ -17675,7 +17875,7 @@
       <c r="K68" s="27"/>
       <c r="L68" s="27"/>
     </row>
-    <row r="69" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" ht="9.75" customHeight="1">
       <c r="B69" s="2" t="s">
         <v>80</v>
       </c>
@@ -17707,7 +17907,7 @@
       <c r="K69" s="27"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" ht="9.75" customHeight="1">
       <c r="B70" s="2" t="s">
         <v>80</v>
       </c>
@@ -17739,7 +17939,7 @@
       <c r="K70" s="27"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" ht="9.75" customHeight="1">
       <c r="B71" s="2" t="s">
         <v>80</v>
       </c>
@@ -17771,7 +17971,7 @@
       <c r="K71" s="27"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" ht="9.75" customHeight="1">
       <c r="B72" s="2" t="s">
         <v>217</v>
       </c>
@@ -17801,7 +18001,7 @@
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" ht="9.75" customHeight="1">
       <c r="B73" s="2" t="s">
         <v>217</v>
       </c>
@@ -17831,7 +18031,7 @@
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" ht="9.75" customHeight="1">
       <c r="B74" s="2" t="s">
         <v>217</v>
       </c>
@@ -17860,7 +18060,7 @@
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" ht="9.75" customHeight="1">
       <c r="B75" s="2" t="s">
         <v>78</v>
       </c>
@@ -17892,7 +18092,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" ht="9.75" customHeight="1">
       <c r="B76" s="2" t="s">
         <v>78</v>
       </c>
@@ -17924,7 +18124,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" ht="9.75" customHeight="1">
       <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
@@ -17956,7 +18156,7 @@
       <c r="K77" s="27"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" ht="9.75" customHeight="1">
       <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
@@ -17988,7 +18188,7 @@
       <c r="K78" s="27"/>
       <c r="L78" s="27"/>
     </row>
-    <row r="79" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" ht="9.75" customHeight="1">
       <c r="B79" s="2" t="s">
         <v>84</v>
       </c>
@@ -18020,7 +18220,7 @@
       <c r="K79" s="27"/>
       <c r="L79" s="27"/>
     </row>
-    <row r="80" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" ht="9.75" customHeight="1">
       <c r="B80" s="2" t="s">
         <v>136</v>
       </c>
@@ -18052,7 +18252,7 @@
       <c r="K80" s="27"/>
       <c r="L80" s="27"/>
     </row>
-    <row r="81" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" ht="9.75" customHeight="1">
       <c r="B81" s="2" t="s">
         <v>136</v>
       </c>
@@ -18084,7 +18284,7 @@
       <c r="K81" s="27"/>
       <c r="L81" s="27"/>
     </row>
-    <row r="82" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" ht="9.75" customHeight="1">
       <c r="B82" s="2" t="s">
         <v>136</v>
       </c>
@@ -18116,7 +18316,7 @@
       <c r="K82" s="27"/>
       <c r="L82" s="27"/>
     </row>
-    <row r="83" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" ht="9.75" customHeight="1">
       <c r="B83" s="2" t="s">
         <v>136</v>
       </c>
@@ -18148,7 +18348,7 @@
       <c r="K83" s="27"/>
       <c r="L83" s="27"/>
     </row>
-    <row r="84" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" ht="9.75" customHeight="1">
       <c r="B84" s="2" t="s">
         <v>136</v>
       </c>
@@ -18180,7 +18380,7 @@
       <c r="K84" s="27"/>
       <c r="L84" s="27"/>
     </row>
-    <row r="85" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" ht="9.75" customHeight="1">
       <c r="B85" s="2" t="s">
         <v>136</v>
       </c>
@@ -18212,7 +18412,7 @@
       <c r="K85" s="27"/>
       <c r="L85" s="27"/>
     </row>
-    <row r="86" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" ht="9.75" customHeight="1">
       <c r="B86" s="2" t="s">
         <v>136</v>
       </c>
@@ -18244,7 +18444,7 @@
       <c r="K86" s="27"/>
       <c r="L86" s="27"/>
     </row>
-    <row r="87" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" ht="9.75" customHeight="1">
       <c r="B87" s="2" t="s">
         <v>136</v>
       </c>
@@ -18276,7 +18476,7 @@
       <c r="K87" s="27"/>
       <c r="L87" s="27"/>
     </row>
-    <row r="88" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" ht="9.75" customHeight="1">
       <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
@@ -18308,7 +18508,7 @@
       <c r="K88" s="27"/>
       <c r="L88" s="27"/>
     </row>
-    <row r="89" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" ht="9.75" customHeight="1">
       <c r="B89" s="2" t="s">
         <v>136</v>
       </c>
@@ -18340,7 +18540,7 @@
       <c r="K89" s="27"/>
       <c r="L89" s="27"/>
     </row>
-    <row r="90" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" ht="9.75" customHeight="1">
       <c r="B90" s="2" t="s">
         <v>137</v>
       </c>
@@ -18372,7 +18572,7 @@
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
     </row>
-    <row r="91" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" ht="9.75" customHeight="1">
       <c r="B91" s="2" t="s">
         <v>137</v>
       </c>
@@ -18404,7 +18604,7 @@
       <c r="K91" s="27"/>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" ht="9.75" customHeight="1">
       <c r="B92" s="2" t="s">
         <v>137</v>
       </c>
@@ -18436,7 +18636,7 @@
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
     </row>
-    <row r="93" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" ht="9.75" customHeight="1">
       <c r="B93" s="2" t="s">
         <v>137</v>
       </c>
@@ -18468,7 +18668,7 @@
       <c r="K93" s="27"/>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" ht="9.75" customHeight="1">
       <c r="B94" s="2" t="s">
         <v>137</v>
       </c>
@@ -18500,7 +18700,7 @@
       <c r="K94" s="27"/>
       <c r="L94" s="27"/>
     </row>
-    <row r="95" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" ht="9.75" customHeight="1">
       <c r="B95" s="2" t="s">
         <v>137</v>
       </c>
@@ -18532,7 +18732,7 @@
       <c r="K95" s="27"/>
       <c r="L95" s="27"/>
     </row>
-    <row r="96" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" ht="9.75" customHeight="1">
       <c r="B96" s="2" t="s">
         <v>137</v>
       </c>
@@ -18564,7 +18764,7 @@
       <c r="K96" s="27"/>
       <c r="L96" s="27"/>
     </row>
-    <row r="97" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="9.75" customHeight="1">
       <c r="B97" s="2" t="s">
         <v>137</v>
       </c>
@@ -18596,7 +18796,7 @@
       <c r="K97" s="27"/>
       <c r="L97" s="27"/>
     </row>
-    <row r="98" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="9.75" customHeight="1">
       <c r="B98" s="2" t="s">
         <v>137</v>
       </c>
@@ -18628,7 +18828,7 @@
       <c r="K98" s="27"/>
       <c r="L98" s="27"/>
     </row>
-    <row r="99" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="9.75" customHeight="1">
       <c r="B99" s="2" t="s">
         <v>137</v>
       </c>
@@ -18660,7 +18860,7 @@
       <c r="K99" s="27"/>
       <c r="L99" s="27"/>
     </row>
-    <row r="100" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="9.75" customHeight="1">
       <c r="B100" s="2" t="s">
         <v>137</v>
       </c>
@@ -18692,7 +18892,7 @@
       <c r="K100" s="27"/>
       <c r="L100" s="27"/>
     </row>
-    <row r="101" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="9.75" customHeight="1">
       <c r="B101" s="2" t="s">
         <v>138</v>
       </c>
@@ -18724,7 +18924,7 @@
       <c r="K101" s="27"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="9.75" customHeight="1">
       <c r="B102" s="2" t="s">
         <v>138</v>
       </c>
@@ -18756,7 +18956,7 @@
       <c r="K102" s="27"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="9.75" customHeight="1">
       <c r="B103" s="2" t="s">
         <v>138</v>
       </c>
@@ -18788,7 +18988,7 @@
       <c r="K103" s="27"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="9.75" customHeight="1">
       <c r="B104" s="2" t="s">
         <v>138</v>
       </c>
@@ -18820,7 +19020,7 @@
       <c r="K104" s="27"/>
       <c r="L104" s="27"/>
     </row>
-    <row r="105" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="9.75" customHeight="1">
       <c r="B105" s="2" t="s">
         <v>138</v>
       </c>
@@ -18852,7 +19052,7 @@
       <c r="K105" s="27"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="9.75" customHeight="1">
       <c r="B106" s="2" t="s">
         <v>138</v>
       </c>
@@ -18884,7 +19084,7 @@
       <c r="K106" s="27"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="109" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="9.75" customHeight="1">
       <c r="A109" s="33"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -18898,7 +19098,7 @@
       <c r="K109" s="27"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="9.75" customHeight="1">
       <c r="A110" s="33"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -18912,7 +19112,7 @@
       <c r="K110" s="27"/>
       <c r="L110" s="27"/>
     </row>
-    <row r="111" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="9.75" customHeight="1">
       <c r="A111" s="33"/>
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
@@ -18926,7 +19126,7 @@
       <c r="K111" s="27"/>
       <c r="L111" s="27"/>
     </row>
-    <row r="112" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="9.75" customHeight="1">
       <c r="A112" s="33"/>
       <c r="B112" s="35"/>
       <c r="C112" s="35"/>
@@ -18940,7 +19140,7 @@
       <c r="K112" s="27"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="9.75" customHeight="1">
       <c r="A113" s="33"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>

--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\vich-file-creation\Files\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA29B8D1-EA04-48EC-9F33-0C87A4FB48A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A4C908-08AC-4E97-94E9-113389A7A652}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12750" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11925" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bizrule" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1256">
   <si>
     <t>y</t>
   </si>
@@ -4451,12 +4451,6 @@
   </si>
   <si>
     <t>valid ack</t>
-  </si>
-  <si>
-    <t>adverse event report not loaded;                    Comments: Parsing process: report with mandatory check violationsThere must be exactly 1 date of onset in the report;There must be exactly 1 effective time in the report;</t>
-  </si>
-  <si>
-    <t>One or more attachments did not decode, did not decompress or contains a virus</t>
   </si>
   <si>
     <t>VICH_EU_Sample_AER_Human</t>
@@ -5302,7 +5296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
+      <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9411,19 +9405,19 @@
       </c>
     </row>
     <row r="86" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K86" s="79" t="s">
+      <c r="K86" s="64" t="s">
         <v>1239</v>
       </c>
       <c r="M86" s="64" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K87" s="79" t="s">
+      <c r="K87" s="64" t="s">
         <v>1240</v>
       </c>
       <c r="M87" s="64" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9471,7 +9465,7 @@
         <v>1246</v>
       </c>
       <c r="M93" s="64" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9487,10 +9481,10 @@
     </row>
     <row r="95" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I95" s="59" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="K95" s="64" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="M95" s="64" t="s">
         <v>1253</v>

--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\vich-file-creation\Files\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B369C30-C1BB-4494-9B3F-CE01EE141BB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12750" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="12756" tabRatio="910"/>
   </bookViews>
   <sheets>
     <sheet name="bizrule" sheetId="4" r:id="rId1"/>
@@ -21,9 +15,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">A1ToA4_mandatorychecks!$A$1:$N$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bizrule!$A$1:$S$80</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3229" uniqueCount="1325">
   <si>
     <t>y</t>
   </si>
@@ -4473,17 +4467,212 @@
 $.reports[0].animalData.breedCrossCodes: the items in the array must be unique;$.reports[0].animalData.breedPureCodes: the items in the array must be unique;</t>
   </si>
   <si>
-    <t>1: Fatal Error: At (213, 3): The element type "observation" must be terminated by the matching end-tag "</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>A443_TypeOfInfoCode_55_null_optional_p</t>
+  </si>
+  <si>
+    <t>TypeOfInfoCode - OptionalFiled- Null check</t>
+  </si>
+  <si>
+    <t>TypeofInfoCode</t>
+  </si>
+  <si>
+    <t>TC100</t>
+  </si>
+  <si>
+    <t>pure bread section - repeated - rejected</t>
+  </si>
+  <si>
+    <t>Pure and cross Breed section repeated - rejected</t>
+  </si>
+  <si>
+    <t>TC102_ B14_onlypurebred.xml</t>
+  </si>
+  <si>
+    <t>only pure bred - valid</t>
+  </si>
+  <si>
+    <t>TC103_ B14_onlypurebred_3animals</t>
+  </si>
+  <si>
+    <t>only pure bred - 3 animals - valid</t>
+  </si>
+  <si>
+    <t>pure bred - nullflavor
+cross bred - 1 animal</t>
+  </si>
+  <si>
+    <t>TC104_B14_case1_Oneanimal_crossbred.xml</t>
+  </si>
+  <si>
+    <t>purebred - false and null
+cross - Nullflavor</t>
+  </si>
+  <si>
+    <t>TC105_B14_case2_Oneanimal_pureBred.xml</t>
+  </si>
+  <si>
+    <t>TC106_B14_case3_2animals.xml</t>
+  </si>
+  <si>
+    <t>purebred - false and null
+cross - TRUE AND DOG88</t>
+  </si>
+  <si>
+    <t>pure bred - nullflavor
+cross bred - nullflavor</t>
+  </si>
+  <si>
+    <t>TC107_B14_case4_BreedUnknown.xml</t>
+  </si>
+  <si>
+    <t>TC108_B14_case5_ Oneanimaliscrossbred.xml</t>
+  </si>
+  <si>
+    <t>purebred - false and null
+cross - TRUE AND DOG256</t>
+  </si>
+  <si>
+    <t>TC109_B15B17_case_FemalePhysiologicalStatus.xml</t>
+  </si>
+  <si>
+    <t>valid for female status</t>
+  </si>
+  <si>
+    <t>TC110_B15B17_case_FemalePhysiologicalStatus_repeatedTwice.xml</t>
+  </si>
+  <si>
+    <t>B17 female status - repated twice</t>
+  </si>
+  <si>
+    <t>TC111_B18B19_case2_Wt_age_unknown.xml</t>
+  </si>
+  <si>
+    <t>wt kgs provided. Code is unknown 
+age - nullflavor and unknown</t>
+  </si>
+  <si>
+    <t>TC112_case_B2211_ActiveIngredients_StrengthUnitUnknown.xml</t>
+  </si>
+  <si>
+    <t>Strength and Unit is unknown for active ingredient</t>
+  </si>
+  <si>
+    <t>Multiple Lots for one drug -  valid</t>
+  </si>
+  <si>
+    <t>multiple adv clinical manifestation - valid</t>
+  </si>
+  <si>
+    <t>TC114_case_B32_MultipleAdvClinicalManifestation_p</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TC113_case_B23_B231_MultipleLotsForOneDrug</t>
+  </si>
+  <si>
+    <t>TC82</t>
+  </si>
+  <si>
+    <t>TC83</t>
+  </si>
+  <si>
+    <t>TC84</t>
+  </si>
+  <si>
+    <t>TC85</t>
+  </si>
+  <si>
+    <t>TC86</t>
+  </si>
+  <si>
+    <t>TC87</t>
+  </si>
+  <si>
+    <t>TC88</t>
+  </si>
+  <si>
+    <t>TC89</t>
+  </si>
+  <si>
+    <t>TC90</t>
+  </si>
+  <si>
+    <t>TC91</t>
+  </si>
+  <si>
+    <t>TC92</t>
+  </si>
+  <si>
+    <t>TC93</t>
+  </si>
+  <si>
+    <t>TC94</t>
+  </si>
+  <si>
+    <t>TC95</t>
+  </si>
+  <si>
+    <t>TC96</t>
+  </si>
+  <si>
+    <t>TC97</t>
+  </si>
+  <si>
+    <t>TC98</t>
+  </si>
+  <si>
+    <t>TC99</t>
+  </si>
+  <si>
+    <t>TC101</t>
+  </si>
+  <si>
+    <t>TC102</t>
+  </si>
+  <si>
+    <t>TC103</t>
+  </si>
+  <si>
+    <t>TC104</t>
+  </si>
+  <si>
+    <t>TC105</t>
+  </si>
+  <si>
+    <t>TC106</t>
+  </si>
+  <si>
+    <t>TC107</t>
+  </si>
+  <si>
+    <t>TC108</t>
+  </si>
+  <si>
+    <t>TC109</t>
+  </si>
+  <si>
+    <t>TC110</t>
+  </si>
+  <si>
+    <t>TC111</t>
+  </si>
+  <si>
+    <t>TC112</t>
+  </si>
+  <si>
+    <t>TC113</t>
+  </si>
+  <si>
+    <t>TC114_case_B32_MultipleAdvClinicalManifestation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4852,7 +5041,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4887,7 +5076,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4931,7 +5120,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4975,7 +5164,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5019,7 +5208,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5303,45 +5492,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="64" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="59" collapsed="1"/>
-    <col min="4" max="4" width="17.42578125" style="59" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" style="60" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.42578125" style="59" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="59" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="59" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" style="59" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.28515625" style="68" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.5703125" style="64" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="33.42578125" style="64" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="42.85546875" style="65" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="9.109375" style="64" collapsed="1"/>
+    <col min="3" max="3" width="9.109375" style="59" collapsed="1"/>
+    <col min="4" max="4" width="17.44140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.44140625" style="60" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.44140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.33203125" style="59" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.109375" style="59" collapsed="1"/>
+    <col min="9" max="9" width="17.5546875" style="59" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.33203125" style="68" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.5546875" style="64" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="42.88671875" style="65" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="21" style="65" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="64.85546875" style="65" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="43.5703125" style="66" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="64" collapsed="1"/>
+    <col min="17" max="17" width="64.88671875" style="65" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="43.5546875" style="66" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.109375" style="64" collapsed="1"/>
     <col min="20" max="20" width="58" style="64" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="64" collapsed="1"/>
+    <col min="21" max="16384" width="9.109375" style="64" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
@@ -5398,9 +5587,9 @@
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A2" s="54" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>1059</v>
@@ -5454,9 +5643,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A3" s="54" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>1060</v>
@@ -5510,9 +5699,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A4" s="54" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>1061</v>
@@ -5566,8 +5755,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A5" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="54" t="s">
         <v>1062</v>
       </c>
@@ -5618,8 +5809,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A6" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" s="54" t="s">
         <v>1063</v>
       </c>
@@ -5670,8 +5863,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A7" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B7" s="54" t="s">
         <v>1064</v>
       </c>
@@ -5720,8 +5915,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A8" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B8" s="54" t="s">
         <v>1065</v>
       </c>
@@ -5774,8 +5971,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B9" s="54" t="s">
         <v>1066</v>
       </c>
@@ -5828,8 +6027,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A10" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B10" s="54" t="s">
         <v>1067</v>
       </c>
@@ -5882,8 +6083,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A11" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" s="54" t="s">
         <v>1068</v>
       </c>
@@ -5936,8 +6139,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A12" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B12" s="54" t="s">
         <v>1069</v>
       </c>
@@ -5986,8 +6191,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A13" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B13" s="54" t="s">
         <v>1070</v>
       </c>
@@ -6036,8 +6243,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B14" s="54" t="s">
         <v>1071</v>
       </c>
@@ -6084,8 +6293,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A15" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B15" s="54" t="s">
         <v>1072</v>
       </c>
@@ -6132,8 +6343,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A16" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B16" s="54" t="s">
         <v>1073</v>
       </c>
@@ -6180,8 +6393,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A17" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B17" s="54" t="s">
         <v>1074</v>
       </c>
@@ -6235,8 +6450,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A18" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B18" s="54" t="s">
         <v>1075</v>
       </c>
@@ -6290,8 +6507,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A19" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B19" s="54" t="s">
         <v>1076</v>
       </c>
@@ -6344,8 +6563,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A20" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B20" s="54" t="s">
         <v>1077</v>
       </c>
@@ -6398,8 +6619,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A21" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B21" s="54" t="s">
         <v>1078</v>
       </c>
@@ -6452,8 +6675,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A22" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" s="54" t="s">
         <v>1079</v>
       </c>
@@ -6506,8 +6731,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A23" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B23" s="54" t="s">
         <v>1080</v>
       </c>
@@ -6560,8 +6787,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A24" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B24" s="54" t="s">
         <v>1081</v>
       </c>
@@ -6614,8 +6843,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A25" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B25" s="54" t="s">
         <v>1082</v>
       </c>
@@ -6668,8 +6899,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A26" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B26" s="54" t="s">
         <v>1083</v>
       </c>
@@ -6722,8 +6955,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A27" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B27" s="54" t="s">
         <v>1084</v>
       </c>
@@ -6776,8 +7011,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A28" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B28" s="54" t="s">
         <v>1085</v>
       </c>
@@ -6830,8 +7067,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A29" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B29" s="54" t="s">
         <v>1086</v>
       </c>
@@ -6884,8 +7123,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A30" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B30" s="54" t="s">
         <v>1087</v>
       </c>
@@ -6938,8 +7179,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A31" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B31" s="54" t="s">
         <v>1088</v>
       </c>
@@ -6992,8 +7235,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A32" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B32" s="54" t="s">
         <v>1089</v>
       </c>
@@ -7046,8 +7291,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A33" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B33" s="54" t="s">
         <v>1090</v>
       </c>
@@ -7100,8 +7347,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A34" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B34" s="54" t="s">
         <v>1091</v>
       </c>
@@ -7148,8 +7397,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A35" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B35" s="54" t="s">
         <v>1092</v>
       </c>
@@ -7196,8 +7447,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A36" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B36" s="54" t="s">
         <v>1093</v>
       </c>
@@ -7244,8 +7497,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A37" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B37" s="54" t="s">
         <v>1094</v>
       </c>
@@ -7294,8 +7549,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A38" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B38" s="54" t="s">
         <v>1095</v>
       </c>
@@ -7344,8 +7601,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A39" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B39" s="54" t="s">
         <v>1096</v>
       </c>
@@ -7392,8 +7651,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A40" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B40" s="54" t="s">
         <v>1097</v>
       </c>
@@ -7440,8 +7701,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A41" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B41" s="54" t="s">
         <v>1098</v>
       </c>
@@ -7492,8 +7755,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A42" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B42" s="54" t="s">
         <v>1099</v>
       </c>
@@ -7544,8 +7809,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A43" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B43" s="54" t="s">
         <v>1100</v>
       </c>
@@ -7596,8 +7863,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A44" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B44" s="54" t="s">
         <v>1101</v>
       </c>
@@ -7648,8 +7917,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A45" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B45" s="54" t="s">
         <v>1102</v>
       </c>
@@ -7700,8 +7971,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A46" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B46" s="54" t="s">
         <v>1103</v>
       </c>
@@ -7750,8 +8023,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A47" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B47" s="54" t="s">
         <v>1104</v>
       </c>
@@ -7794,8 +8069,10 @@
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A48" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B48" s="54" t="s">
         <v>1105</v>
       </c>
@@ -7842,8 +8119,10 @@
         <v>876</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A49" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B49" s="54" t="s">
         <v>1106</v>
       </c>
@@ -7892,8 +8171,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A50" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B50" s="54" t="s">
         <v>1107</v>
       </c>
@@ -7942,8 +8223,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A51" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B51" s="54" t="s">
         <v>1108</v>
       </c>
@@ -7992,8 +8275,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
+    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A52" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B52" s="54" t="s">
         <v>1109</v>
       </c>
@@ -8042,8 +8327,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
+    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A53" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B53" s="54" t="s">
         <v>1110</v>
       </c>
@@ -8092,8 +8379,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
+    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A54" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B54" s="54" t="s">
         <v>1111</v>
       </c>
@@ -8142,8 +8431,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
+    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A55" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B55" s="54" t="s">
         <v>1112</v>
       </c>
@@ -8193,8 +8484,10 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
+    <row r="56" spans="1:19" ht="9.75" customHeight="1">
+      <c r="A56" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B56" s="54" t="s">
         <v>1113</v>
       </c>
@@ -8245,8 +8538,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
+    <row r="57" spans="1:19" ht="9.75" customHeight="1">
+      <c r="A57" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B57" s="54" t="s">
         <v>1114</v>
       </c>
@@ -8295,8 +8590,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
+    <row r="58" spans="1:19" ht="9.75" customHeight="1">
+      <c r="A58" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B58" s="54" t="s">
         <v>1115</v>
       </c>
@@ -8342,8 +8639,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
+    <row r="59" spans="1:19" ht="9.75" customHeight="1">
+      <c r="A59" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B59" s="54" t="s">
         <v>1116</v>
       </c>
@@ -8393,8 +8692,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+    <row r="60" spans="1:19" ht="9.75" customHeight="1">
+      <c r="A60" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B60" s="54" t="s">
         <v>1117</v>
       </c>
@@ -8444,8 +8745,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
+    <row r="61" spans="1:19" ht="9.75" customHeight="1">
+      <c r="A61" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B61" s="54" t="s">
         <v>1118</v>
       </c>
@@ -8495,8 +8798,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
+    <row r="62" spans="1:19" ht="9.75" customHeight="1">
+      <c r="A62" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B62" s="54" t="s">
         <v>1119</v>
       </c>
@@ -8544,8 +8849,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
+    <row r="63" spans="1:19" ht="9.75" customHeight="1">
+      <c r="A63" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B63" s="54" t="s">
         <v>1120</v>
       </c>
@@ -8593,8 +8900,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
+    <row r="64" spans="1:19" ht="9.75" customHeight="1">
+      <c r="A64" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B64" s="54" t="s">
         <v>1121</v>
       </c>
@@ -8639,8 +8948,10 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
+    <row r="65" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A65" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B65" s="54" t="s">
         <v>1122</v>
       </c>
@@ -8685,8 +8996,10 @@
         <v>932</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+    <row r="66" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A66" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B66" s="54" t="s">
         <v>1123</v>
       </c>
@@ -8731,8 +9044,10 @@
         <v>934</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
+    <row r="67" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A67" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B67" s="54" t="s">
         <v>1124</v>
       </c>
@@ -8777,8 +9092,10 @@
         <v>926</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
+    <row r="68" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A68" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B68" s="54" t="s">
         <v>1125</v>
       </c>
@@ -8823,8 +9140,10 @@
         <v>926</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
+    <row r="69" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A69" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B69" s="54" t="s">
         <v>1126</v>
       </c>
@@ -8869,8 +9188,10 @@
         <v>933</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
+    <row r="70" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A70" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B70" s="54" t="s">
         <v>1127</v>
       </c>
@@ -8915,8 +9236,10 @@
         <v>928</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
+    <row r="71" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A71" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B71" s="54" t="s">
         <v>1128</v>
       </c>
@@ -8961,8 +9284,10 @@
         <v>927</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
+    <row r="72" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A72" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B72" s="54" t="s">
         <v>1129</v>
       </c>
@@ -9007,8 +9332,10 @@
         <v>935</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
+    <row r="73" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A73" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B73" s="54" t="s">
         <v>1130</v>
       </c>
@@ -9053,8 +9380,10 @@
         <v>936</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
+    <row r="74" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A74" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B74" s="54" t="s">
         <v>1131</v>
       </c>
@@ -9098,8 +9427,10 @@
         <v>937</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
+    <row r="75" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A75" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B75" s="54" t="s">
         <v>1132</v>
       </c>
@@ -9143,8 +9474,10 @@
         <v>937</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
+    <row r="76" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A76" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B76" s="54" t="s">
         <v>1133</v>
       </c>
@@ -9188,8 +9521,10 @@
         <v>939</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
+    <row r="77" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A77" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B77" s="54" t="s">
         <v>1134</v>
       </c>
@@ -9229,8 +9564,10 @@
         <v>942</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
+    <row r="78" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A78" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B78" s="54" t="s">
         <v>1135</v>
       </c>
@@ -9270,8 +9607,10 @@
         <v>943</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
+    <row r="79" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A79" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B79" s="54" t="s">
         <v>1136</v>
       </c>
@@ -9315,8 +9654,10 @@
         <v>927</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
+    <row r="80" spans="1:17" ht="9.75" customHeight="1">
+      <c r="A80" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B80" s="54" t="s">
         <v>1137</v>
       </c>
@@ -9360,7 +9701,10 @@
         <v>937</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A81" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="B81" s="64" t="s">
         <v>1227</v>
       </c>
@@ -9386,9 +9730,12 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="64" t="s">
-        <v>0</v>
+    <row r="82" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A82" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>1293</v>
       </c>
       <c r="K82" s="64" t="s">
         <v>1232</v>
@@ -9397,7 +9744,13 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="11.4">
+      <c r="A83" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>1294</v>
+      </c>
       <c r="K83" s="64" t="s">
         <v>1233</v>
       </c>
@@ -9405,7 +9758,13 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="45.6">
+      <c r="A84" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>1295</v>
+      </c>
       <c r="I84" s="59" t="s">
         <v>1236</v>
       </c>
@@ -9416,7 +9775,13 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A85" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>1296</v>
+      </c>
       <c r="K85" s="64" t="s">
         <v>1238</v>
       </c>
@@ -9424,7 +9789,13 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A86" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>1297</v>
+      </c>
       <c r="K86" s="64" t="s">
         <v>1239</v>
       </c>
@@ -9432,7 +9803,13 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A87" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>1298</v>
+      </c>
       <c r="K87" s="64" t="s">
         <v>1240</v>
       </c>
@@ -9440,7 +9817,13 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A88" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>1299</v>
+      </c>
       <c r="K88" s="79" t="s">
         <v>1241</v>
       </c>
@@ -9448,7 +9831,13 @@
         <v>877</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A89" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>1300</v>
+      </c>
       <c r="K89" s="79" t="s">
         <v>1242</v>
       </c>
@@ -9456,7 +9845,13 @@
         <v>877</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A90" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>1301</v>
+      </c>
       <c r="K90" s="64" t="s">
         <v>1243</v>
       </c>
@@ -9464,7 +9859,13 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A91" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>1302</v>
+      </c>
       <c r="K91" s="64" t="s">
         <v>1244</v>
       </c>
@@ -9472,7 +9873,13 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A92" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>1303</v>
+      </c>
       <c r="K92" s="64" t="s">
         <v>1245</v>
       </c>
@@ -9480,7 +9887,13 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A93" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>1304</v>
+      </c>
       <c r="K93" s="79" t="s">
         <v>1246</v>
       </c>
@@ -9488,7 +9901,13 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A94" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>1305</v>
+      </c>
       <c r="I94" s="59" t="s">
         <v>1251</v>
       </c>
@@ -9499,7 +9918,13 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="9.75" customHeight="1">
+      <c r="A95" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>1306</v>
+      </c>
       <c r="I95" s="59" t="s">
         <v>1255</v>
       </c>
@@ -9510,7 +9935,13 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="32.25" customHeight="1">
+      <c r="A96" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>1307</v>
+      </c>
       <c r="K96" s="64" t="s">
         <v>1256</v>
       </c>
@@ -9518,7 +9949,13 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="97" spans="10:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="9.75" customHeight="1">
+      <c r="A97" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>1308</v>
+      </c>
       <c r="K97" s="64" t="s">
         <v>1258</v>
       </c>
@@ -9526,17 +9963,243 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="98" spans="10:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="34.200000000000003">
+      <c r="A98" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="54" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C98" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="59" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I98" s="59" t="s">
+        <v>1261</v>
+      </c>
       <c r="K98" s="64" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M98" s="64" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="100" spans="10:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J100" s="68">
-        <v>102</v>
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="34.200000000000003">
+      <c r="A99" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I99" s="59" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K99" s="64" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="22.8">
+      <c r="A100" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="54" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I100" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K100" s="64" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="11.4">
+      <c r="A101" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I101" s="59" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K101" s="64" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="22.8">
+      <c r="A102" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="54" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I102" s="59" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K102" s="64" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="22.8">
+      <c r="A103" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I103" s="59" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K103" s="64" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="34.200000000000003">
+      <c r="A104" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="54" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I104" s="59" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K104" s="64" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="45.6">
+      <c r="A105" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I105" s="59" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K105" s="64" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="22.8">
+      <c r="A106" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I106" s="59" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K106" s="64" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="45.6">
+      <c r="A107" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="64" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I107" s="59" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K107" s="64" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="9.75" customHeight="1">
+      <c r="A108" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="54" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I108" s="59" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K108" s="64" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="22.8">
+      <c r="A109" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="64" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I109" s="59" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K109" s="64" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="45.6">
+      <c r="A110" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="54" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I110" s="59" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K110" s="64" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="34.200000000000003">
+      <c r="A111" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="64" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I111" s="59" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K111" s="64" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="22.8">
+      <c r="A112" s="64" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B112" s="54" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I112" s="59" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K112" s="64" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L112" s="64" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="9.75" customHeight="1">
+      <c r="A113" s="64" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B113" s="64" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I113" s="59" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K113" s="64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L113" s="64" t="s">
+        <v>1290</v>
       </c>
     </row>
   </sheetData>
@@ -9548,7 +10211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L138"/>
   <sheetViews>
@@ -9556,14 +10219,14 @@
       <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="9" max="9" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="12" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
@@ -9601,7 +10264,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -9641,7 +10304,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -9681,7 +10344,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
@@ -9721,7 +10384,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
@@ -9761,7 +10424,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -9801,7 +10464,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
@@ -9841,7 +10504,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
@@ -9881,7 +10544,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
@@ -9921,7 +10584,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
@@ -9961,7 +10624,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
@@ -10001,7 +10664,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
@@ -10041,7 +10704,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
@@ -10081,7 +10744,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>0</v>
       </c>
@@ -10121,7 +10784,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="33" t="s">
         <v>0</v>
       </c>
@@ -10161,7 +10824,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>0</v>
       </c>
@@ -10201,7 +10864,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="33" t="s">
         <v>0</v>
       </c>
@@ -10241,7 +10904,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="33" t="s">
         <v>0</v>
       </c>
@@ -10281,7 +10944,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>0</v>
       </c>
@@ -10321,7 +10984,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="33" t="s">
         <v>0</v>
       </c>
@@ -10361,7 +11024,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="33" t="s">
         <v>0</v>
       </c>
@@ -10401,7 +11064,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="33" t="s">
         <v>0</v>
       </c>
@@ -10441,7 +11104,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="33" t="s">
         <v>0</v>
       </c>
@@ -10481,7 +11144,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="33" t="s">
         <v>0</v>
       </c>
@@ -10521,7 +11184,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
@@ -10561,7 +11224,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -10601,7 +11264,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -10641,7 +11304,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -10681,7 +11344,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -10721,7 +11384,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="33" t="s">
         <v>0</v>
       </c>
@@ -10761,7 +11424,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="33" t="s">
         <v>0</v>
       </c>
@@ -10801,7 +11464,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
         <v>0</v>
       </c>
@@ -10841,7 +11504,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="33" t="s">
         <v>0</v>
       </c>
@@ -10881,7 +11544,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="33" t="s">
         <v>0</v>
       </c>
@@ -10921,7 +11584,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="33" t="s">
         <v>0</v>
       </c>
@@ -10961,7 +11624,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
@@ -11001,7 +11664,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="33" t="s">
         <v>0</v>
       </c>
@@ -11041,7 +11704,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="33" t="s">
         <v>0</v>
       </c>
@@ -11081,7 +11744,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="33" t="s">
         <v>0</v>
       </c>
@@ -11121,7 +11784,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="33" t="s">
         <v>0</v>
       </c>
@@ -11161,7 +11824,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="33" t="s">
         <v>0</v>
       </c>
@@ -11201,7 +11864,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="33" t="s">
         <v>0</v>
       </c>
@@ -11241,7 +11904,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="33" t="s">
         <v>0</v>
       </c>
@@ -11281,7 +11944,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="33" t="s">
         <v>0</v>
       </c>
@@ -11321,7 +11984,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="33" t="s">
         <v>0</v>
       </c>
@@ -11361,7 +12024,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="33" t="s">
         <v>0</v>
       </c>
@@ -11401,7 +12064,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="33" t="s">
         <v>0</v>
       </c>
@@ -11441,7 +12104,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="33" t="s">
         <v>0</v>
       </c>
@@ -11481,7 +12144,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="33" t="s">
         <v>0</v>
       </c>
@@ -11521,7 +12184,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="33" t="s">
         <v>0</v>
       </c>
@@ -11561,7 +12224,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="33" t="s">
         <v>0</v>
       </c>
@@ -11601,7 +12264,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="33" t="s">
         <v>0</v>
       </c>
@@ -11641,7 +12304,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="33" t="s">
         <v>0</v>
       </c>
@@ -11681,7 +12344,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="33" t="s">
         <v>0</v>
       </c>
@@ -11721,7 +12384,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="33" t="s">
         <v>0</v>
       </c>
@@ -11761,7 +12424,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="33" t="s">
         <v>0</v>
       </c>
@@ -11801,7 +12464,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="33" t="s">
         <v>0</v>
       </c>
@@ -11841,7 +12504,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="33" t="s">
         <v>0</v>
       </c>
@@ -11881,7 +12544,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="33" t="s">
         <v>0</v>
       </c>
@@ -11921,7 +12584,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="33" t="s">
         <v>0</v>
       </c>
@@ -11961,7 +12624,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="33" t="s">
         <v>0</v>
       </c>
@@ -12001,7 +12664,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="33" t="s">
         <v>0</v>
       </c>
@@ -12041,7 +12704,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="33" t="s">
         <v>0</v>
       </c>
@@ -12081,7 +12744,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="33" t="s">
         <v>0</v>
       </c>
@@ -12121,7 +12784,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
         <v>0</v>
       </c>
@@ -12161,7 +12824,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="33" t="s">
         <v>0</v>
       </c>
@@ -12201,7 +12864,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="33" t="s">
         <v>0</v>
       </c>
@@ -12241,7 +12904,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="33" t="s">
         <v>0</v>
       </c>
@@ -12281,7 +12944,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="33" t="s">
         <v>0</v>
       </c>
@@ -12321,7 +12984,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="33" t="s">
         <v>0</v>
       </c>
@@ -12361,7 +13024,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="33" t="s">
         <v>0</v>
       </c>
@@ -12401,7 +13064,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
       <c r="A72" s="33" t="s">
         <v>0</v>
       </c>
@@ -12441,7 +13104,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
       <c r="A73" s="33" t="s">
         <v>0</v>
       </c>
@@ -12481,7 +13144,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="33" t="s">
         <v>0</v>
       </c>
@@ -12521,7 +13184,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="A75" s="33" t="s">
         <v>0</v>
       </c>
@@ -12561,7 +13224,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="33" t="s">
         <v>0</v>
       </c>
@@ -12601,7 +13264,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="33" t="s">
         <v>0</v>
       </c>
@@ -12641,7 +13304,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="33" t="s">
         <v>0</v>
       </c>
@@ -12681,7 +13344,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="33" t="s">
         <v>0</v>
       </c>
@@ -12721,7 +13384,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="33" t="s">
         <v>0</v>
       </c>
@@ -12761,7 +13424,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="33" t="s">
         <v>0</v>
       </c>
@@ -12801,7 +13464,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="33" t="s">
         <v>0</v>
       </c>
@@ -12841,7 +13504,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="33" t="s">
         <v>0</v>
       </c>
@@ -12881,7 +13544,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="33" t="s">
         <v>0</v>
       </c>
@@ -12921,7 +13584,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="33" t="s">
         <v>0</v>
       </c>
@@ -12961,7 +13624,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="33" t="s">
         <v>0</v>
       </c>
@@ -13001,7 +13664,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="33" t="s">
         <v>0</v>
       </c>
@@ -13041,7 +13704,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="33" t="s">
         <v>0</v>
       </c>
@@ -13081,7 +13744,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="33" t="s">
         <v>0</v>
       </c>
@@ -13121,7 +13784,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="33" t="s">
         <v>0</v>
       </c>
@@ -13161,7 +13824,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1">
       <c r="A91" s="33" t="s">
         <v>0</v>
       </c>
@@ -13201,7 +13864,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1">
       <c r="A92" s="33" t="s">
         <v>0</v>
       </c>
@@ -13241,7 +13904,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1">
       <c r="A93" s="33" t="s">
         <v>0</v>
       </c>
@@ -13281,7 +13944,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="33" t="s">
         <v>0</v>
       </c>
@@ -13321,7 +13984,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="33" t="s">
         <v>0</v>
       </c>
@@ -13361,7 +14024,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="33" t="s">
         <v>0</v>
       </c>
@@ -13401,7 +14064,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="33" t="s">
         <v>0</v>
       </c>
@@ -13441,7 +14104,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="33" t="s">
         <v>0</v>
       </c>
@@ -13481,7 +14144,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="33" t="s">
         <v>0</v>
       </c>
@@ -13521,7 +14184,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="33" t="s">
         <v>0</v>
       </c>
@@ -13561,7 +14224,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="33" t="s">
         <v>0</v>
       </c>
@@ -13601,7 +14264,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="33" t="s">
         <v>0</v>
       </c>
@@ -13641,7 +14304,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="33" t="s">
         <v>0</v>
       </c>
@@ -13681,7 +14344,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="33" t="s">
         <v>0</v>
       </c>
@@ -13721,7 +14384,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="33" t="s">
         <v>0</v>
       </c>
@@ -13761,7 +14424,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="33" t="s">
         <v>0</v>
       </c>
@@ -13801,7 +14464,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="33" t="s">
         <v>0</v>
       </c>
@@ -13841,7 +14504,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1">
       <c r="A108" s="33" t="s">
         <v>0</v>
       </c>
@@ -13881,7 +14544,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1">
       <c r="A109" s="33" t="s">
         <v>0</v>
       </c>
@@ -13921,7 +14584,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1">
       <c r="A110" s="33" t="s">
         <v>0</v>
       </c>
@@ -13961,7 +14624,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1">
       <c r="A111" s="33" t="s">
         <v>0</v>
       </c>
@@ -14001,7 +14664,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="33" t="s">
         <v>0</v>
       </c>
@@ -14041,7 +14704,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="33" t="s">
         <v>0</v>
       </c>
@@ -14081,7 +14744,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="33" t="s">
         <v>0</v>
       </c>
@@ -14121,7 +14784,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="33" t="s">
         <v>0</v>
       </c>
@@ -14161,7 +14824,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1">
       <c r="A116" s="33" t="s">
         <v>0</v>
       </c>
@@ -14201,7 +14864,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1">
       <c r="A117" s="33" t="s">
         <v>0</v>
       </c>
@@ -14241,7 +14904,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1">
       <c r="A118" s="33" t="s">
         <v>0</v>
       </c>
@@ -14281,7 +14944,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1">
       <c r="A119" s="33" t="s">
         <v>0</v>
       </c>
@@ -14321,7 +14984,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1">
       <c r="A120" s="33" t="s">
         <v>0</v>
       </c>
@@ -14361,7 +15024,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1">
       <c r="A121" s="33" t="s">
         <v>0</v>
       </c>
@@ -14401,7 +15064,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1">
       <c r="A122" s="33" t="s">
         <v>0</v>
       </c>
@@ -14441,7 +15104,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1">
       <c r="A123" s="33" t="s">
         <v>0</v>
       </c>
@@ -14481,7 +15144,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1">
       <c r="A124" s="33" t="s">
         <v>0</v>
       </c>
@@ -14521,7 +15184,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1">
       <c r="A125" s="33" t="s">
         <v>0</v>
       </c>
@@ -14561,7 +15224,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1">
       <c r="A126" s="33" t="s">
         <v>0</v>
       </c>
@@ -14601,7 +15264,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1">
       <c r="A127" s="33" t="s">
         <v>0</v>
       </c>
@@ -14641,7 +15304,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1">
       <c r="A128" s="33" t="s">
         <v>0</v>
       </c>
@@ -14681,7 +15344,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1">
       <c r="A129" s="33" t="s">
         <v>0</v>
       </c>
@@ -14721,7 +15384,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1">
       <c r="A130" s="33" t="s">
         <v>0</v>
       </c>
@@ -14761,7 +15424,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1">
       <c r="A131" s="33" t="s">
         <v>0</v>
       </c>
@@ -14801,7 +15464,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1">
       <c r="A132" s="33" t="s">
         <v>0</v>
       </c>
@@ -14841,7 +15504,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1">
       <c r="A133" s="33" t="s">
         <v>0</v>
       </c>
@@ -14881,7 +15544,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1">
       <c r="A134" s="33" t="s">
         <v>0</v>
       </c>
@@ -14921,7 +15584,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1">
       <c r="A135" s="33" t="s">
         <v>0</v>
       </c>
@@ -14961,7 +15624,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1">
       <c r="A136" s="33" t="s">
         <v>0</v>
       </c>
@@ -15001,7 +15664,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1">
       <c r="A137" s="33" t="s">
         <v>0</v>
       </c>
@@ -15041,7 +15704,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1">
       <c r="A138" s="33" t="s">
         <v>0</v>
       </c>
@@ -15088,7 +15751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P113"/>
   <sheetViews>
@@ -15096,26 +15759,26 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.85546875" style="2" collapsed="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.85546875" style="2" collapsed="1"/>
-    <col min="8" max="8" width="63.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="59.28515625" style="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="79.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="61.42578125" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="36.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.42578125" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="5.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" width="4.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.88671875" style="2" collapsed="1"/>
+    <col min="5" max="5" width="18.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.88671875" style="2" collapsed="1"/>
+    <col min="8" max="8" width="63.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="59.33203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="79.88671875" style="14" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="61.44140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="36.88671875" style="15" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.44140625" style="15" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="5.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="9.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -15159,7 +15822,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="9.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>127</v>
@@ -15198,7 +15861,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="9.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>127</v>
@@ -15233,7 +15896,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="9.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>128</v>
@@ -15268,7 +15931,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="9.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>65</v>
@@ -15303,7 +15966,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="9.75" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="21" t="s">
         <v>73</v>
@@ -15342,7 +16005,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="9.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>129</v>
@@ -15377,7 +16040,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="9.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>130</v>
@@ -15412,7 +16075,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="9.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>66</v>
@@ -15449,7 +16112,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="9.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>131</v>
@@ -15484,7 +16147,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="9.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>132</v>
@@ -15519,7 +16182,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="9.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="21" t="s">
         <v>74</v>
@@ -15556,7 +16219,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="9.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>133</v>
@@ -15591,7 +16254,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="9.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>134</v>
@@ -15626,7 +16289,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="9.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="22" t="s">
         <v>75</v>
@@ -15666,7 +16329,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="9.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="22" t="s">
         <v>76</v>
@@ -15706,7 +16369,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="9.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="22" t="s">
         <v>77</v>
@@ -15746,7 +16409,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="9.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>78</v>
@@ -15786,7 +16449,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="9.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>79</v>
@@ -15826,7 +16489,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="9.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>80</v>
@@ -15866,7 +16529,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="9.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="12" t="s">
         <v>67</v>
@@ -15902,7 +16565,7 @@
       <c r="N21" s="8"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="9.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -15947,7 +16610,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="9.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -15992,7 +16655,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="9.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -16037,7 +16700,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="9.75" customHeight="1">
       <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
@@ -16077,7 +16740,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="9.75" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -16116,7 +16779,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="9.75" customHeight="1">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -16155,7 +16818,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="9.75" customHeight="1">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -16194,7 +16857,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="9.75" customHeight="1">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -16233,7 +16896,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="9.75" customHeight="1">
       <c r="A30" s="33" t="s">
         <v>0</v>
       </c>
@@ -16269,7 +16932,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="9.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -16308,7 +16971,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="9.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -16351,7 +17014,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="9.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>64</v>
@@ -16391,7 +17054,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="9.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
@@ -16431,7 +17094,7 @@
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="9.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>83</v>
@@ -16471,7 +17134,7 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="9.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>84</v>
@@ -16511,7 +17174,7 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="9.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>85</v>
@@ -16551,7 +17214,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="9.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>86</v>
@@ -16591,7 +17254,7 @@
       </c>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="9.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>87</v>
@@ -16631,7 +17294,7 @@
       </c>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="9.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>88</v>
@@ -16671,7 +17334,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="9.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>89</v>
@@ -16711,7 +17374,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="9.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>135</v>
@@ -16751,7 +17414,7 @@
       </c>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="9.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>135</v>
@@ -16790,7 +17453,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="9.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>135</v>
@@ -16825,7 +17488,7 @@
       <c r="M44" s="18"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="9.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>135</v>
@@ -16862,7 +17525,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="9.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>90</v>
@@ -16902,7 +17565,7 @@
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="9.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>91</v>
@@ -16942,7 +17605,7 @@
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="9.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>92</v>
@@ -16982,7 +17645,7 @@
       </c>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="9.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
         <v>93</v>
@@ -17022,7 +17685,7 @@
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="9.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
         <v>94</v>
@@ -17060,7 +17723,7 @@
       </c>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="9.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>95</v>
@@ -17100,7 +17763,7 @@
       </c>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="9.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
         <v>96</v>
@@ -17140,7 +17803,7 @@
       </c>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="9.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
         <v>97</v>
@@ -17180,7 +17843,7 @@
       </c>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="9.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>98</v>
@@ -17220,7 +17883,7 @@
       </c>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="9.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
         <v>99</v>
@@ -17260,7 +17923,7 @@
       </c>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="9.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>100</v>
@@ -17300,7 +17963,7 @@
       </c>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="9.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>136</v>
@@ -17339,7 +18002,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="9.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>136</v>
@@ -17374,7 +18037,7 @@
       <c r="M58" s="18"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="9.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>137</v>
@@ -17413,7 +18076,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="9.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>137</v>
@@ -17448,7 +18111,7 @@
       <c r="M60" s="18"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="9.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>138</v>
@@ -17487,7 +18150,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="9.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>138</v>
@@ -17522,7 +18185,7 @@
       <c r="M62" s="18"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="9.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>140</v>
@@ -17559,7 +18222,7 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="9.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
         <v>101</v>
@@ -17599,7 +18262,7 @@
       </c>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" ht="9.75" customHeight="1">
       <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
@@ -17634,7 +18297,7 @@
       <c r="N65" s="27"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" ht="9.75" customHeight="1">
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="27"/>
@@ -17649,7 +18312,7 @@
       <c r="N66" s="27"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" ht="9.75" customHeight="1">
       <c r="B67" s="2" t="s">
         <v>218</v>
       </c>
@@ -17686,7 +18349,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" ht="9.75" customHeight="1">
       <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
@@ -17718,7 +18381,7 @@
       <c r="K68" s="27"/>
       <c r="L68" s="27"/>
     </row>
-    <row r="69" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" ht="9.75" customHeight="1">
       <c r="B69" s="2" t="s">
         <v>80</v>
       </c>
@@ -17750,7 +18413,7 @@
       <c r="K69" s="27"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" ht="9.75" customHeight="1">
       <c r="B70" s="2" t="s">
         <v>80</v>
       </c>
@@ -17782,7 +18445,7 @@
       <c r="K70" s="27"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" ht="9.75" customHeight="1">
       <c r="B71" s="2" t="s">
         <v>80</v>
       </c>
@@ -17814,7 +18477,7 @@
       <c r="K71" s="27"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" ht="9.75" customHeight="1">
       <c r="B72" s="2" t="s">
         <v>217</v>
       </c>
@@ -17844,7 +18507,7 @@
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" ht="9.75" customHeight="1">
       <c r="B73" s="2" t="s">
         <v>217</v>
       </c>
@@ -17874,7 +18537,7 @@
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" ht="9.75" customHeight="1">
       <c r="B74" s="2" t="s">
         <v>217</v>
       </c>
@@ -17903,7 +18566,7 @@
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" ht="9.75" customHeight="1">
       <c r="B75" s="2" t="s">
         <v>78</v>
       </c>
@@ -17935,7 +18598,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" ht="9.75" customHeight="1">
       <c r="B76" s="2" t="s">
         <v>78</v>
       </c>
@@ -17967,7 +18630,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" ht="9.75" customHeight="1">
       <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
@@ -17999,7 +18662,7 @@
       <c r="K77" s="27"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" ht="9.75" customHeight="1">
       <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
@@ -18031,7 +18694,7 @@
       <c r="K78" s="27"/>
       <c r="L78" s="27"/>
     </row>
-    <row r="79" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" ht="9.75" customHeight="1">
       <c r="B79" s="2" t="s">
         <v>84</v>
       </c>
@@ -18063,7 +18726,7 @@
       <c r="K79" s="27"/>
       <c r="L79" s="27"/>
     </row>
-    <row r="80" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" ht="9.75" customHeight="1">
       <c r="B80" s="2" t="s">
         <v>136</v>
       </c>
@@ -18095,7 +18758,7 @@
       <c r="K80" s="27"/>
       <c r="L80" s="27"/>
     </row>
-    <row r="81" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" ht="9.75" customHeight="1">
       <c r="B81" s="2" t="s">
         <v>136</v>
       </c>
@@ -18127,7 +18790,7 @@
       <c r="K81" s="27"/>
       <c r="L81" s="27"/>
     </row>
-    <row r="82" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" ht="9.75" customHeight="1">
       <c r="B82" s="2" t="s">
         <v>136</v>
       </c>
@@ -18159,7 +18822,7 @@
       <c r="K82" s="27"/>
       <c r="L82" s="27"/>
     </row>
-    <row r="83" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" ht="9.75" customHeight="1">
       <c r="B83" s="2" t="s">
         <v>136</v>
       </c>
@@ -18191,7 +18854,7 @@
       <c r="K83" s="27"/>
       <c r="L83" s="27"/>
     </row>
-    <row r="84" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" ht="9.75" customHeight="1">
       <c r="B84" s="2" t="s">
         <v>136</v>
       </c>
@@ -18223,7 +18886,7 @@
       <c r="K84" s="27"/>
       <c r="L84" s="27"/>
     </row>
-    <row r="85" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" ht="9.75" customHeight="1">
       <c r="B85" s="2" t="s">
         <v>136</v>
       </c>
@@ -18255,7 +18918,7 @@
       <c r="K85" s="27"/>
       <c r="L85" s="27"/>
     </row>
-    <row r="86" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" ht="9.75" customHeight="1">
       <c r="B86" s="2" t="s">
         <v>136</v>
       </c>
@@ -18287,7 +18950,7 @@
       <c r="K86" s="27"/>
       <c r="L86" s="27"/>
     </row>
-    <row r="87" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" ht="9.75" customHeight="1">
       <c r="B87" s="2" t="s">
         <v>136</v>
       </c>
@@ -18319,7 +18982,7 @@
       <c r="K87" s="27"/>
       <c r="L87" s="27"/>
     </row>
-    <row r="88" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" ht="9.75" customHeight="1">
       <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
@@ -18351,7 +19014,7 @@
       <c r="K88" s="27"/>
       <c r="L88" s="27"/>
     </row>
-    <row r="89" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" ht="9.75" customHeight="1">
       <c r="B89" s="2" t="s">
         <v>136</v>
       </c>
@@ -18383,7 +19046,7 @@
       <c r="K89" s="27"/>
       <c r="L89" s="27"/>
     </row>
-    <row r="90" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" ht="9.75" customHeight="1">
       <c r="B90" s="2" t="s">
         <v>137</v>
       </c>
@@ -18415,7 +19078,7 @@
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
     </row>
-    <row r="91" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" ht="9.75" customHeight="1">
       <c r="B91" s="2" t="s">
         <v>137</v>
       </c>
@@ -18447,7 +19110,7 @@
       <c r="K91" s="27"/>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" ht="9.75" customHeight="1">
       <c r="B92" s="2" t="s">
         <v>137</v>
       </c>
@@ -18479,7 +19142,7 @@
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
     </row>
-    <row r="93" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" ht="9.75" customHeight="1">
       <c r="B93" s="2" t="s">
         <v>137</v>
       </c>
@@ -18511,7 +19174,7 @@
       <c r="K93" s="27"/>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" ht="9.75" customHeight="1">
       <c r="B94" s="2" t="s">
         <v>137</v>
       </c>
@@ -18543,7 +19206,7 @@
       <c r="K94" s="27"/>
       <c r="L94" s="27"/>
     </row>
-    <row r="95" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" ht="9.75" customHeight="1">
       <c r="B95" s="2" t="s">
         <v>137</v>
       </c>
@@ -18575,7 +19238,7 @@
       <c r="K95" s="27"/>
       <c r="L95" s="27"/>
     </row>
-    <row r="96" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" ht="9.75" customHeight="1">
       <c r="B96" s="2" t="s">
         <v>137</v>
       </c>
@@ -18607,7 +19270,7 @@
       <c r="K96" s="27"/>
       <c r="L96" s="27"/>
     </row>
-    <row r="97" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="9.75" customHeight="1">
       <c r="B97" s="2" t="s">
         <v>137</v>
       </c>
@@ -18639,7 +19302,7 @@
       <c r="K97" s="27"/>
       <c r="L97" s="27"/>
     </row>
-    <row r="98" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="9.75" customHeight="1">
       <c r="B98" s="2" t="s">
         <v>137</v>
       </c>
@@ -18671,7 +19334,7 @@
       <c r="K98" s="27"/>
       <c r="L98" s="27"/>
     </row>
-    <row r="99" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="9.75" customHeight="1">
       <c r="B99" s="2" t="s">
         <v>137</v>
       </c>
@@ -18703,7 +19366,7 @@
       <c r="K99" s="27"/>
       <c r="L99" s="27"/>
     </row>
-    <row r="100" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="9.75" customHeight="1">
       <c r="B100" s="2" t="s">
         <v>137</v>
       </c>
@@ -18735,7 +19398,7 @@
       <c r="K100" s="27"/>
       <c r="L100" s="27"/>
     </row>
-    <row r="101" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="9.75" customHeight="1">
       <c r="B101" s="2" t="s">
         <v>138</v>
       </c>
@@ -18767,7 +19430,7 @@
       <c r="K101" s="27"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="9.75" customHeight="1">
       <c r="B102" s="2" t="s">
         <v>138</v>
       </c>
@@ -18799,7 +19462,7 @@
       <c r="K102" s="27"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="9.75" customHeight="1">
       <c r="B103" s="2" t="s">
         <v>138</v>
       </c>
@@ -18831,7 +19494,7 @@
       <c r="K103" s="27"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="9.75" customHeight="1">
       <c r="B104" s="2" t="s">
         <v>138</v>
       </c>
@@ -18863,7 +19526,7 @@
       <c r="K104" s="27"/>
       <c r="L104" s="27"/>
     </row>
-    <row r="105" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="9.75" customHeight="1">
       <c r="B105" s="2" t="s">
         <v>138</v>
       </c>
@@ -18895,7 +19558,7 @@
       <c r="K105" s="27"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="9.75" customHeight="1">
       <c r="B106" s="2" t="s">
         <v>138</v>
       </c>
@@ -18927,7 +19590,7 @@
       <c r="K106" s="27"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="109" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="9.75" customHeight="1">
       <c r="A109" s="33"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -18941,7 +19604,7 @@
       <c r="K109" s="27"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="9.75" customHeight="1">
       <c r="A110" s="33"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -18955,7 +19618,7 @@
       <c r="K110" s="27"/>
       <c r="L110" s="27"/>
     </row>
-    <row r="111" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="9.75" customHeight="1">
       <c r="A111" s="33"/>
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
@@ -18969,7 +19632,7 @@
       <c r="K111" s="27"/>
       <c r="L111" s="27"/>
     </row>
-    <row r="112" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="9.75" customHeight="1">
       <c r="A112" s="33"/>
       <c r="B112" s="35"/>
       <c r="C112" s="35"/>
@@ -18983,7 +19646,7 @@
       <c r="K112" s="27"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="9.75" customHeight="1">
       <c r="A113" s="33"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>

--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\vich-file-creation\Files\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F17A2D-6394-4332-AD16-8D591856DCB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="12756" tabRatio="910"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="11070" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bizrule" sheetId="4" r:id="rId1"/>
@@ -15,9 +21,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">A1ToA4_mandatorychecks!$A$1:$N$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bizrule!$A$1:$S$80</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3229" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1330">
   <si>
     <t>y</t>
   </si>
@@ -4667,12 +4673,27 @@
   <si>
     <t>TC114_case_B32_MultipleAdvClinicalManifestation</t>
   </si>
+  <si>
+    <t>B13_speciescodeterm_removed</t>
+  </si>
+  <si>
+    <t>prevald err- mandatory failure</t>
+  </si>
+  <si>
+    <t>B8231_MessageReceiver_null_n_950</t>
+  </si>
+  <si>
+    <t>B815_VICHAERVersionN_null_n_886</t>
+  </si>
+  <si>
+    <t>adverse event report loaded; Validated against 3.00 business rules;                    Comments: Parsing process: Report with warnings;[[R200][vmp,B.2.5,B.2.5.1.1,B.2.5.1.2,B.2.5.1.3,B.2.5.1.4][200]]: The AER should contain valid Off label use answers based on the Off label use for the Target Species;                    Classification: new: EU-EC-20000010258 = Replaced Report - old: EU-EC-20000010258 = Case Report</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5041,7 +5062,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5076,7 +5097,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5120,7 +5141,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5164,7 +5185,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5208,7 +5229,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5492,45 +5513,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S113"/>
+  <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="64" collapsed="1"/>
-    <col min="3" max="3" width="9.109375" style="59" collapsed="1"/>
-    <col min="4" max="4" width="17.44140625" style="59" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.44140625" style="60" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.44140625" style="59" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.33203125" style="59" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.109375" style="59" collapsed="1"/>
-    <col min="9" max="9" width="17.5546875" style="59" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.33203125" style="68" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.5546875" style="64" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="42.88671875" style="65" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="9.140625" style="64" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="59" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" style="59" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" style="60" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.42578125" style="59" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="59" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="59" collapsed="1"/>
+    <col min="9" max="9" width="17.5703125" style="59" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.28515625" style="68" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.5703125" style="64" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="33.42578125" style="64" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="42.85546875" style="65" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="21" style="65" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="64.88671875" style="65" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="43.5546875" style="66" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.109375" style="64" collapsed="1"/>
+    <col min="17" max="17" width="64.85546875" style="65" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="43.5703125" style="66" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="64" collapsed="1"/>
     <col min="20" max="20" width="58" style="64" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.109375" style="64" collapsed="1"/>
+    <col min="21" max="16384" width="9.140625" style="64" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
@@ -5587,7 +5608,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>3</v>
       </c>
@@ -5643,7 +5664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>3</v>
       </c>
@@ -5699,7 +5720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
@@ -5755,7 +5776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
@@ -5809,7 +5830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
@@ -5863,7 +5884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>3</v>
       </c>
@@ -5915,7 +5936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>3</v>
       </c>
@@ -5971,7 +5992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>3</v>
       </c>
@@ -6027,7 +6048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>3</v>
       </c>
@@ -6083,7 +6104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>3</v>
       </c>
@@ -6139,7 +6160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>3</v>
       </c>
@@ -6191,7 +6212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>3</v>
       </c>
@@ -6243,7 +6264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>3</v>
       </c>
@@ -6293,7 +6314,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>3</v>
       </c>
@@ -6343,7 +6364,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>3</v>
       </c>
@@ -6393,7 +6414,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>3</v>
       </c>
@@ -6450,7 +6471,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>3</v>
       </c>
@@ -6507,7 +6528,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>3</v>
       </c>
@@ -6563,7 +6584,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>3</v>
       </c>
@@ -6619,7 +6640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>3</v>
       </c>
@@ -6675,7 +6696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>3</v>
       </c>
@@ -6731,7 +6752,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>3</v>
       </c>
@@ -6787,7 +6808,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>3</v>
       </c>
@@ -6843,7 +6864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>3</v>
       </c>
@@ -6899,7 +6920,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>3</v>
       </c>
@@ -6955,7 +6976,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54" t="s">
         <v>3</v>
       </c>
@@ -7011,7 +7032,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>3</v>
       </c>
@@ -7067,7 +7088,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>3</v>
       </c>
@@ -7123,7 +7144,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>3</v>
       </c>
@@ -7179,7 +7200,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>3</v>
       </c>
@@ -7235,7 +7256,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>3</v>
       </c>
@@ -7291,7 +7312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>3</v>
       </c>
@@ -7347,7 +7368,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
         <v>3</v>
       </c>
@@ -7397,7 +7418,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
         <v>3</v>
       </c>
@@ -7447,7 +7468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>3</v>
       </c>
@@ -7497,7 +7518,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>3</v>
       </c>
@@ -7549,7 +7570,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
         <v>3</v>
       </c>
@@ -7601,7 +7622,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
         <v>3</v>
       </c>
@@ -7651,7 +7672,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
         <v>3</v>
       </c>
@@ -7701,7 +7722,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
         <v>3</v>
       </c>
@@ -7755,7 +7776,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>3</v>
       </c>
@@ -7809,7 +7830,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>3</v>
       </c>
@@ -7863,7 +7884,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>3</v>
       </c>
@@ -7917,7 +7938,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>3</v>
       </c>
@@ -7971,7 +7992,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1">
+    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>3</v>
       </c>
@@ -8023,7 +8044,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
         <v>3</v>
       </c>
@@ -8069,7 +8090,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
         <v>3</v>
       </c>
@@ -8119,7 +8140,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>3</v>
       </c>
@@ -8171,7 +8192,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>3</v>
       </c>
@@ -8223,7 +8244,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
         <v>3</v>
       </c>
@@ -8275,7 +8296,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
         <v>3</v>
       </c>
@@ -8327,7 +8348,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
         <v>3</v>
       </c>
@@ -8379,7 +8400,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
         <v>3</v>
       </c>
@@ -8431,7 +8452,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
         <v>3</v>
       </c>
@@ -8484,7 +8505,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="9.75" customHeight="1">
+    <row r="56" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
         <v>3</v>
       </c>
@@ -8538,7 +8559,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="9.75" customHeight="1">
+    <row r="57" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
         <v>3</v>
       </c>
@@ -8590,7 +8611,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="9.75" customHeight="1">
+    <row r="58" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
         <v>3</v>
       </c>
@@ -8639,7 +8660,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="9.75" customHeight="1">
+    <row r="59" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>3</v>
       </c>
@@ -8692,7 +8713,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="9.75" customHeight="1">
+    <row r="60" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
         <v>3</v>
       </c>
@@ -8745,7 +8766,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="9.75" customHeight="1">
+    <row r="61" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
         <v>3</v>
       </c>
@@ -8798,7 +8819,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="9.75" customHeight="1">
+    <row r="62" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
         <v>3</v>
       </c>
@@ -8849,7 +8870,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="9.75" customHeight="1">
+    <row r="63" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
         <v>3</v>
       </c>
@@ -8900,7 +8921,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="9.75" customHeight="1">
+    <row r="64" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
         <v>3</v>
       </c>
@@ -8948,7 +8969,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="9.75" customHeight="1">
+    <row r="65" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54" t="s">
         <v>3</v>
       </c>
@@ -8996,7 +9017,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="9.75" customHeight="1">
+    <row r="66" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
         <v>3</v>
       </c>
@@ -9044,7 +9065,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="9.75" customHeight="1">
+    <row r="67" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
         <v>3</v>
       </c>
@@ -9092,7 +9113,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="9.75" customHeight="1">
+    <row r="68" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="54" t="s">
         <v>3</v>
       </c>
@@ -9140,7 +9161,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="9.75" customHeight="1">
+    <row r="69" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
         <v>3</v>
       </c>
@@ -9188,7 +9209,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="9.75" customHeight="1">
+    <row r="70" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
         <v>3</v>
       </c>
@@ -9236,7 +9257,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="9.75" customHeight="1">
+    <row r="71" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
         <v>3</v>
       </c>
@@ -9284,7 +9305,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="9.75" customHeight="1">
+    <row r="72" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
         <v>3</v>
       </c>
@@ -9332,7 +9353,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="9.75" customHeight="1">
+    <row r="73" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
         <v>3</v>
       </c>
@@ -9380,7 +9401,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="9.75" customHeight="1">
+    <row r="74" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
         <v>3</v>
       </c>
@@ -9427,7 +9448,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="9.75" customHeight="1">
+    <row r="75" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
         <v>3</v>
       </c>
@@ -9474,7 +9495,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="9.75" customHeight="1">
+    <row r="76" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="54" t="s">
         <v>3</v>
       </c>
@@ -9521,7 +9542,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="9.75" customHeight="1">
+    <row r="77" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="54" t="s">
         <v>3</v>
       </c>
@@ -9564,7 +9585,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="9.75" customHeight="1">
+    <row r="78" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
         <v>3</v>
       </c>
@@ -9607,7 +9628,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="9.75" customHeight="1">
+    <row r="79" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="54" t="s">
         <v>3</v>
       </c>
@@ -9654,7 +9675,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="9.75" customHeight="1">
+    <row r="80" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="54" t="s">
         <v>3</v>
       </c>
@@ -9701,7 +9722,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="9.75" customHeight="1">
+    <row r="81" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="54" t="s">
         <v>3</v>
       </c>
@@ -9730,7 +9751,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="9.75" customHeight="1">
+    <row r="82" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
         <v>3</v>
       </c>
@@ -9744,7 +9765,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="11.4">
+    <row r="83" spans="1:15" ht="12" x14ac:dyDescent="0.2">
       <c r="A83" s="54" t="s">
         <v>3</v>
       </c>
@@ -9758,7 +9779,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="45.6">
+    <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="54" t="s">
         <v>3</v>
       </c>
@@ -9775,7 +9796,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="9.75" customHeight="1">
+    <row r="85" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="54" t="s">
         <v>3</v>
       </c>
@@ -9789,7 +9810,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="9.75" customHeight="1">
+    <row r="86" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="54" t="s">
         <v>3</v>
       </c>
@@ -9803,7 +9824,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="9.75" customHeight="1">
+    <row r="87" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="54" t="s">
         <v>3</v>
       </c>
@@ -9817,7 +9838,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="9.75" customHeight="1">
+    <row r="88" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="54" t="s">
         <v>3</v>
       </c>
@@ -9831,7 +9852,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="9.75" customHeight="1">
+    <row r="89" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="54" t="s">
         <v>3</v>
       </c>
@@ -9845,7 +9866,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="9.75" customHeight="1">
+    <row r="90" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="54" t="s">
         <v>3</v>
       </c>
@@ -9859,7 +9880,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="9.75" customHeight="1">
+    <row r="91" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="54" t="s">
         <v>3</v>
       </c>
@@ -9873,7 +9894,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="9.75" customHeight="1">
+    <row r="92" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="54" t="s">
         <v>3</v>
       </c>
@@ -9887,7 +9908,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="9.75" customHeight="1">
+    <row r="93" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="54" t="s">
         <v>3</v>
       </c>
@@ -9901,7 +9922,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="9.75" customHeight="1">
+    <row r="94" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="54" t="s">
         <v>3</v>
       </c>
@@ -9918,7 +9939,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="9.75" customHeight="1">
+    <row r="95" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="54" t="s">
         <v>3</v>
       </c>
@@ -9935,7 +9956,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="32.25" customHeight="1">
+    <row r="96" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="54" t="s">
         <v>3</v>
       </c>
@@ -9949,7 +9970,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="9.75" customHeight="1">
+    <row r="97" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="54" t="s">
         <v>3</v>
       </c>
@@ -9963,7 +9984,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="34.200000000000003">
+    <row r="98" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A98" s="54" t="s">
         <v>3</v>
       </c>
@@ -9986,7 +10007,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="34.200000000000003">
+    <row r="99" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A99" s="54" t="s">
         <v>3</v>
       </c>
@@ -10000,7 +10021,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="22.8">
+    <row r="100" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A100" s="54" t="s">
         <v>3</v>
       </c>
@@ -10014,7 +10035,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="11.4">
+    <row r="101" spans="1:13" ht="12" x14ac:dyDescent="0.2">
       <c r="A101" s="54" t="s">
         <v>3</v>
       </c>
@@ -10028,7 +10049,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="22.8">
+    <row r="102" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A102" s="54" t="s">
         <v>3</v>
       </c>
@@ -10042,7 +10063,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="22.8">
+    <row r="103" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A103" s="54" t="s">
         <v>3</v>
       </c>
@@ -10056,7 +10077,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="34.200000000000003">
+    <row r="104" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A104" s="54" t="s">
         <v>3</v>
       </c>
@@ -10069,8 +10090,11 @@
       <c r="K104" s="64" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="45.6">
+      <c r="M104" s="64" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="54" t="s">
         <v>3</v>
       </c>
@@ -10084,7 +10108,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="22.8">
+    <row r="106" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A106" s="54" t="s">
         <v>3</v>
       </c>
@@ -10098,7 +10122,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="45.6">
+    <row r="107" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="54" t="s">
         <v>3</v>
       </c>
@@ -10112,7 +10136,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="9.75" customHeight="1">
+    <row r="108" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="54" t="s">
         <v>3</v>
       </c>
@@ -10126,7 +10150,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="22.8">
+    <row r="109" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A109" s="54" t="s">
         <v>3</v>
       </c>
@@ -10140,7 +10164,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="45.6">
+    <row r="110" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" s="54" t="s">
         <v>3</v>
       </c>
@@ -10154,7 +10178,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="34.200000000000003">
+    <row r="111" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A111" s="54" t="s">
         <v>3</v>
       </c>
@@ -10168,7 +10192,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="22.8">
+    <row r="112" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A112" s="64" t="s">
         <v>1291</v>
       </c>
@@ -10185,7 +10209,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="9.75" customHeight="1">
+    <row r="113" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="64" t="s">
         <v>1291</v>
       </c>
@@ -10200,6 +10224,29 @@
       </c>
       <c r="L113" s="64" t="s">
         <v>1290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K114" s="64" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M114" s="64" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K115" s="64" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K116" s="64" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K117" s="64" t="s">
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -10211,7 +10258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L138"/>
   <sheetViews>
@@ -10219,14 +10266,14 @@
       <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="12" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
@@ -10264,7 +10311,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -10304,7 +10351,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -10344,7 +10391,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
@@ -10384,7 +10431,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
@@ -10424,7 +10471,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -10464,7 +10511,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
@@ -10504,7 +10551,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
@@ -10544,7 +10591,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
@@ -10584,7 +10631,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
@@ -10624,7 +10671,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
@@ -10664,7 +10711,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
@@ -10704,7 +10751,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
@@ -10744,7 +10791,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>0</v>
       </c>
@@ -10784,7 +10831,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>0</v>
       </c>
@@ -10824,7 +10871,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>0</v>
       </c>
@@ -10864,7 +10911,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>0</v>
       </c>
@@ -10904,7 +10951,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>0</v>
       </c>
@@ -10944,7 +10991,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>0</v>
       </c>
@@ -10984,7 +11031,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>0</v>
       </c>
@@ -11024,7 +11071,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>0</v>
       </c>
@@ -11064,7 +11111,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>0</v>
       </c>
@@ -11104,7 +11151,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>0</v>
       </c>
@@ -11144,7 +11191,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>0</v>
       </c>
@@ -11184,7 +11231,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
@@ -11224,7 +11271,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -11264,7 +11311,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -11304,7 +11351,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -11344,7 +11391,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -11384,7 +11431,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>0</v>
       </c>
@@ -11424,7 +11471,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>0</v>
       </c>
@@ -11464,7 +11511,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>0</v>
       </c>
@@ -11504,7 +11551,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>0</v>
       </c>
@@ -11544,7 +11591,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>0</v>
       </c>
@@ -11584,7 +11631,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>0</v>
       </c>
@@ -11624,7 +11671,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
@@ -11664,7 +11711,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>0</v>
       </c>
@@ -11704,7 +11751,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>0</v>
       </c>
@@ -11744,7 +11791,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>0</v>
       </c>
@@ -11784,7 +11831,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>0</v>
       </c>
@@ -11824,7 +11871,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>0</v>
       </c>
@@ -11864,7 +11911,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>0</v>
       </c>
@@ -11904,7 +11951,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>0</v>
       </c>
@@ -11944,7 +11991,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>0</v>
       </c>
@@ -11984,7 +12031,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>0</v>
       </c>
@@ -12024,7 +12071,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>0</v>
       </c>
@@ -12064,7 +12111,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>0</v>
       </c>
@@ -12104,7 +12151,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>0</v>
       </c>
@@ -12144,7 +12191,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>0</v>
       </c>
@@ -12184,7 +12231,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>0</v>
       </c>
@@ -12224,7 +12271,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>0</v>
       </c>
@@ -12264,7 +12311,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>0</v>
       </c>
@@ -12304,7 +12351,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>0</v>
       </c>
@@ -12344,7 +12391,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>0</v>
       </c>
@@ -12384,7 +12431,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>0</v>
       </c>
@@ -12424,7 +12471,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>0</v>
       </c>
@@ -12464,7 +12511,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>0</v>
       </c>
@@ -12504,7 +12551,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>0</v>
       </c>
@@ -12544,7 +12591,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>0</v>
       </c>
@@ -12584,7 +12631,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>0</v>
       </c>
@@ -12624,7 +12671,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>0</v>
       </c>
@@ -12664,7 +12711,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>0</v>
       </c>
@@ -12704,7 +12751,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>0</v>
       </c>
@@ -12744,7 +12791,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>0</v>
       </c>
@@ -12784,7 +12831,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>0</v>
       </c>
@@ -12824,7 +12871,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>0</v>
       </c>
@@ -12864,7 +12911,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>0</v>
       </c>
@@ -12904,7 +12951,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>0</v>
       </c>
@@ -12944,7 +12991,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>0</v>
       </c>
@@ -12984,7 +13031,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>0</v>
       </c>
@@ -13024,7 +13071,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>0</v>
       </c>
@@ -13064,7 +13111,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
         <v>0</v>
       </c>
@@ -13104,7 +13151,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>0</v>
       </c>
@@ -13144,7 +13191,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
         <v>0</v>
       </c>
@@ -13184,7 +13231,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
         <v>0</v>
       </c>
@@ -13224,7 +13271,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
         <v>0</v>
       </c>
@@ -13264,7 +13311,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
         <v>0</v>
       </c>
@@ -13304,7 +13351,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>0</v>
       </c>
@@ -13344,7 +13391,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>0</v>
       </c>
@@ -13384,7 +13431,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>0</v>
       </c>
@@ -13424,7 +13471,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
         <v>0</v>
       </c>
@@ -13464,7 +13511,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>0</v>
       </c>
@@ -13504,7 +13551,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
         <v>0</v>
       </c>
@@ -13544,7 +13591,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
         <v>0</v>
       </c>
@@ -13584,7 +13631,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
         <v>0</v>
       </c>
@@ -13624,7 +13671,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
         <v>0</v>
       </c>
@@ -13664,7 +13711,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
         <v>0</v>
       </c>
@@ -13704,7 +13751,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
         <v>0</v>
       </c>
@@ -13744,7 +13791,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
         <v>0</v>
       </c>
@@ -13784,7 +13831,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
         <v>0</v>
       </c>
@@ -13824,7 +13871,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
         <v>0</v>
       </c>
@@ -13864,7 +13911,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>0</v>
       </c>
@@ -13904,7 +13951,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>0</v>
       </c>
@@ -13944,7 +13991,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
         <v>0</v>
       </c>
@@ -13984,7 +14031,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
         <v>0</v>
       </c>
@@ -14024,7 +14071,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
         <v>0</v>
       </c>
@@ -14064,7 +14111,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
         <v>0</v>
       </c>
@@ -14104,7 +14151,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>0</v>
       </c>
@@ -14144,7 +14191,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>0</v>
       </c>
@@ -14184,7 +14231,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
         <v>0</v>
       </c>
@@ -14224,7 +14271,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
         <v>0</v>
       </c>
@@ -14264,7 +14311,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
         <v>0</v>
       </c>
@@ -14304,7 +14351,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
         <v>0</v>
       </c>
@@ -14344,7 +14391,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
         <v>0</v>
       </c>
@@ -14384,7 +14431,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
         <v>0</v>
       </c>
@@ -14424,7 +14471,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
         <v>0</v>
       </c>
@@ -14464,7 +14511,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="33" t="s">
         <v>0</v>
       </c>
@@ -14504,7 +14551,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
         <v>0</v>
       </c>
@@ -14544,7 +14591,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
         <v>0</v>
       </c>
@@ -14584,7 +14631,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="33" t="s">
         <v>0</v>
       </c>
@@ -14624,7 +14671,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="33" t="s">
         <v>0</v>
       </c>
@@ -14664,7 +14711,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
         <v>0</v>
       </c>
@@ -14704,7 +14751,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
         <v>0</v>
       </c>
@@ -14744,7 +14791,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
         <v>0</v>
       </c>
@@ -14784,7 +14831,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
         <v>0</v>
       </c>
@@ -14824,7 +14871,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
         <v>0</v>
       </c>
@@ -14864,7 +14911,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
         <v>0</v>
       </c>
@@ -14904,7 +14951,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
         <v>0</v>
       </c>
@@ -14944,7 +14991,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
         <v>0</v>
       </c>
@@ -14984,7 +15031,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
         <v>0</v>
       </c>
@@ -15024,7 +15071,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
         <v>0</v>
       </c>
@@ -15064,7 +15111,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
         <v>0</v>
       </c>
@@ -15104,7 +15151,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
         <v>0</v>
       </c>
@@ -15144,7 +15191,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="33" t="s">
         <v>0</v>
       </c>
@@ -15184,7 +15231,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
         <v>0</v>
       </c>
@@ -15224,7 +15271,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>0</v>
       </c>
@@ -15264,7 +15311,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
         <v>0</v>
       </c>
@@ -15304,7 +15351,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
         <v>0</v>
       </c>
@@ -15344,7 +15391,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
         <v>0</v>
       </c>
@@ -15384,7 +15431,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
         <v>0</v>
       </c>
@@ -15424,7 +15471,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>0</v>
       </c>
@@ -15464,7 +15511,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
         <v>0</v>
       </c>
@@ -15504,7 +15551,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
         <v>0</v>
       </c>
@@ -15544,7 +15591,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="33" t="s">
         <v>0</v>
       </c>
@@ -15584,7 +15631,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
         <v>0</v>
       </c>
@@ -15624,7 +15671,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
         <v>0</v>
       </c>
@@ -15664,7 +15711,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
         <v>0</v>
       </c>
@@ -15704,7 +15751,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
         <v>0</v>
       </c>
@@ -15751,7 +15798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P113"/>
   <sheetViews>
@@ -15759,26 +15806,26 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="9.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.88671875" style="2" collapsed="1"/>
-    <col min="5" max="5" width="18.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.88671875" style="2" collapsed="1"/>
-    <col min="8" max="8" width="63.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="59.33203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="79.88671875" style="14" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="61.44140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="36.88671875" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.44140625" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="5.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.85546875" style="2" collapsed="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.85546875" style="2" collapsed="1"/>
+    <col min="8" max="8" width="63.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="59.28515625" style="14" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="79.85546875" style="14" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="61.42578125" style="14" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="36.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.42578125" style="15" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="5.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="9.75" customHeight="1">
+    <row r="1" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -15822,7 +15869,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="9.75" customHeight="1">
+    <row r="2" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>127</v>
@@ -15861,7 +15908,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="9.75" customHeight="1">
+    <row r="3" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>127</v>
@@ -15896,7 +15943,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="9.75" customHeight="1">
+    <row r="4" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>128</v>
@@ -15931,7 +15978,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="9.75" customHeight="1">
+    <row r="5" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>65</v>
@@ -15966,7 +16013,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="9.75" customHeight="1">
+    <row r="6" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="21" t="s">
         <v>73</v>
@@ -16005,7 +16052,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="9.75" customHeight="1">
+    <row r="7" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>129</v>
@@ -16040,7 +16087,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="9.75" customHeight="1">
+    <row r="8" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>130</v>
@@ -16075,7 +16122,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="9.75" customHeight="1">
+    <row r="9" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>66</v>
@@ -16112,7 +16159,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="9.75" customHeight="1">
+    <row r="10" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>131</v>
@@ -16147,7 +16194,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="9.75" customHeight="1">
+    <row r="11" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>132</v>
@@ -16182,7 +16229,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="9.75" customHeight="1">
+    <row r="12" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="21" t="s">
         <v>74</v>
@@ -16219,7 +16266,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="9.75" customHeight="1">
+    <row r="13" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>133</v>
@@ -16254,7 +16301,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="9.75" customHeight="1">
+    <row r="14" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>134</v>
@@ -16289,7 +16336,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="9.75" customHeight="1">
+    <row r="15" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="22" t="s">
         <v>75</v>
@@ -16329,7 +16376,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="9.75" customHeight="1">
+    <row r="16" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="22" t="s">
         <v>76</v>
@@ -16369,7 +16416,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="9.75" customHeight="1">
+    <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="22" t="s">
         <v>77</v>
@@ -16409,7 +16456,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="9.75" customHeight="1">
+    <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>78</v>
@@ -16449,7 +16496,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="9.75" customHeight="1">
+    <row r="19" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>79</v>
@@ -16489,7 +16536,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="9.75" customHeight="1">
+    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>80</v>
@@ -16529,7 +16576,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="9.75" customHeight="1">
+    <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="12" t="s">
         <v>67</v>
@@ -16565,7 +16612,7 @@
       <c r="N21" s="8"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="9.75" customHeight="1">
+    <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -16610,7 +16657,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="9.75" customHeight="1">
+    <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -16655,7 +16702,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="9.75" customHeight="1">
+    <row r="24" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -16700,7 +16747,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="9.75" customHeight="1">
+    <row r="25" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
@@ -16740,7 +16787,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="1:16" ht="9.75" customHeight="1">
+    <row r="26" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -16779,7 +16826,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="9.75" customHeight="1">
+    <row r="27" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -16818,7 +16865,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="9.75" customHeight="1">
+    <row r="28" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -16857,7 +16904,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="9.75" customHeight="1">
+    <row r="29" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -16896,7 +16943,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="9.75" customHeight="1">
+    <row r="30" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>0</v>
       </c>
@@ -16932,7 +16979,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="9.75" customHeight="1">
+    <row r="31" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -16971,7 +17018,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="9.75" customHeight="1">
+    <row r="32" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -17014,7 +17061,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="9.75" customHeight="1">
+    <row r="33" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>64</v>
@@ -17054,7 +17101,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="9.75" customHeight="1">
+    <row r="34" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
@@ -17094,7 +17141,7 @@
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="9.75" customHeight="1">
+    <row r="35" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>83</v>
@@ -17134,7 +17181,7 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="9.75" customHeight="1">
+    <row r="36" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>84</v>
@@ -17174,7 +17221,7 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="9.75" customHeight="1">
+    <row r="37" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>85</v>
@@ -17214,7 +17261,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="9.75" customHeight="1">
+    <row r="38" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>86</v>
@@ -17254,7 +17301,7 @@
       </c>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="9.75" customHeight="1">
+    <row r="39" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>87</v>
@@ -17294,7 +17341,7 @@
       </c>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="9.75" customHeight="1">
+    <row r="40" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>88</v>
@@ -17334,7 +17381,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="9.75" customHeight="1">
+    <row r="41" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>89</v>
@@ -17374,7 +17421,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="9.75" customHeight="1">
+    <row r="42" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>135</v>
@@ -17414,7 +17461,7 @@
       </c>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="9.75" customHeight="1">
+    <row r="43" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>135</v>
@@ -17453,7 +17500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="9.75" customHeight="1">
+    <row r="44" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>135</v>
@@ -17488,7 +17535,7 @@
       <c r="M44" s="18"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:16" ht="9.75" customHeight="1">
+    <row r="45" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>135</v>
@@ -17525,7 +17572,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:16" ht="9.75" customHeight="1">
+    <row r="46" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>90</v>
@@ -17565,7 +17612,7 @@
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="9.75" customHeight="1">
+    <row r="47" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>91</v>
@@ -17605,7 +17652,7 @@
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" ht="9.75" customHeight="1">
+    <row r="48" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>92</v>
@@ -17645,7 +17692,7 @@
       </c>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="9.75" customHeight="1">
+    <row r="49" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
         <v>93</v>
@@ -17685,7 +17732,7 @@
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="9.75" customHeight="1">
+    <row r="50" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
         <v>94</v>
@@ -17723,7 +17770,7 @@
       </c>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="9.75" customHeight="1">
+    <row r="51" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>95</v>
@@ -17763,7 +17810,7 @@
       </c>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="9.75" customHeight="1">
+    <row r="52" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
         <v>96</v>
@@ -17803,7 +17850,7 @@
       </c>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="9.75" customHeight="1">
+    <row r="53" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
         <v>97</v>
@@ -17843,7 +17890,7 @@
       </c>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="9.75" customHeight="1">
+    <row r="54" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>98</v>
@@ -17883,7 +17930,7 @@
       </c>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" ht="9.75" customHeight="1">
+    <row r="55" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
         <v>99</v>
@@ -17923,7 +17970,7 @@
       </c>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" ht="9.75" customHeight="1">
+    <row r="56" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>100</v>
@@ -17963,7 +18010,7 @@
       </c>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="9.75" customHeight="1">
+    <row r="57" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>136</v>
@@ -18002,7 +18049,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="9.75" customHeight="1">
+    <row r="58" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>136</v>
@@ -18037,7 +18084,7 @@
       <c r="M58" s="18"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="9.75" customHeight="1">
+    <row r="59" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>137</v>
@@ -18076,7 +18123,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="9.75" customHeight="1">
+    <row r="60" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>137</v>
@@ -18111,7 +18158,7 @@
       <c r="M60" s="18"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:16" ht="9.75" customHeight="1">
+    <row r="61" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>138</v>
@@ -18150,7 +18197,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="9.75" customHeight="1">
+    <row r="62" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>138</v>
@@ -18185,7 +18232,7 @@
       <c r="M62" s="18"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="9.75" customHeight="1">
+    <row r="63" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>140</v>
@@ -18222,7 +18269,7 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:16" ht="9.75" customHeight="1">
+    <row r="64" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
         <v>101</v>
@@ -18262,7 +18309,7 @@
       </c>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="2:16" ht="9.75" customHeight="1">
+    <row r="65" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
@@ -18297,7 +18344,7 @@
       <c r="N65" s="27"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="2:16" ht="9.75" customHeight="1">
+    <row r="66" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="27"/>
@@ -18312,7 +18359,7 @@
       <c r="N66" s="27"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="2:16" ht="9.75" customHeight="1">
+    <row r="67" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>218</v>
       </c>
@@ -18349,7 +18396,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="9.75" customHeight="1">
+    <row r="68" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
@@ -18381,7 +18428,7 @@
       <c r="K68" s="27"/>
       <c r="L68" s="27"/>
     </row>
-    <row r="69" spans="2:16" ht="9.75" customHeight="1">
+    <row r="69" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>80</v>
       </c>
@@ -18413,7 +18460,7 @@
       <c r="K69" s="27"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="2:16" ht="9.75" customHeight="1">
+    <row r="70" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>80</v>
       </c>
@@ -18445,7 +18492,7 @@
       <c r="K70" s="27"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="2:16" ht="9.75" customHeight="1">
+    <row r="71" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>80</v>
       </c>
@@ -18477,7 +18524,7 @@
       <c r="K71" s="27"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="2:16" ht="9.75" customHeight="1">
+    <row r="72" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>217</v>
       </c>
@@ -18507,7 +18554,7 @@
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="2:16" ht="9.75" customHeight="1">
+    <row r="73" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>217</v>
       </c>
@@ -18537,7 +18584,7 @@
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="2:16" ht="9.75" customHeight="1">
+    <row r="74" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>217</v>
       </c>
@@ -18566,7 +18613,7 @@
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="2:16" ht="9.75" customHeight="1">
+    <row r="75" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>78</v>
       </c>
@@ -18598,7 +18645,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="2:16" ht="9.75" customHeight="1">
+    <row r="76" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>78</v>
       </c>
@@ -18630,7 +18677,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="2:16" ht="9.75" customHeight="1">
+    <row r="77" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
@@ -18662,7 +18709,7 @@
       <c r="K77" s="27"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="2:16" ht="9.75" customHeight="1">
+    <row r="78" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
@@ -18694,7 +18741,7 @@
       <c r="K78" s="27"/>
       <c r="L78" s="27"/>
     </row>
-    <row r="79" spans="2:16" ht="9.75" customHeight="1">
+    <row r="79" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>84</v>
       </c>
@@ -18726,7 +18773,7 @@
       <c r="K79" s="27"/>
       <c r="L79" s="27"/>
     </row>
-    <row r="80" spans="2:16" ht="9.75" customHeight="1">
+    <row r="80" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>136</v>
       </c>
@@ -18758,7 +18805,7 @@
       <c r="K80" s="27"/>
       <c r="L80" s="27"/>
     </row>
-    <row r="81" spans="2:12" ht="9.75" customHeight="1">
+    <row r="81" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>136</v>
       </c>
@@ -18790,7 +18837,7 @@
       <c r="K81" s="27"/>
       <c r="L81" s="27"/>
     </row>
-    <row r="82" spans="2:12" ht="9.75" customHeight="1">
+    <row r="82" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>136</v>
       </c>
@@ -18822,7 +18869,7 @@
       <c r="K82" s="27"/>
       <c r="L82" s="27"/>
     </row>
-    <row r="83" spans="2:12" ht="9.75" customHeight="1">
+    <row r="83" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>136</v>
       </c>
@@ -18854,7 +18901,7 @@
       <c r="K83" s="27"/>
       <c r="L83" s="27"/>
     </row>
-    <row r="84" spans="2:12" ht="9.75" customHeight="1">
+    <row r="84" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>136</v>
       </c>
@@ -18886,7 +18933,7 @@
       <c r="K84" s="27"/>
       <c r="L84" s="27"/>
     </row>
-    <row r="85" spans="2:12" ht="9.75" customHeight="1">
+    <row r="85" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>136</v>
       </c>
@@ -18918,7 +18965,7 @@
       <c r="K85" s="27"/>
       <c r="L85" s="27"/>
     </row>
-    <row r="86" spans="2:12" ht="9.75" customHeight="1">
+    <row r="86" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>136</v>
       </c>
@@ -18950,7 +18997,7 @@
       <c r="K86" s="27"/>
       <c r="L86" s="27"/>
     </row>
-    <row r="87" spans="2:12" ht="9.75" customHeight="1">
+    <row r="87" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>136</v>
       </c>
@@ -18982,7 +19029,7 @@
       <c r="K87" s="27"/>
       <c r="L87" s="27"/>
     </row>
-    <row r="88" spans="2:12" ht="9.75" customHeight="1">
+    <row r="88" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
@@ -19014,7 +19061,7 @@
       <c r="K88" s="27"/>
       <c r="L88" s="27"/>
     </row>
-    <row r="89" spans="2:12" ht="9.75" customHeight="1">
+    <row r="89" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>136</v>
       </c>
@@ -19046,7 +19093,7 @@
       <c r="K89" s="27"/>
       <c r="L89" s="27"/>
     </row>
-    <row r="90" spans="2:12" ht="9.75" customHeight="1">
+    <row r="90" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>137</v>
       </c>
@@ -19078,7 +19125,7 @@
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
     </row>
-    <row r="91" spans="2:12" ht="9.75" customHeight="1">
+    <row r="91" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>137</v>
       </c>
@@ -19110,7 +19157,7 @@
       <c r="K91" s="27"/>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="2:12" ht="9.75" customHeight="1">
+    <row r="92" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>137</v>
       </c>
@@ -19142,7 +19189,7 @@
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
     </row>
-    <row r="93" spans="2:12" ht="9.75" customHeight="1">
+    <row r="93" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>137</v>
       </c>
@@ -19174,7 +19221,7 @@
       <c r="K93" s="27"/>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="2:12" ht="9.75" customHeight="1">
+    <row r="94" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>137</v>
       </c>
@@ -19206,7 +19253,7 @@
       <c r="K94" s="27"/>
       <c r="L94" s="27"/>
     </row>
-    <row r="95" spans="2:12" ht="9.75" customHeight="1">
+    <row r="95" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>137</v>
       </c>
@@ -19238,7 +19285,7 @@
       <c r="K95" s="27"/>
       <c r="L95" s="27"/>
     </row>
-    <row r="96" spans="2:12" ht="9.75" customHeight="1">
+    <row r="96" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>137</v>
       </c>
@@ -19270,7 +19317,7 @@
       <c r="K96" s="27"/>
       <c r="L96" s="27"/>
     </row>
-    <row r="97" spans="1:12" ht="9.75" customHeight="1">
+    <row r="97" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>137</v>
       </c>
@@ -19302,7 +19349,7 @@
       <c r="K97" s="27"/>
       <c r="L97" s="27"/>
     </row>
-    <row r="98" spans="1:12" ht="9.75" customHeight="1">
+    <row r="98" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>137</v>
       </c>
@@ -19334,7 +19381,7 @@
       <c r="K98" s="27"/>
       <c r="L98" s="27"/>
     </row>
-    <row r="99" spans="1:12" ht="9.75" customHeight="1">
+    <row r="99" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>137</v>
       </c>
@@ -19366,7 +19413,7 @@
       <c r="K99" s="27"/>
       <c r="L99" s="27"/>
     </row>
-    <row r="100" spans="1:12" ht="9.75" customHeight="1">
+    <row r="100" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
         <v>137</v>
       </c>
@@ -19398,7 +19445,7 @@
       <c r="K100" s="27"/>
       <c r="L100" s="27"/>
     </row>
-    <row r="101" spans="1:12" ht="9.75" customHeight="1">
+    <row r="101" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>138</v>
       </c>
@@ -19430,7 +19477,7 @@
       <c r="K101" s="27"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="1:12" ht="9.75" customHeight="1">
+    <row r="102" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>138</v>
       </c>
@@ -19462,7 +19509,7 @@
       <c r="K102" s="27"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="1:12" ht="9.75" customHeight="1">
+    <row r="103" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>138</v>
       </c>
@@ -19494,7 +19541,7 @@
       <c r="K103" s="27"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="1:12" ht="9.75" customHeight="1">
+    <row r="104" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>138</v>
       </c>
@@ -19526,7 +19573,7 @@
       <c r="K104" s="27"/>
       <c r="L104" s="27"/>
     </row>
-    <row r="105" spans="1:12" ht="9.75" customHeight="1">
+    <row r="105" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
         <v>138</v>
       </c>
@@ -19558,7 +19605,7 @@
       <c r="K105" s="27"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="1:12" ht="9.75" customHeight="1">
+    <row r="106" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>138</v>
       </c>
@@ -19590,7 +19637,7 @@
       <c r="K106" s="27"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="109" spans="1:12" ht="9.75" customHeight="1">
+    <row r="109" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="33"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -19604,7 +19651,7 @@
       <c r="K109" s="27"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="1:12" ht="9.75" customHeight="1">
+    <row r="110" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -19618,7 +19665,7 @@
       <c r="K110" s="27"/>
       <c r="L110" s="27"/>
     </row>
-    <row r="111" spans="1:12" ht="9.75" customHeight="1">
+    <row r="111" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="33"/>
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
@@ -19632,7 +19679,7 @@
       <c r="K111" s="27"/>
       <c r="L111" s="27"/>
     </row>
-    <row r="112" spans="1:12" ht="9.75" customHeight="1">
+    <row r="112" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="35"/>
       <c r="C112" s="35"/>
@@ -19646,7 +19693,7 @@
       <c r="K112" s="27"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" ht="9.75" customHeight="1">
+    <row r="113" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="33"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>

--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\vich-file-creation\Files\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F17A2D-6394-4332-AD16-8D591856DCB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="11070" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="11076" tabRatio="910"/>
   </bookViews>
   <sheets>
     <sheet name="bizrule" sheetId="4" r:id="rId1"/>
@@ -21,9 +15,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">A1ToA4_mandatorychecks!$A$1:$N$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bizrule!$A$1:$S$80</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="1344">
   <si>
     <t>y</t>
   </si>
@@ -4688,12 +4682,67 @@
   <si>
     <t>adverse event report loaded; Validated against 3.00 business rules;                    Comments: Parsing process: Report with warnings;[[R200][vmp,B.2.5,B.2.5.1.1,B.2.5.1.2,B.2.5.1.3,B.2.5.1.4][200]]: The AER should contain valid Off label use answers based on the Off label use for the Target Species;                    Classification: new: EU-EC-20000010258 = Replaced Report - old: EU-EC-20000010258 = Case Report</t>
   </si>
+  <si>
+    <t>adverse event report not loaded;
+                    Comments: Parsing process: report with mandatory check violations
+Indication Off-Label must have a value or a null flavour;Other off label issue must have a value or a null flavour;Overdosed must have a value or a null flavour;Product expired must have a value or a null flavour;Route Off-Label must have a value or a null flavour;Species Off-Label must have a value or a null flavour;Storage condition Off-Label must have a value or a null flavour;Treatment regimen Off-Label must have a value or a null flavour;Underdosed must have a value or a null flavour;Use According to Label must have a value or a null flavour;</t>
+  </si>
+  <si>
+    <t>TC116_B25_offLable_repeated_n</t>
+  </si>
+  <si>
+    <t>adverse event report not loaded;
+                    Comments: Parsing process: report with mandatory check violations
+A maximum of 1 who administered code can occur in the substance administration;</t>
+  </si>
+  <si>
+    <t>TC115_B24_whoAdministeredVMP_Repeated_n</t>
+  </si>
+  <si>
+    <t>adverse event report loaded; Validated against 3.00 business rules;
+                    Comments: Parsing process: Report with warnings;</t>
+  </si>
+  <si>
+    <t>adverse event report not loaded; Validated against 3.00 business rules;
+                    Comments: Parsing process: Report with errors;
+$.reports[0].animalData.breedCrossCodes: the items in the array must be unique;</t>
+  </si>
+  <si>
+    <t>1: Fatal Error: At (207, 14): Open quote is expected for attribute "displayName" associated with an  element type  "code".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error: At (89, 35): cvc-complex-type.2.4.a: Invalid content was found starting with element 'text'. One of '{"urn:hl7-org:v3":effectiveTime, "urn:hl7-org:v3":availabilityTime, "urn:hl7-org:v3":confidentialityCode, "urn:hl7-org:v3":participation, "urn:hl7-org:v3":reference, "urn:hl7-org:v3":component, "urn:hl7-org:v3":outboundRelationship, "urn:hl7-org:v3":subjectOf1, "urn:hl7-org:v3":subjectOf2}' is expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC117_B31_NarrativeofAE_repeated_n-N
+</t>
+  </si>
+  <si>
+    <t>adverse event report not loaded; Validated against 3.00 business rules;
+                    Comments: Parsing process: Report with errors;
+$.reports[0].animalData.breedCrossCodes: the items in the array must be unique;$.reports[0].animalData.breedPureCodes: the items in the array must be unique;</t>
+  </si>
+  <si>
+    <t>rerun</t>
+  </si>
+  <si>
+    <t>adverse event report not loaded;
+                    Comments: Parsing process: report with mandatory check violations
+Female physiological status must have code or null flavour;</t>
+  </si>
+  <si>
+    <t>adverse event report not loaded;
+                    Comments: Parsing process: report mandatory checks passed;</t>
+  </si>
+  <si>
+    <t>B814_dtofBatchCreation_265_null_mand_1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4842,7 +4891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5059,10 +5108,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5097,7 +5147,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5132,7 +5182,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>487504</xdr:colOff>
+      <xdr:colOff>487505</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>114377</xdr:rowOff>
     </xdr:to>
@@ -5141,7 +5191,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5185,7 +5235,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5220,7 +5270,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>180734</xdr:colOff>
+      <xdr:colOff>180735</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>72987</xdr:rowOff>
     </xdr:to>
@@ -5229,7 +5279,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5513,45 +5563,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="64" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="59" collapsed="1"/>
-    <col min="4" max="4" width="17.42578125" style="59" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" style="60" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.42578125" style="59" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="59" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="59" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" style="59" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.28515625" style="68" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.5703125" style="64" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="33.42578125" style="64" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="42.85546875" style="65" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="9.109375" style="64" collapsed="1"/>
+    <col min="3" max="3" width="9.109375" style="59" collapsed="1"/>
+    <col min="4" max="4" width="17.44140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.44140625" style="60" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.44140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.33203125" style="59" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.109375" style="59" collapsed="1"/>
+    <col min="9" max="9" width="17.5546875" style="59" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.33203125" style="68" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.5546875" style="64" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="37.21875" style="64" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="42.88671875" style="65" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="21" style="65" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="64.85546875" style="65" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="43.5703125" style="66" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="64" collapsed="1"/>
+    <col min="17" max="17" width="64.88671875" style="65" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="43.5546875" style="66" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.109375" style="64" collapsed="1"/>
     <col min="20" max="20" width="58" style="64" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="64" collapsed="1"/>
+    <col min="21" max="16384" width="9.109375" style="64" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
@@ -5608,7 +5660,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A2" s="54" t="s">
         <v>3</v>
       </c>
@@ -5664,7 +5716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A3" s="54" t="s">
         <v>3</v>
       </c>
@@ -5720,7 +5772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
@@ -5776,7 +5828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
@@ -5830,7 +5882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
@@ -5884,7 +5936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A7" s="54" t="s">
         <v>3</v>
       </c>
@@ -5936,7 +5988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A8" s="54" t="s">
         <v>3</v>
       </c>
@@ -5992,7 +6044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A9" s="54" t="s">
         <v>3</v>
       </c>
@@ -6048,7 +6100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A10" s="54" t="s">
         <v>3</v>
       </c>
@@ -6104,7 +6156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A11" s="54" t="s">
         <v>3</v>
       </c>
@@ -6160,7 +6212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A12" s="54" t="s">
         <v>3</v>
       </c>
@@ -6212,7 +6264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A13" s="54" t="s">
         <v>3</v>
       </c>
@@ -6264,7 +6316,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="54" t="s">
         <v>3</v>
       </c>
@@ -6314,7 +6366,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A15" s="54" t="s">
         <v>3</v>
       </c>
@@ -6364,7 +6416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A16" s="54" t="s">
         <v>3</v>
       </c>
@@ -6414,7 +6466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A17" s="54" t="s">
         <v>3</v>
       </c>
@@ -6471,7 +6523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A18" s="54" t="s">
         <v>3</v>
       </c>
@@ -6528,7 +6580,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A19" s="54" t="s">
         <v>3</v>
       </c>
@@ -6584,7 +6636,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A20" s="54" t="s">
         <v>3</v>
       </c>
@@ -6640,7 +6692,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A21" s="54" t="s">
         <v>3</v>
       </c>
@@ -6696,7 +6748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A22" s="54" t="s">
         <v>3</v>
       </c>
@@ -6752,7 +6804,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A23" s="54" t="s">
         <v>3</v>
       </c>
@@ -6808,7 +6860,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A24" s="54" t="s">
         <v>3</v>
       </c>
@@ -6864,7 +6916,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A25" s="54" t="s">
         <v>3</v>
       </c>
@@ -6920,7 +6972,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A26" s="54" t="s">
         <v>3</v>
       </c>
@@ -6976,7 +7028,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A27" s="54" t="s">
         <v>3</v>
       </c>
@@ -7032,7 +7084,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A28" s="54" t="s">
         <v>3</v>
       </c>
@@ -7088,7 +7140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A29" s="54" t="s">
         <v>3</v>
       </c>
@@ -7144,7 +7196,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A30" s="54" t="s">
         <v>3</v>
       </c>
@@ -7200,7 +7252,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A31" s="54" t="s">
         <v>3</v>
       </c>
@@ -7256,7 +7308,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A32" s="54" t="s">
         <v>3</v>
       </c>
@@ -7312,7 +7364,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A33" s="54" t="s">
         <v>3</v>
       </c>
@@ -7368,7 +7420,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A34" s="54" t="s">
         <v>3</v>
       </c>
@@ -7418,7 +7470,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A35" s="54" t="s">
         <v>3</v>
       </c>
@@ -7468,7 +7520,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A36" s="54" t="s">
         <v>3</v>
       </c>
@@ -7518,7 +7570,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A37" s="54" t="s">
         <v>3</v>
       </c>
@@ -7570,7 +7622,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A38" s="54" t="s">
         <v>3</v>
       </c>
@@ -7622,7 +7674,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A39" s="54" t="s">
         <v>3</v>
       </c>
@@ -7672,7 +7724,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A40" s="54" t="s">
         <v>3</v>
       </c>
@@ -7722,7 +7774,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A41" s="54" t="s">
         <v>3</v>
       </c>
@@ -7776,7 +7828,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A42" s="54" t="s">
         <v>3</v>
       </c>
@@ -7830,7 +7882,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A43" s="54" t="s">
         <v>3</v>
       </c>
@@ -7884,7 +7936,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A44" s="54" t="s">
         <v>3</v>
       </c>
@@ -7938,7 +7990,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A45" s="54" t="s">
         <v>3</v>
       </c>
@@ -7992,7 +8044,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1">
       <c r="A46" s="54" t="s">
         <v>3</v>
       </c>
@@ -8044,7 +8096,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A47" s="54" t="s">
         <v>3</v>
       </c>
@@ -8090,7 +8142,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A48" s="54" t="s">
         <v>3</v>
       </c>
@@ -8140,7 +8192,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A49" s="54" t="s">
         <v>3</v>
       </c>
@@ -8192,7 +8244,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A50" s="54" t="s">
         <v>3</v>
       </c>
@@ -8244,7 +8296,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A51" s="54" t="s">
         <v>3</v>
       </c>
@@ -8296,7 +8348,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A52" s="54" t="s">
         <v>3</v>
       </c>
@@ -8348,7 +8400,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A53" s="54" t="s">
         <v>3</v>
       </c>
@@ -8400,7 +8452,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A54" s="54" t="s">
         <v>3</v>
       </c>
@@ -8452,7 +8504,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A55" s="54" t="s">
         <v>3</v>
       </c>
@@ -8505,7 +8557,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="9.75" customHeight="1">
       <c r="A56" s="54" t="s">
         <v>3</v>
       </c>
@@ -8559,7 +8611,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="9.75" customHeight="1">
       <c r="A57" s="54" t="s">
         <v>3</v>
       </c>
@@ -8611,7 +8663,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="9.75" customHeight="1">
       <c r="A58" s="54" t="s">
         <v>3</v>
       </c>
@@ -8660,7 +8712,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="9.75" customHeight="1">
       <c r="A59" s="54" t="s">
         <v>3</v>
       </c>
@@ -8713,7 +8765,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="9.75" customHeight="1">
       <c r="A60" s="54" t="s">
         <v>3</v>
       </c>
@@ -8766,7 +8818,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="9.75" customHeight="1">
       <c r="A61" s="54" t="s">
         <v>3</v>
       </c>
@@ -8819,7 +8871,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="9.75" customHeight="1">
       <c r="A62" s="54" t="s">
         <v>3</v>
       </c>
@@ -8870,7 +8922,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="9.75" customHeight="1">
       <c r="A63" s="54" t="s">
         <v>3</v>
       </c>
@@ -8921,7 +8973,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="9.75" customHeight="1">
       <c r="A64" s="54" t="s">
         <v>3</v>
       </c>
@@ -8969,7 +9021,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="9.75" customHeight="1">
       <c r="A65" s="54" t="s">
         <v>3</v>
       </c>
@@ -9017,7 +9069,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="9.75" customHeight="1">
       <c r="A66" s="54" t="s">
         <v>3</v>
       </c>
@@ -9065,7 +9117,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="9.75" customHeight="1">
       <c r="A67" s="54" t="s">
         <v>3</v>
       </c>
@@ -9113,7 +9165,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="9.75" customHeight="1">
       <c r="A68" s="54" t="s">
         <v>3</v>
       </c>
@@ -9161,7 +9213,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="9.75" customHeight="1">
       <c r="A69" s="54" t="s">
         <v>3</v>
       </c>
@@ -9209,7 +9261,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="9.75" customHeight="1">
       <c r="A70" s="54" t="s">
         <v>3</v>
       </c>
@@ -9257,7 +9309,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="9.75" customHeight="1">
       <c r="A71" s="54" t="s">
         <v>3</v>
       </c>
@@ -9305,7 +9357,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="9.75" customHeight="1">
       <c r="A72" s="54" t="s">
         <v>3</v>
       </c>
@@ -9353,7 +9405,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="9.75" customHeight="1">
       <c r="A73" s="54" t="s">
         <v>3</v>
       </c>
@@ -9401,7 +9453,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="9.75" customHeight="1">
       <c r="A74" s="54" t="s">
         <v>3</v>
       </c>
@@ -9448,7 +9500,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="9.75" customHeight="1">
       <c r="A75" s="54" t="s">
         <v>3</v>
       </c>
@@ -9495,7 +9547,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="9.75" customHeight="1">
       <c r="A76" s="54" t="s">
         <v>3</v>
       </c>
@@ -9542,7 +9594,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="9.75" customHeight="1">
       <c r="A77" s="54" t="s">
         <v>3</v>
       </c>
@@ -9585,7 +9637,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="9.75" customHeight="1">
       <c r="A78" s="54" t="s">
         <v>3</v>
       </c>
@@ -9628,7 +9680,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="9.75" customHeight="1">
       <c r="A79" s="54" t="s">
         <v>3</v>
       </c>
@@ -9675,7 +9727,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="9.75" customHeight="1">
       <c r="A80" s="54" t="s">
         <v>3</v>
       </c>
@@ -9722,7 +9774,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="9.75" customHeight="1">
       <c r="A81" s="54" t="s">
         <v>3</v>
       </c>
@@ -9751,7 +9803,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="9.75" customHeight="1">
       <c r="A82" s="54" t="s">
         <v>3</v>
       </c>
@@ -9765,7 +9817,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="11.4">
       <c r="A83" s="54" t="s">
         <v>3</v>
       </c>
@@ -9779,7 +9831,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="45.6">
       <c r="A84" s="54" t="s">
         <v>3</v>
       </c>
@@ -9796,7 +9848,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="9.75" customHeight="1">
       <c r="A85" s="54" t="s">
         <v>3</v>
       </c>
@@ -9810,7 +9862,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="9.75" customHeight="1">
       <c r="A86" s="54" t="s">
         <v>3</v>
       </c>
@@ -9824,7 +9876,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="9.75" customHeight="1">
       <c r="A87" s="54" t="s">
         <v>3</v>
       </c>
@@ -9838,7 +9890,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="9.75" customHeight="1">
       <c r="A88" s="54" t="s">
         <v>3</v>
       </c>
@@ -9852,7 +9904,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="9.75" customHeight="1">
       <c r="A89" s="54" t="s">
         <v>3</v>
       </c>
@@ -9866,7 +9918,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="9.75" customHeight="1">
       <c r="A90" s="54" t="s">
         <v>3</v>
       </c>
@@ -9880,7 +9932,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="9.75" customHeight="1">
       <c r="A91" s="54" t="s">
         <v>3</v>
       </c>
@@ -9894,7 +9946,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="9.75" customHeight="1">
       <c r="A92" s="54" t="s">
         <v>3</v>
       </c>
@@ -9908,7 +9960,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="9.75" customHeight="1">
       <c r="A93" s="54" t="s">
         <v>3</v>
       </c>
@@ -9922,7 +9974,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="9.75" customHeight="1">
       <c r="A94" s="54" t="s">
         <v>3</v>
       </c>
@@ -9939,7 +9991,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="9.75" customHeight="1">
       <c r="A95" s="54" t="s">
         <v>3</v>
       </c>
@@ -9956,7 +10008,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="32.25" customHeight="1">
       <c r="A96" s="54" t="s">
         <v>3</v>
       </c>
@@ -9970,7 +10022,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="9.75" customHeight="1">
       <c r="A97" s="54" t="s">
         <v>3</v>
       </c>
@@ -9984,7 +10036,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="34.200000000000003">
       <c r="A98" s="54" t="s">
         <v>3</v>
       </c>
@@ -10007,7 +10059,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="114">
       <c r="A99" s="54" t="s">
         <v>3</v>
       </c>
@@ -10020,8 +10072,11 @@
       <c r="K99" s="64" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M99" s="65" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="91.2">
       <c r="A100" s="54" t="s">
         <v>3</v>
       </c>
@@ -10034,8 +10089,11 @@
       <c r="K100" s="64" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="12" x14ac:dyDescent="0.2">
+      <c r="M100" s="65" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="57">
       <c r="A101" s="54" t="s">
         <v>3</v>
       </c>
@@ -10048,8 +10106,11 @@
       <c r="K101" s="64" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M101" s="65" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="22.8">
       <c r="A102" s="54" t="s">
         <v>3</v>
       </c>
@@ -10062,8 +10123,11 @@
       <c r="K102" s="64" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M102" s="64" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="57">
       <c r="A103" s="54" t="s">
         <v>3</v>
       </c>
@@ -10076,8 +10140,11 @@
       <c r="K103" s="64" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M103" s="65" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="34.200000000000003">
       <c r="A104" s="54" t="s">
         <v>3</v>
       </c>
@@ -10094,7 +10161,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="57">
       <c r="A105" s="54" t="s">
         <v>3</v>
       </c>
@@ -10107,8 +10174,11 @@
       <c r="K105" s="64" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M105" s="65" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="57">
       <c r="A106" s="54" t="s">
         <v>3</v>
       </c>
@@ -10121,8 +10191,11 @@
       <c r="K106" s="64" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="M106" s="65" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="57">
       <c r="A107" s="54" t="s">
         <v>3</v>
       </c>
@@ -10135,8 +10208,11 @@
       <c r="K107" s="64" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M107" s="65" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="9.75" customHeight="1">
       <c r="A108" s="54" t="s">
         <v>3</v>
       </c>
@@ -10149,8 +10225,11 @@
       <c r="K108" s="64" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M108" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="79.8">
       <c r="A109" s="54" t="s">
         <v>3</v>
       </c>
@@ -10163,8 +10242,11 @@
       <c r="K109" s="64" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="M109" s="65" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="45.6">
       <c r="A110" s="54" t="s">
         <v>3</v>
       </c>
@@ -10177,8 +10259,11 @@
       <c r="K110" s="64" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="M110" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="34.200000000000003">
       <c r="A111" s="54" t="s">
         <v>3</v>
       </c>
@@ -10188,11 +10273,14 @@
       <c r="I111" s="59" t="s">
         <v>1287</v>
       </c>
-      <c r="K111" s="64" t="s">
+      <c r="K111" s="80" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="M111" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="22.8">
       <c r="A112" s="64" t="s">
         <v>1291</v>
       </c>
@@ -10202,14 +10290,17 @@
       <c r="I112" s="59" t="s">
         <v>1288</v>
       </c>
-      <c r="K112" s="64" t="s">
+      <c r="K112" s="80" t="s">
         <v>1292</v>
       </c>
       <c r="L112" s="64" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M112" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="9.75" customHeight="1">
       <c r="A113" s="64" t="s">
         <v>1291</v>
       </c>
@@ -10219,14 +10310,17 @@
       <c r="I113" s="59" t="s">
         <v>1289</v>
       </c>
-      <c r="K113" s="64" t="s">
+      <c r="K113" s="80" t="s">
         <v>1324</v>
       </c>
       <c r="L113" s="64" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="64" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="9.75" customHeight="1">
       <c r="K114" s="64" t="s">
         <v>1325</v>
       </c>
@@ -10234,19 +10328,54 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="9.75" customHeight="1">
       <c r="K115" s="64" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="9.75" customHeight="1">
       <c r="K116" s="64" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="9.75" customHeight="1">
       <c r="K117" s="64" t="s">
         <v>1260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="87" customHeight="1">
+      <c r="K118" s="72" t="s">
+        <v>1331</v>
+      </c>
+      <c r="M118" s="65" t="s">
+        <v>1330</v>
+      </c>
+      <c r="N118" s="64" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="9.75" customHeight="1">
+      <c r="K119" s="71" t="s">
+        <v>1333</v>
+      </c>
+      <c r="M119" s="66" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="22.8">
+      <c r="K120" s="71" t="s">
+        <v>1338</v>
+      </c>
+      <c r="M120" s="64" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="9.75" customHeight="1">
+      <c r="K121" s="64" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M121" s="65" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -10258,7 +10387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L138"/>
   <sheetViews>
@@ -10266,14 +10395,14 @@
       <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="9" max="9" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="12" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
@@ -10311,7 +10440,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -10351,7 +10480,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -10391,7 +10520,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
@@ -10431,7 +10560,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
@@ -10471,7 +10600,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -10511,7 +10640,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
@@ -10551,7 +10680,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
@@ -10591,7 +10720,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
@@ -10631,7 +10760,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
@@ -10671,7 +10800,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
@@ -10711,7 +10840,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
@@ -10751,7 +10880,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
@@ -10791,7 +10920,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>0</v>
       </c>
@@ -10831,7 +10960,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="33" t="s">
         <v>0</v>
       </c>
@@ -10871,7 +11000,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>0</v>
       </c>
@@ -10911,7 +11040,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="33" t="s">
         <v>0</v>
       </c>
@@ -10951,7 +11080,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="33" t="s">
         <v>0</v>
       </c>
@@ -10991,7 +11120,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>0</v>
       </c>
@@ -11031,7 +11160,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="33" t="s">
         <v>0</v>
       </c>
@@ -11071,7 +11200,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="33" t="s">
         <v>0</v>
       </c>
@@ -11111,7 +11240,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="33" t="s">
         <v>0</v>
       </c>
@@ -11151,7 +11280,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="33" t="s">
         <v>0</v>
       </c>
@@ -11191,7 +11320,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="33" t="s">
         <v>0</v>
       </c>
@@ -11231,7 +11360,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
@@ -11271,7 +11400,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -11311,7 +11440,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -11351,7 +11480,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -11391,7 +11520,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -11431,7 +11560,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="33" t="s">
         <v>0</v>
       </c>
@@ -11471,7 +11600,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="33" t="s">
         <v>0</v>
       </c>
@@ -11511,7 +11640,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
         <v>0</v>
       </c>
@@ -11551,7 +11680,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="33" t="s">
         <v>0</v>
       </c>
@@ -11591,7 +11720,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="33" t="s">
         <v>0</v>
       </c>
@@ -11631,7 +11760,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="33" t="s">
         <v>0</v>
       </c>
@@ -11671,7 +11800,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
@@ -11711,7 +11840,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="33" t="s">
         <v>0</v>
       </c>
@@ -11751,7 +11880,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="33" t="s">
         <v>0</v>
       </c>
@@ -11791,7 +11920,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="33" t="s">
         <v>0</v>
       </c>
@@ -11831,7 +11960,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="33" t="s">
         <v>0</v>
       </c>
@@ -11871,7 +12000,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="33" t="s">
         <v>0</v>
       </c>
@@ -11911,7 +12040,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="33" t="s">
         <v>0</v>
       </c>
@@ -11951,7 +12080,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="33" t="s">
         <v>0</v>
       </c>
@@ -11991,7 +12120,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="33" t="s">
         <v>0</v>
       </c>
@@ -12031,7 +12160,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="33" t="s">
         <v>0</v>
       </c>
@@ -12071,7 +12200,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="33" t="s">
         <v>0</v>
       </c>
@@ -12111,7 +12240,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="33" t="s">
         <v>0</v>
       </c>
@@ -12151,7 +12280,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="33" t="s">
         <v>0</v>
       </c>
@@ -12191,7 +12320,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="33" t="s">
         <v>0</v>
       </c>
@@ -12231,7 +12360,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="33" t="s">
         <v>0</v>
       </c>
@@ -12271,7 +12400,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="33" t="s">
         <v>0</v>
       </c>
@@ -12311,7 +12440,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="33" t="s">
         <v>0</v>
       </c>
@@ -12351,7 +12480,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="33" t="s">
         <v>0</v>
       </c>
@@ -12391,7 +12520,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="33" t="s">
         <v>0</v>
       </c>
@@ -12431,7 +12560,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="33" t="s">
         <v>0</v>
       </c>
@@ -12471,7 +12600,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="33" t="s">
         <v>0</v>
       </c>
@@ -12511,7 +12640,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="33" t="s">
         <v>0</v>
       </c>
@@ -12551,7 +12680,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="33" t="s">
         <v>0</v>
       </c>
@@ -12591,7 +12720,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="33" t="s">
         <v>0</v>
       </c>
@@ -12631,7 +12760,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="33" t="s">
         <v>0</v>
       </c>
@@ -12671,7 +12800,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="33" t="s">
         <v>0</v>
       </c>
@@ -12711,7 +12840,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="33" t="s">
         <v>0</v>
       </c>
@@ -12751,7 +12880,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="33" t="s">
         <v>0</v>
       </c>
@@ -12791,7 +12920,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="33" t="s">
         <v>0</v>
       </c>
@@ -12831,7 +12960,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
         <v>0</v>
       </c>
@@ -12871,7 +13000,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="33" t="s">
         <v>0</v>
       </c>
@@ -12911,7 +13040,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="33" t="s">
         <v>0</v>
       </c>
@@ -12951,7 +13080,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="33" t="s">
         <v>0</v>
       </c>
@@ -12991,7 +13120,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="33" t="s">
         <v>0</v>
       </c>
@@ -13031,7 +13160,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="33" t="s">
         <v>0</v>
       </c>
@@ -13071,7 +13200,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="33" t="s">
         <v>0</v>
       </c>
@@ -13111,7 +13240,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
       <c r="A72" s="33" t="s">
         <v>0</v>
       </c>
@@ -13151,7 +13280,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
       <c r="A73" s="33" t="s">
         <v>0</v>
       </c>
@@ -13191,7 +13320,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="33" t="s">
         <v>0</v>
       </c>
@@ -13231,7 +13360,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="A75" s="33" t="s">
         <v>0</v>
       </c>
@@ -13271,7 +13400,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="33" t="s">
         <v>0</v>
       </c>
@@ -13311,7 +13440,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="33" t="s">
         <v>0</v>
       </c>
@@ -13351,7 +13480,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="33" t="s">
         <v>0</v>
       </c>
@@ -13391,7 +13520,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="33" t="s">
         <v>0</v>
       </c>
@@ -13431,7 +13560,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="33" t="s">
         <v>0</v>
       </c>
@@ -13471,7 +13600,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="33" t="s">
         <v>0</v>
       </c>
@@ -13511,7 +13640,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="33" t="s">
         <v>0</v>
       </c>
@@ -13551,7 +13680,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="33" t="s">
         <v>0</v>
       </c>
@@ -13591,7 +13720,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="33" t="s">
         <v>0</v>
       </c>
@@ -13631,7 +13760,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="33" t="s">
         <v>0</v>
       </c>
@@ -13671,7 +13800,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="33" t="s">
         <v>0</v>
       </c>
@@ -13711,7 +13840,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="33" t="s">
         <v>0</v>
       </c>
@@ -13751,7 +13880,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="33" t="s">
         <v>0</v>
       </c>
@@ -13791,7 +13920,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="33" t="s">
         <v>0</v>
       </c>
@@ -13831,7 +13960,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="33" t="s">
         <v>0</v>
       </c>
@@ -13871,7 +14000,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1">
       <c r="A91" s="33" t="s">
         <v>0</v>
       </c>
@@ -13911,7 +14040,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1">
       <c r="A92" s="33" t="s">
         <v>0</v>
       </c>
@@ -13951,7 +14080,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1">
       <c r="A93" s="33" t="s">
         <v>0</v>
       </c>
@@ -13991,7 +14120,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="33" t="s">
         <v>0</v>
       </c>
@@ -14031,7 +14160,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="33" t="s">
         <v>0</v>
       </c>
@@ -14071,7 +14200,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="33" t="s">
         <v>0</v>
       </c>
@@ -14111,7 +14240,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="33" t="s">
         <v>0</v>
       </c>
@@ -14151,7 +14280,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="33" t="s">
         <v>0</v>
       </c>
@@ -14191,7 +14320,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="33" t="s">
         <v>0</v>
       </c>
@@ -14231,7 +14360,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="33" t="s">
         <v>0</v>
       </c>
@@ -14271,7 +14400,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="33" t="s">
         <v>0</v>
       </c>
@@ -14311,7 +14440,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="33" t="s">
         <v>0</v>
       </c>
@@ -14351,7 +14480,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="33" t="s">
         <v>0</v>
       </c>
@@ -14391,7 +14520,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="33" t="s">
         <v>0</v>
       </c>
@@ -14431,7 +14560,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="33" t="s">
         <v>0</v>
       </c>
@@ -14471,7 +14600,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="33" t="s">
         <v>0</v>
       </c>
@@ -14511,7 +14640,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="33" t="s">
         <v>0</v>
       </c>
@@ -14551,7 +14680,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1">
       <c r="A108" s="33" t="s">
         <v>0</v>
       </c>
@@ -14591,7 +14720,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1">
       <c r="A109" s="33" t="s">
         <v>0</v>
       </c>
@@ -14631,7 +14760,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1">
       <c r="A110" s="33" t="s">
         <v>0</v>
       </c>
@@ -14671,7 +14800,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1">
       <c r="A111" s="33" t="s">
         <v>0</v>
       </c>
@@ -14711,7 +14840,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="33" t="s">
         <v>0</v>
       </c>
@@ -14751,7 +14880,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="33" t="s">
         <v>0</v>
       </c>
@@ -14791,7 +14920,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="33" t="s">
         <v>0</v>
       </c>
@@ -14831,7 +14960,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="33" t="s">
         <v>0</v>
       </c>
@@ -14871,7 +15000,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1">
       <c r="A116" s="33" t="s">
         <v>0</v>
       </c>
@@ -14911,7 +15040,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1">
       <c r="A117" s="33" t="s">
         <v>0</v>
       </c>
@@ -14951,7 +15080,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1">
       <c r="A118" s="33" t="s">
         <v>0</v>
       </c>
@@ -14991,7 +15120,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1">
       <c r="A119" s="33" t="s">
         <v>0</v>
       </c>
@@ -15031,7 +15160,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1">
       <c r="A120" s="33" t="s">
         <v>0</v>
       </c>
@@ -15071,7 +15200,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1">
       <c r="A121" s="33" t="s">
         <v>0</v>
       </c>
@@ -15111,7 +15240,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1">
       <c r="A122" s="33" t="s">
         <v>0</v>
       </c>
@@ -15151,7 +15280,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1">
       <c r="A123" s="33" t="s">
         <v>0</v>
       </c>
@@ -15191,7 +15320,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1">
       <c r="A124" s="33" t="s">
         <v>0</v>
       </c>
@@ -15231,7 +15360,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1">
       <c r="A125" s="33" t="s">
         <v>0</v>
       </c>
@@ -15271,7 +15400,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1">
       <c r="A126" s="33" t="s">
         <v>0</v>
       </c>
@@ -15311,7 +15440,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1">
       <c r="A127" s="33" t="s">
         <v>0</v>
       </c>
@@ -15351,7 +15480,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1">
       <c r="A128" s="33" t="s">
         <v>0</v>
       </c>
@@ -15391,7 +15520,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1">
       <c r="A129" s="33" t="s">
         <v>0</v>
       </c>
@@ -15431,7 +15560,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1">
       <c r="A130" s="33" t="s">
         <v>0</v>
       </c>
@@ -15471,7 +15600,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1">
       <c r="A131" s="33" t="s">
         <v>0</v>
       </c>
@@ -15511,7 +15640,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1">
       <c r="A132" s="33" t="s">
         <v>0</v>
       </c>
@@ -15551,7 +15680,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1">
       <c r="A133" s="33" t="s">
         <v>0</v>
       </c>
@@ -15591,7 +15720,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1">
       <c r="A134" s="33" t="s">
         <v>0</v>
       </c>
@@ -15631,7 +15760,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1">
       <c r="A135" s="33" t="s">
         <v>0</v>
       </c>
@@ -15671,7 +15800,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1">
       <c r="A136" s="33" t="s">
         <v>0</v>
       </c>
@@ -15711,7 +15840,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1">
       <c r="A137" s="33" t="s">
         <v>0</v>
       </c>
@@ -15751,7 +15880,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1">
       <c r="A138" s="33" t="s">
         <v>0</v>
       </c>
@@ -15798,7 +15927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P113"/>
   <sheetViews>
@@ -15806,26 +15935,26 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.85546875" style="2" collapsed="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.85546875" style="2" collapsed="1"/>
-    <col min="8" max="8" width="63.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="59.28515625" style="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="79.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="61.42578125" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="36.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.42578125" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="5.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" width="4.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.88671875" style="2" collapsed="1"/>
+    <col min="5" max="5" width="18.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.88671875" style="2" collapsed="1"/>
+    <col min="8" max="8" width="63.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="59.33203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="79.88671875" style="14" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="61.44140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="36.88671875" style="15" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.44140625" style="15" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="5.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="9.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -15869,7 +15998,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="9.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>127</v>
@@ -15908,7 +16037,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="9.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>127</v>
@@ -15943,7 +16072,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="9.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>128</v>
@@ -15978,7 +16107,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="9.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>65</v>
@@ -16013,7 +16142,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="9.75" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="21" t="s">
         <v>73</v>
@@ -16052,7 +16181,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="9.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>129</v>
@@ -16087,7 +16216,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="9.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>130</v>
@@ -16122,7 +16251,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="9.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>66</v>
@@ -16159,7 +16288,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="9.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>131</v>
@@ -16194,7 +16323,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="9.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>132</v>
@@ -16229,7 +16358,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="9.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="21" t="s">
         <v>74</v>
@@ -16266,7 +16395,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="9.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>133</v>
@@ -16301,7 +16430,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="9.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>134</v>
@@ -16336,7 +16465,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="9.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="22" t="s">
         <v>75</v>
@@ -16376,7 +16505,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="9.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="22" t="s">
         <v>76</v>
@@ -16416,7 +16545,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="9.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="22" t="s">
         <v>77</v>
@@ -16456,7 +16585,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="9.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>78</v>
@@ -16496,7 +16625,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="9.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>79</v>
@@ -16536,7 +16665,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="9.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>80</v>
@@ -16576,7 +16705,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="9.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="12" t="s">
         <v>67</v>
@@ -16612,7 +16741,7 @@
       <c r="N21" s="8"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="9.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -16657,7 +16786,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="9.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -16702,7 +16831,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="9.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -16747,7 +16876,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="9.75" customHeight="1">
       <c r="A25" s="33" t="s">
         <v>0</v>
       </c>
@@ -16787,7 +16916,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="9.75" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -16826,7 +16955,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="9.75" customHeight="1">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -16865,7 +16994,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="9.75" customHeight="1">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -16904,7 +17033,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="9.75" customHeight="1">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -16943,7 +17072,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="9.75" customHeight="1">
       <c r="A30" s="33" t="s">
         <v>0</v>
       </c>
@@ -16979,7 +17108,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="9.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -17018,7 +17147,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="9.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -17061,7 +17190,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="9.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>64</v>
@@ -17101,7 +17230,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="9.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
@@ -17141,7 +17270,7 @@
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="9.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>83</v>
@@ -17181,7 +17310,7 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="9.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>84</v>
@@ -17221,7 +17350,7 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="9.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>85</v>
@@ -17261,7 +17390,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="9.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>86</v>
@@ -17301,7 +17430,7 @@
       </c>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="9.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>87</v>
@@ -17341,7 +17470,7 @@
       </c>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="9.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>88</v>
@@ -17381,7 +17510,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="9.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>89</v>
@@ -17421,7 +17550,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="9.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>135</v>
@@ -17461,7 +17590,7 @@
       </c>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="9.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>135</v>
@@ -17500,7 +17629,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="9.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>135</v>
@@ -17535,7 +17664,7 @@
       <c r="M44" s="18"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="9.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>135</v>
@@ -17572,7 +17701,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="9.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>90</v>
@@ -17612,7 +17741,7 @@
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="9.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>91</v>
@@ -17652,7 +17781,7 @@
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="9.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>92</v>
@@ -17692,7 +17821,7 @@
       </c>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="9.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
         <v>93</v>
@@ -17732,7 +17861,7 @@
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="9.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
         <v>94</v>
@@ -17770,7 +17899,7 @@
       </c>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="9.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>95</v>
@@ -17810,7 +17939,7 @@
       </c>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="9.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
         <v>96</v>
@@ -17850,7 +17979,7 @@
       </c>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="9.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
         <v>97</v>
@@ -17890,7 +18019,7 @@
       </c>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="9.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>98</v>
@@ -17930,7 +18059,7 @@
       </c>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="9.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
         <v>99</v>
@@ -17970,7 +18099,7 @@
       </c>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="9.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>100</v>
@@ -18010,7 +18139,7 @@
       </c>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="9.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>136</v>
@@ -18049,7 +18178,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="9.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>136</v>
@@ -18084,7 +18213,7 @@
       <c r="M58" s="18"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="9.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>137</v>
@@ -18123,7 +18252,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="9.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>137</v>
@@ -18158,7 +18287,7 @@
       <c r="M60" s="18"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="9.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>138</v>
@@ -18197,7 +18326,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="9.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>138</v>
@@ -18232,7 +18361,7 @@
       <c r="M62" s="18"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="9.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>140</v>
@@ -18269,7 +18398,7 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="9.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
         <v>101</v>
@@ -18309,7 +18438,7 @@
       </c>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" ht="9.75" customHeight="1">
       <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
@@ -18344,7 +18473,7 @@
       <c r="N65" s="27"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" ht="9.75" customHeight="1">
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="27"/>
@@ -18359,7 +18488,7 @@
       <c r="N66" s="27"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" ht="9.75" customHeight="1">
       <c r="B67" s="2" t="s">
         <v>218</v>
       </c>
@@ -18396,7 +18525,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" ht="9.75" customHeight="1">
       <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
@@ -18428,7 +18557,7 @@
       <c r="K68" s="27"/>
       <c r="L68" s="27"/>
     </row>
-    <row r="69" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" ht="9.75" customHeight="1">
       <c r="B69" s="2" t="s">
         <v>80</v>
       </c>
@@ -18460,7 +18589,7 @@
       <c r="K69" s="27"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" ht="9.75" customHeight="1">
       <c r="B70" s="2" t="s">
         <v>80</v>
       </c>
@@ -18492,7 +18621,7 @@
       <c r="K70" s="27"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" ht="9.75" customHeight="1">
       <c r="B71" s="2" t="s">
         <v>80</v>
       </c>
@@ -18524,7 +18653,7 @@
       <c r="K71" s="27"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" ht="9.75" customHeight="1">
       <c r="B72" s="2" t="s">
         <v>217</v>
       </c>
@@ -18554,7 +18683,7 @@
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" ht="9.75" customHeight="1">
       <c r="B73" s="2" t="s">
         <v>217</v>
       </c>
@@ -18584,7 +18713,7 @@
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" ht="9.75" customHeight="1">
       <c r="B74" s="2" t="s">
         <v>217</v>
       </c>
@@ -18613,7 +18742,7 @@
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" ht="9.75" customHeight="1">
       <c r="B75" s="2" t="s">
         <v>78</v>
       </c>
@@ -18645,7 +18774,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" ht="9.75" customHeight="1">
       <c r="B76" s="2" t="s">
         <v>78</v>
       </c>
@@ -18677,7 +18806,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" ht="9.75" customHeight="1">
       <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
@@ -18709,7 +18838,7 @@
       <c r="K77" s="27"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" ht="9.75" customHeight="1">
       <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
@@ -18741,7 +18870,7 @@
       <c r="K78" s="27"/>
       <c r="L78" s="27"/>
     </row>
-    <row r="79" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" ht="9.75" customHeight="1">
       <c r="B79" s="2" t="s">
         <v>84</v>
       </c>
@@ -18773,7 +18902,7 @@
       <c r="K79" s="27"/>
       <c r="L79" s="27"/>
     </row>
-    <row r="80" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" ht="9.75" customHeight="1">
       <c r="B80" s="2" t="s">
         <v>136</v>
       </c>
@@ -18805,7 +18934,7 @@
       <c r="K80" s="27"/>
       <c r="L80" s="27"/>
     </row>
-    <row r="81" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" ht="9.75" customHeight="1">
       <c r="B81" s="2" t="s">
         <v>136</v>
       </c>
@@ -18837,7 +18966,7 @@
       <c r="K81" s="27"/>
       <c r="L81" s="27"/>
     </row>
-    <row r="82" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" ht="9.75" customHeight="1">
       <c r="B82" s="2" t="s">
         <v>136</v>
       </c>
@@ -18869,7 +18998,7 @@
       <c r="K82" s="27"/>
       <c r="L82" s="27"/>
     </row>
-    <row r="83" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" ht="9.75" customHeight="1">
       <c r="B83" s="2" t="s">
         <v>136</v>
       </c>
@@ -18901,7 +19030,7 @@
       <c r="K83" s="27"/>
       <c r="L83" s="27"/>
     </row>
-    <row r="84" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" ht="9.75" customHeight="1">
       <c r="B84" s="2" t="s">
         <v>136</v>
       </c>
@@ -18933,7 +19062,7 @@
       <c r="K84" s="27"/>
       <c r="L84" s="27"/>
     </row>
-    <row r="85" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" ht="9.75" customHeight="1">
       <c r="B85" s="2" t="s">
         <v>136</v>
       </c>
@@ -18965,7 +19094,7 @@
       <c r="K85" s="27"/>
       <c r="L85" s="27"/>
     </row>
-    <row r="86" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" ht="9.75" customHeight="1">
       <c r="B86" s="2" t="s">
         <v>136</v>
       </c>
@@ -18997,7 +19126,7 @@
       <c r="K86" s="27"/>
       <c r="L86" s="27"/>
     </row>
-    <row r="87" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" ht="9.75" customHeight="1">
       <c r="B87" s="2" t="s">
         <v>136</v>
       </c>
@@ -19029,7 +19158,7 @@
       <c r="K87" s="27"/>
       <c r="L87" s="27"/>
     </row>
-    <row r="88" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" ht="9.75" customHeight="1">
       <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
@@ -19061,7 +19190,7 @@
       <c r="K88" s="27"/>
       <c r="L88" s="27"/>
     </row>
-    <row r="89" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" ht="9.75" customHeight="1">
       <c r="B89" s="2" t="s">
         <v>136</v>
       </c>
@@ -19093,7 +19222,7 @@
       <c r="K89" s="27"/>
       <c r="L89" s="27"/>
     </row>
-    <row r="90" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" ht="9.75" customHeight="1">
       <c r="B90" s="2" t="s">
         <v>137</v>
       </c>
@@ -19125,7 +19254,7 @@
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
     </row>
-    <row r="91" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" ht="9.75" customHeight="1">
       <c r="B91" s="2" t="s">
         <v>137</v>
       </c>
@@ -19157,7 +19286,7 @@
       <c r="K91" s="27"/>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" ht="9.75" customHeight="1">
       <c r="B92" s="2" t="s">
         <v>137</v>
       </c>
@@ -19189,7 +19318,7 @@
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
     </row>
-    <row r="93" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" ht="9.75" customHeight="1">
       <c r="B93" s="2" t="s">
         <v>137</v>
       </c>
@@ -19221,7 +19350,7 @@
       <c r="K93" s="27"/>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" ht="9.75" customHeight="1">
       <c r="B94" s="2" t="s">
         <v>137</v>
       </c>
@@ -19253,7 +19382,7 @@
       <c r="K94" s="27"/>
       <c r="L94" s="27"/>
     </row>
-    <row r="95" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" ht="9.75" customHeight="1">
       <c r="B95" s="2" t="s">
         <v>137</v>
       </c>
@@ -19285,7 +19414,7 @@
       <c r="K95" s="27"/>
       <c r="L95" s="27"/>
     </row>
-    <row r="96" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" ht="9.75" customHeight="1">
       <c r="B96" s="2" t="s">
         <v>137</v>
       </c>
@@ -19317,7 +19446,7 @@
       <c r="K96" s="27"/>
       <c r="L96" s="27"/>
     </row>
-    <row r="97" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="9.75" customHeight="1">
       <c r="B97" s="2" t="s">
         <v>137</v>
       </c>
@@ -19349,7 +19478,7 @@
       <c r="K97" s="27"/>
       <c r="L97" s="27"/>
     </row>
-    <row r="98" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="9.75" customHeight="1">
       <c r="B98" s="2" t="s">
         <v>137</v>
       </c>
@@ -19381,7 +19510,7 @@
       <c r="K98" s="27"/>
       <c r="L98" s="27"/>
     </row>
-    <row r="99" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="9.75" customHeight="1">
       <c r="B99" s="2" t="s">
         <v>137</v>
       </c>
@@ -19413,7 +19542,7 @@
       <c r="K99" s="27"/>
       <c r="L99" s="27"/>
     </row>
-    <row r="100" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="9.75" customHeight="1">
       <c r="B100" s="2" t="s">
         <v>137</v>
       </c>
@@ -19445,7 +19574,7 @@
       <c r="K100" s="27"/>
       <c r="L100" s="27"/>
     </row>
-    <row r="101" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="9.75" customHeight="1">
       <c r="B101" s="2" t="s">
         <v>138</v>
       </c>
@@ -19477,7 +19606,7 @@
       <c r="K101" s="27"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="9.75" customHeight="1">
       <c r="B102" s="2" t="s">
         <v>138</v>
       </c>
@@ -19509,7 +19638,7 @@
       <c r="K102" s="27"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="9.75" customHeight="1">
       <c r="B103" s="2" t="s">
         <v>138</v>
       </c>
@@ -19541,7 +19670,7 @@
       <c r="K103" s="27"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="9.75" customHeight="1">
       <c r="B104" s="2" t="s">
         <v>138</v>
       </c>
@@ -19573,7 +19702,7 @@
       <c r="K104" s="27"/>
       <c r="L104" s="27"/>
     </row>
-    <row r="105" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="9.75" customHeight="1">
       <c r="B105" s="2" t="s">
         <v>138</v>
       </c>
@@ -19605,7 +19734,7 @@
       <c r="K105" s="27"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="9.75" customHeight="1">
       <c r="B106" s="2" t="s">
         <v>138</v>
       </c>
@@ -19637,7 +19766,7 @@
       <c r="K106" s="27"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="109" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="9.75" customHeight="1">
       <c r="A109" s="33"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -19651,7 +19780,7 @@
       <c r="K109" s="27"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="9.75" customHeight="1">
       <c r="A110" s="33"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -19665,7 +19794,7 @@
       <c r="K110" s="27"/>
       <c r="L110" s="27"/>
     </row>
-    <row r="111" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="9.75" customHeight="1">
       <c r="A111" s="33"/>
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
@@ -19679,7 +19808,7 @@
       <c r="K111" s="27"/>
       <c r="L111" s="27"/>
     </row>
-    <row r="112" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="9.75" customHeight="1">
       <c r="A112" s="33"/>
       <c r="B112" s="35"/>
       <c r="C112" s="35"/>
@@ -19693,7 +19822,7 @@
       <c r="K112" s="27"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="9.75" customHeight="1">
       <c r="A113" s="33"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>

--- a/Files/Templates/createfilesfromxpath_A.xlsx
+++ b/Files/Templates/createfilesfromxpath_A.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1346">
   <si>
     <t>y</t>
   </si>
@@ -4566,9 +4566,6 @@
     <t>TC114_case_B32_MultipleAdvClinicalManifestation_p</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>TC113_case_B23_B231_MultipleLotsForOneDrug</t>
   </si>
   <si>
@@ -4736,12 +4733,22 @@
   </si>
   <si>
     <t>B814_dtofBatchCreation_265_null_mand_1</t>
+  </si>
+  <si>
+    <t>kalifa</t>
+  </si>
+  <si>
+    <t>kalifarrrr</t>
+  </si>
+  <si>
+    <t>ackresults</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -5140,14 +5147,14 @@
       <xdr:col>51</xdr:col>
       <xdr:colOff>602447</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>395863</xdr:rowOff>
+      <xdr:rowOff>395862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F749E25-1DAB-404D-BCE5-F308C06BEBE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5182,7 +5189,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>487505</xdr:colOff>
+      <xdr:colOff>487504</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>114377</xdr:rowOff>
     </xdr:to>
@@ -5191,7 +5198,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5092D-9FA9-4251-A659-0E7C51D8FDA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5235,7 +5242,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91728589-A071-42C5-9AEB-70633789F200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5279,7 +5286,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB97FF-63EE-4982-9CBB-205A4CE1974A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5563,7 +5570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5574,33 +5581,33 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L118" sqref="L118"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="64" collapsed="1"/>
-    <col min="3" max="3" width="9.109375" style="59" collapsed="1"/>
-    <col min="4" max="4" width="17.44140625" style="59" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.44140625" style="60" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.44140625" style="59" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.33203125" style="59" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.109375" style="59" collapsed="1"/>
-    <col min="9" max="9" width="17.5546875" style="59" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.33203125" style="68" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.5546875" style="64" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="37.21875" style="64" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.44140625" style="64" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="42.88671875" style="65" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21" style="65" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="64.88671875" style="65" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="43.5546875" style="66" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.109375" style="64" collapsed="1"/>
-    <col min="20" max="20" width="58" style="64" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.109375" style="64" collapsed="1"/>
+    <col min="1" max="2" style="64" width="9.109375" collapsed="true"/>
+    <col min="3" max="3" style="59" width="9.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="59" width="17.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="60" width="9.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="59" width="9.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="59" width="17.33203125" collapsed="true"/>
+    <col min="8" max="8" style="59" width="9.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="59" width="17.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="68" width="39.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="64" width="50.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="64" width="53.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="64" width="37.21875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="64" width="33.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="65" width="42.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="65" width="21.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="65" width="64.88671875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="66" width="43.5546875" collapsed="true"/>
+    <col min="19" max="19" style="64" width="9.109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="64" width="58.0" collapsed="true"/>
+    <col min="21" max="16384" style="64" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
@@ -5640,7 +5647,9 @@
       <c r="L1" s="50" t="s">
         <v>946</v>
       </c>
-      <c r="M1" s="50"/>
+      <c r="M1" s="50" t="s">
+        <v>1345</v>
+      </c>
       <c r="N1" s="50" t="s">
         <v>1237</v>
       </c>
@@ -5660,9 +5669,9 @@
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
+    <row r="2" spans="1:19" s="60" customFormat="1" ht="54" customHeight="1">
       <c r="A2" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>1059</v>
@@ -5691,14 +5700,15 @@
       <c r="J2" s="67" t="s">
         <v>1225</v>
       </c>
-      <c r="K2" s="55" t="str">
-        <f t="shared" ref="K2:K66" si="0">CONCATENATE(B2,"_",C2,"_",D2,"_",E2,"_",F2,"_",G2,"_",H2)</f>
-        <v>TC1_A312_LastName_39_mand_validtext_P</v>
+      <c r="K2" s="55" t="s">
+        <v>1247</v>
       </c>
       <c r="L2" s="55" t="s">
         <v>1247</v>
       </c>
-      <c r="M2" s="77"/>
+      <c r="M2" s="77" t="s">
+        <v>979</v>
+      </c>
       <c r="N2" s="77"/>
       <c r="O2" s="74" t="s">
         <v>979</v>
@@ -5718,7 +5728,7 @@
     </row>
     <row r="3" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A3" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>1060</v>
@@ -5748,13 +5758,15 @@
         <v>47</v>
       </c>
       <c r="K3" s="55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K3:K66" si="0">CONCATENATE(B3,"_",C3,"_",D3,"_",E3,"_",F3,"_",G3,"_",H3)</f>
         <v>TC2_A312_LastName_39_mand_unknown_P</v>
       </c>
       <c r="L3" s="55" t="s">
         <v>1248</v>
       </c>
-      <c r="M3" s="77"/>
+      <c r="M3" s="77" t="s">
+        <v>979</v>
+      </c>
       <c r="N3" s="77"/>
       <c r="O3" s="74" t="s">
         <v>980</v>
@@ -5774,7 +5786,7 @@
     </row>
     <row r="4" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A4" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>1061</v>
@@ -5810,7 +5822,9 @@
       <c r="L4" s="55" t="s">
         <v>1249</v>
       </c>
-      <c r="M4" s="77"/>
+      <c r="M4" s="77" t="s">
+        <v>980</v>
+      </c>
       <c r="N4" s="77"/>
       <c r="O4" s="74" t="s">
         <v>981</v>
@@ -5830,7 +5844,7 @@
     </row>
     <row r="5" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A5" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>1062</v>
@@ -5866,7 +5880,9 @@
       <c r="L5" s="55" t="s">
         <v>1148</v>
       </c>
-      <c r="M5" s="77"/>
+      <c r="M5" s="77" t="s">
+        <v>331</v>
+      </c>
       <c r="N5" s="77"/>
       <c r="O5" s="74" t="s">
         <v>331</v>
@@ -5884,7 +5900,7 @@
     </row>
     <row r="6" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A6" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>1063</v>
@@ -5920,7 +5936,9 @@
       <c r="L6" s="55" t="s">
         <v>1149</v>
       </c>
-      <c r="M6" s="77"/>
+      <c r="M6" s="77" t="s">
+        <v>981</v>
+      </c>
       <c r="N6" s="77"/>
       <c r="O6" s="74" t="s">
         <v>331</v>
@@ -5938,7 +5956,7 @@
     </row>
     <row r="7" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A7" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>1064</v>
@@ -5990,7 +6008,7 @@
     </row>
     <row r="8" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A8" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="54" t="s">
         <v>1065</v>
@@ -6046,7 +6064,7 @@
     </row>
     <row r="9" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A9" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" s="54" t="s">
         <v>1066</v>
@@ -6102,7 +6120,7 @@
     </row>
     <row r="10" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A10" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>1067</v>
@@ -6158,7 +6176,7 @@
     </row>
     <row r="11" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A11" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>1068</v>
@@ -6214,7 +6232,7 @@
     </row>
     <row r="12" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B12" s="54" t="s">
         <v>1069</v>
@@ -6266,7 +6284,7 @@
     </row>
     <row r="13" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>1070</v>
@@ -6318,7 +6336,7 @@
     </row>
     <row r="14" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>1071</v>
@@ -6368,7 +6386,7 @@
     </row>
     <row r="15" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A15" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="54" t="s">
         <v>1072</v>
@@ -6418,7 +6436,7 @@
     </row>
     <row r="16" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A16" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>1073</v>
@@ -6468,7 +6486,7 @@
     </row>
     <row r="17" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A17" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>1074</v>
@@ -6525,7 +6543,7 @@
     </row>
     <row r="18" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A18" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>1075</v>
@@ -6582,7 +6600,7 @@
     </row>
     <row r="19" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A19" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>1076</v>
@@ -6638,7 +6656,7 @@
     </row>
     <row r="20" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A20" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>1077</v>
@@ -6694,7 +6712,7 @@
     </row>
     <row r="21" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A21" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>1078</v>
@@ -6750,7 +6768,7 @@
     </row>
     <row r="22" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A22" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>1079</v>
@@ -6806,7 +6824,7 @@
     </row>
     <row r="23" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A23" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>1080</v>
@@ -6862,7 +6880,7 @@
     </row>
     <row r="24" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A24" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>1081</v>
@@ -6918,7 +6936,7 @@
     </row>
     <row r="25" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A25" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>1082</v>
@@ -6974,7 +6992,7 @@
     </row>
     <row r="26" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A26" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>1083</v>
@@ -7030,7 +7048,7 @@
     </row>
     <row r="27" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A27" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>1084</v>
@@ -7086,7 +7104,7 @@
     </row>
     <row r="28" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A28" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>1085</v>
@@ -7142,7 +7160,7 @@
     </row>
     <row r="29" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A29" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>1086</v>
@@ -7198,7 +7216,7 @@
     </row>
     <row r="30" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A30" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>1087</v>
@@ -7254,7 +7272,7 @@
     </row>
     <row r="31" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A31" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>1088</v>
@@ -7310,7 +7328,7 @@
     </row>
     <row r="32" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A32" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>1089</v>
@@ -7366,7 +7384,7 @@
     </row>
     <row r="33" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A33" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B33" s="54" t="s">
         <v>1090</v>
@@ -7422,7 +7440,7 @@
     </row>
     <row r="34" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A34" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B34" s="54" t="s">
         <v>1091</v>
@@ -7472,7 +7490,7 @@
     </row>
     <row r="35" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A35" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>1092</v>
@@ -7522,7 +7540,7 @@
     </row>
     <row r="36" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A36" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B36" s="54" t="s">
         <v>1093</v>
@@ -7572,7 +7590,7 @@
     </row>
     <row r="37" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A37" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B37" s="54" t="s">
         <v>1094</v>
@@ -7624,7 +7642,7 @@
     </row>
     <row r="38" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A38" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>1095</v>
@@ -7676,7 +7694,7 @@
     </row>
     <row r="39" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A39" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B39" s="54" t="s">
         <v>1096</v>
@@ -7726,7 +7744,7 @@
     </row>
     <row r="40" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A40" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B40" s="54" t="s">
         <v>1097</v>
@@ -7776,7 +7794,7 @@
     </row>
     <row r="41" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A41" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B41" s="54" t="s">
         <v>1098</v>
@@ -7830,7 +7848,7 @@
     </row>
     <row r="42" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A42" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B42" s="54" t="s">
         <v>1099</v>
@@ -7884,7 +7902,7 @@
     </row>
     <row r="43" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A43" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B43" s="54" t="s">
         <v>1100</v>
@@ -7938,7 +7956,7 @@
     </row>
     <row r="44" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A44" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B44" s="54" t="s">
         <v>1101</v>
@@ -7992,7 +8010,7 @@
     </row>
     <row r="45" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A45" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B45" s="54" t="s">
         <v>1102</v>
@@ -8046,7 +8064,7 @@
     </row>
     <row r="46" spans="1:19" s="57" customFormat="1" ht="9.75" customHeight="1">
       <c r="A46" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B46" s="54" t="s">
         <v>1103</v>
@@ -8098,7 +8116,7 @@
     </row>
     <row r="47" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A47" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B47" s="54" t="s">
         <v>1104</v>
@@ -8144,7 +8162,7 @@
     </row>
     <row r="48" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A48" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B48" s="54" t="s">
         <v>1105</v>
@@ -8194,7 +8212,7 @@
     </row>
     <row r="49" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A49" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B49" s="54" t="s">
         <v>1106</v>
@@ -8246,7 +8264,7 @@
     </row>
     <row r="50" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A50" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B50" s="54" t="s">
         <v>1107</v>
@@ -8298,7 +8316,7 @@
     </row>
     <row r="51" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A51" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B51" s="54" t="s">
         <v>1108</v>
@@ -8350,7 +8368,7 @@
     </row>
     <row r="52" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A52" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B52" s="54" t="s">
         <v>1109</v>
@@ -8402,7 +8420,7 @@
     </row>
     <row r="53" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A53" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B53" s="54" t="s">
         <v>1110</v>
@@ -8454,7 +8472,7 @@
     </row>
     <row r="54" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A54" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B54" s="54" t="s">
         <v>1111</v>
@@ -8506,7 +8524,7 @@
     </row>
     <row r="55" spans="1:19" s="60" customFormat="1" ht="9.75" customHeight="1">
       <c r="A55" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B55" s="54" t="s">
         <v>1112</v>
@@ -8559,7 +8577,7 @@
     </row>
     <row r="56" spans="1:19" ht="9.75" customHeight="1">
       <c r="A56" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B56" s="54" t="s">
         <v>1113</v>
@@ -8613,7 +8631,7 @@
     </row>
     <row r="57" spans="1:19" ht="9.75" customHeight="1">
       <c r="A57" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B57" s="54" t="s">
         <v>1114</v>
@@ -8665,7 +8683,7 @@
     </row>
     <row r="58" spans="1:19" ht="9.75" customHeight="1">
       <c r="A58" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B58" s="54" t="s">
         <v>1115</v>
@@ -8714,7 +8732,7 @@
     </row>
     <row r="59" spans="1:19" ht="9.75" customHeight="1">
       <c r="A59" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B59" s="54" t="s">
         <v>1116</v>
@@ -8767,7 +8785,7 @@
     </row>
     <row r="60" spans="1:19" ht="9.75" customHeight="1">
       <c r="A60" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B60" s="54" t="s">
         <v>1117</v>
@@ -8820,7 +8838,7 @@
     </row>
     <row r="61" spans="1:19" ht="9.75" customHeight="1">
       <c r="A61" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B61" s="54" t="s">
         <v>1118</v>
@@ -8873,7 +8891,7 @@
     </row>
     <row r="62" spans="1:19" ht="9.75" customHeight="1">
       <c r="A62" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B62" s="54" t="s">
         <v>1119</v>
@@ -8924,7 +8942,7 @@
     </row>
     <row r="63" spans="1:19" ht="9.75" customHeight="1">
       <c r="A63" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B63" s="54" t="s">
         <v>1120</v>
@@ -8975,7 +8993,7 @@
     </row>
     <row r="64" spans="1:19" ht="9.75" customHeight="1">
       <c r="A64" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B64" s="54" t="s">
         <v>1121</v>
@@ -9023,7 +9041,7 @@
     </row>
     <row r="65" spans="1:17" ht="9.75" customHeight="1">
       <c r="A65" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B65" s="54" t="s">
         <v>1122</v>
@@ -9071,7 +9089,7 @@
     </row>
     <row r="66" spans="1:17" ht="9.75" customHeight="1">
       <c r="A66" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B66" s="54" t="s">
         <v>1123</v>
@@ -9119,7 +9137,7 @@
     </row>
     <row r="67" spans="1:17" ht="9.75" customHeight="1">
       <c r="A67" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B67" s="54" t="s">
         <v>1124</v>
@@ -9167,7 +9185,7 @@
     </row>
     <row r="68" spans="1:17" ht="9.75" customHeight="1">
       <c r="A68" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B68" s="54" t="s">
         <v>1125</v>
@@ -9215,7 +9233,7 @@
     </row>
     <row r="69" spans="1:17" ht="9.75" customHeight="1">
       <c r="A69" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B69" s="54" t="s">
         <v>1126</v>
@@ -9263,7 +9281,7 @@
     </row>
     <row r="70" spans="1:17" ht="9.75" customHeight="1">
       <c r="A70" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B70" s="54" t="s">
         <v>1127</v>
@@ -9311,7 +9329,7 @@
     </row>
     <row r="71" spans="1:17" ht="9.75" customHeight="1">
       <c r="A71" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B71" s="54" t="s">
         <v>1128</v>
@@ -9359,7 +9377,7 @@
     </row>
     <row r="72" spans="1:17" ht="9.75" customHeight="1">
       <c r="A72" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B72" s="54" t="s">
         <v>1129</v>
@@ -9407,7 +9425,7 @@
     </row>
     <row r="73" spans="1:17" ht="9.75" customHeight="1">
       <c r="A73" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B73" s="54" t="s">
         <v>1130</v>
@@ -9455,7 +9473,7 @@
     </row>
     <row r="74" spans="1:17" ht="9.75" customHeight="1">
       <c r="A74" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B74" s="54" t="s">
         <v>1131</v>
@@ -9502,7 +9520,7 @@
     </row>
     <row r="75" spans="1:17" ht="9.75" customHeight="1">
       <c r="A75" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B75" s="54" t="s">
         <v>1132</v>
@@ -9549,7 +9567,7 @@
     </row>
     <row r="76" spans="1:17" ht="9.75" customHeight="1">
       <c r="A76" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B76" s="54" t="s">
         <v>1133</v>
@@ -9596,7 +9614,7 @@
     </row>
     <row r="77" spans="1:17" ht="9.75" customHeight="1">
       <c r="A77" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B77" s="54" t="s">
         <v>1134</v>
@@ -9639,7 +9657,7 @@
     </row>
     <row r="78" spans="1:17" ht="9.75" customHeight="1">
       <c r="A78" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B78" s="54" t="s">
         <v>1135</v>
@@ -9682,7 +9700,7 @@
     </row>
     <row r="79" spans="1:17" ht="9.75" customHeight="1">
       <c r="A79" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B79" s="54" t="s">
         <v>1136</v>
@@ -9729,7 +9747,7 @@
     </row>
     <row r="80" spans="1:17" ht="9.75" customHeight="1">
       <c r="A80" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B80" s="54" t="s">
         <v>1137</v>
@@ -9776,7 +9794,7 @@
     </row>
     <row r="81" spans="1:15" ht="9.75" customHeight="1">
       <c r="A81" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B81" s="64" t="s">
         <v>1227</v>
@@ -9805,10 +9823,10 @@
     </row>
     <row r="82" spans="1:15" ht="9.75" customHeight="1">
       <c r="A82" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B82" s="54" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K82" s="64" t="s">
         <v>1232</v>
@@ -9819,10 +9837,10 @@
     </row>
     <row r="83" spans="1:15" ht="11.4">
       <c r="A83" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B83" s="64" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K83" s="64" t="s">
         <v>1233</v>
@@ -9833,10 +9851,10 @@
     </row>
     <row r="84" spans="1:15" ht="45.6">
       <c r="A84" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B84" s="54" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I84" s="59" t="s">
         <v>1236</v>
@@ -9850,10 +9868,10 @@
     </row>
     <row r="85" spans="1:15" ht="9.75" customHeight="1">
       <c r="A85" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B85" s="64" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="K85" s="64" t="s">
         <v>1238</v>
@@ -9864,10 +9882,10 @@
     </row>
     <row r="86" spans="1:15" ht="9.75" customHeight="1">
       <c r="A86" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B86" s="54" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="K86" s="64" t="s">
         <v>1239</v>
@@ -9878,10 +9896,10 @@
     </row>
     <row r="87" spans="1:15" ht="9.75" customHeight="1">
       <c r="A87" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B87" s="64" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K87" s="64" t="s">
         <v>1240</v>
@@ -9892,10 +9910,10 @@
     </row>
     <row r="88" spans="1:15" ht="9.75" customHeight="1">
       <c r="A88" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B88" s="54" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K88" s="79" t="s">
         <v>1241</v>
@@ -9906,10 +9924,10 @@
     </row>
     <row r="89" spans="1:15" ht="9.75" customHeight="1">
       <c r="A89" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B89" s="64" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K89" s="79" t="s">
         <v>1242</v>
@@ -9920,10 +9938,10 @@
     </row>
     <row r="90" spans="1:15" ht="9.75" customHeight="1">
       <c r="A90" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B90" s="54" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="K90" s="64" t="s">
         <v>1243</v>
@@ -9934,10 +9952,10 @@
     </row>
     <row r="91" spans="1:15" ht="9.75" customHeight="1">
       <c r="A91" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K91" s="64" t="s">
         <v>1244</v>
@@ -9948,10 +9966,10 @@
     </row>
     <row r="92" spans="1:15" ht="9.75" customHeight="1">
       <c r="A92" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B92" s="54" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K92" s="64" t="s">
         <v>1245</v>
@@ -9962,10 +9980,10 @@
     </row>
     <row r="93" spans="1:15" ht="9.75" customHeight="1">
       <c r="A93" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B93" s="64" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="K93" s="79" t="s">
         <v>1246</v>
@@ -9976,10 +9994,10 @@
     </row>
     <row r="94" spans="1:15" ht="9.75" customHeight="1">
       <c r="A94" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B94" s="54" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I94" s="59" t="s">
         <v>1251</v>
@@ -9993,10 +10011,10 @@
     </row>
     <row r="95" spans="1:15" ht="9.75" customHeight="1">
       <c r="A95" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B95" s="64" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I95" s="59" t="s">
         <v>1255</v>
@@ -10010,10 +10028,10 @@
     </row>
     <row r="96" spans="1:15" ht="32.25" customHeight="1">
       <c r="A96" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K96" s="64" t="s">
         <v>1256</v>
@@ -10024,10 +10042,10 @@
     </row>
     <row r="97" spans="1:13" ht="9.75" customHeight="1">
       <c r="A97" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="K97" s="64" t="s">
         <v>1258</v>
@@ -10038,10 +10056,10 @@
     </row>
     <row r="98" spans="1:13" ht="34.200000000000003">
       <c r="A98" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B98" s="54" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C98" s="59" t="s">
         <v>101</v>
@@ -10061,10 +10079,10 @@
     </row>
     <row r="99" spans="1:13" ht="114">
       <c r="A99" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I99" s="59" t="s">
         <v>1265</v>
@@ -10073,12 +10091,12 @@
         <v>1258</v>
       </c>
       <c r="M99" s="65" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="91.2">
       <c r="A100" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B100" s="54" t="s">
         <v>1263</v>
@@ -10090,15 +10108,15 @@
         <v>1256</v>
       </c>
       <c r="M100" s="65" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="57">
       <c r="A101" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I101" s="59" t="s">
         <v>1267</v>
@@ -10107,15 +10125,15 @@
         <v>1266</v>
       </c>
       <c r="M101" s="65" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="22.8">
       <c r="A102" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I102" s="59" t="s">
         <v>1269</v>
@@ -10124,15 +10142,15 @@
         <v>1268</v>
       </c>
       <c r="M102" s="64" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="57">
       <c r="A103" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I103" s="59" t="s">
         <v>1270</v>
@@ -10141,15 +10159,15 @@
         <v>1271</v>
       </c>
       <c r="M103" s="65" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="34.200000000000003">
       <c r="A104" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B104" s="54" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I104" s="59" t="s">
         <v>1272</v>
@@ -10158,15 +10176,15 @@
         <v>1273</v>
       </c>
       <c r="M104" s="64" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="57">
       <c r="A105" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I105" s="59" t="s">
         <v>1275</v>
@@ -10175,15 +10193,15 @@
         <v>1274</v>
       </c>
       <c r="M105" s="65" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="57">
       <c r="A106" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B106" s="54" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I106" s="59" t="s">
         <v>1276</v>
@@ -10192,15 +10210,15 @@
         <v>1277</v>
       </c>
       <c r="M106" s="65" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="57">
       <c r="A107" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I107" s="59" t="s">
         <v>1279</v>
@@ -10209,15 +10227,15 @@
         <v>1278</v>
       </c>
       <c r="M107" s="65" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="9.75" customHeight="1">
       <c r="A108" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B108" s="54" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I108" s="59" t="s">
         <v>1281</v>
@@ -10231,10 +10249,10 @@
     </row>
     <row r="109" spans="1:13" ht="79.8">
       <c r="A109" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I109" s="59" t="s">
         <v>1283</v>
@@ -10243,15 +10261,15 @@
         <v>1282</v>
       </c>
       <c r="M109" s="65" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="45.6">
       <c r="A110" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B110" s="54" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I110" s="59" t="s">
         <v>1285</v>
@@ -10265,10 +10283,10 @@
     </row>
     <row r="111" spans="1:13" ht="34.200000000000003">
       <c r="A111" s="54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I111" s="59" t="s">
         <v>1287</v>
@@ -10281,37 +10299,37 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="22.8">
-      <c r="A112" s="64" t="s">
-        <v>1291</v>
+      <c r="A112" s="54" t="s">
+        <v>0</v>
       </c>
       <c r="B112" s="54" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I112" s="59" t="s">
         <v>1288</v>
       </c>
       <c r="K112" s="80" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="L112" s="64" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M112" s="64" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="9.75" customHeight="1">
-      <c r="A113" s="64" t="s">
-        <v>1291</v>
+      <c r="A113" s="54" t="s">
+        <v>0</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I113" s="59" t="s">
         <v>1289</v>
       </c>
       <c r="K113" s="80" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L113" s="64" t="s">
         <v>1290</v>
@@ -10322,20 +10340,20 @@
     </row>
     <row r="114" spans="1:14" ht="9.75" customHeight="1">
       <c r="K114" s="64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="M114" s="64" t="s">
         <v>1325</v>
-      </c>
-      <c r="M114" s="64" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="9.75" customHeight="1">
       <c r="K115" s="64" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="9.75" customHeight="1">
       <c r="K116" s="64" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="9.75" customHeight="1">
@@ -10345,37 +10363,37 @@
     </row>
     <row r="118" spans="1:14" ht="87" customHeight="1">
       <c r="K118" s="72" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="M118" s="65" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="N118" s="64" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="9.75" customHeight="1">
       <c r="K119" s="71" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="M119" s="66" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="22.8">
       <c r="K120" s="71" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="M120" s="64" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="9.75" customHeight="1">
       <c r="K121" s="64" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="M121" s="65" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
@@ -10397,9 +10415,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="9" max="9" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
@@ -10444,20 +10462,17 @@
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>360</v>
+      <c r="B2" t="s">
+        <v>1344</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>361</v>
+        <v>1343</v>
       </c>
       <c r="D2" s="42">
         <v>179</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>362</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>363</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>2</v>
@@ -10495,9 +10510,6 @@
       </c>
       <c r="E3" s="33" t="s">
         <v>362</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>366</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>2</v>
@@ -15937,21 +15949,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.88671875" style="2" collapsed="1"/>
-    <col min="5" max="5" width="18.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.88671875" style="2" collapsed="1"/>
-    <col min="8" max="8" width="63.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="59.33203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="79.88671875" style="14" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="61.44140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="36.88671875" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.44140625" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="5.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="4.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="6.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="23.88671875" collapsed="true"/>
+    <col min="4" max="4" style="2" width="5.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="18.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" style="2" width="5.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="63.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="14" width="15.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="14" width="59.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="14" width="79.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="61.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="15" width="36.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="33.44140625" collapsed="true"/>
+    <col min="15" max="16384" style="2" width="5.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="9.75" customHeight="1">
